--- a/Golang_Basis/openai_chat/verse_reflection/daily_verse4.xlsx
+++ b/Golang_Basis/openai_chat/verse_reflection/daily_verse4.xlsx
@@ -45,7 +45,7 @@
     <t>46</t>
   </si>
   <si>
-    <t>Reflect on the profound command found in Psalm 46:10: "Be still, and know that I am God." In the midst of the chaos and busyness of life, God invites us to pause and find tranquility in His presence. Consider how often you take the time to truly be still and recognize the omnipotent power and loving presence of God. Challenge yourself to make regular moments of stillness a priority, allowing God's peace to fill your heart and guide your steps.</t>
+    <t>Reflect upon the call to be still and acknowledge the presence and power of God in your life. In moments of chaos and uncertainty, remind yourself to pause, quiet your mind, and turn your heart towards God. Embrace the peace that comes from trusting in His sovereignty and surrendering your worries to Him. Allow this stillness to strengthen your faith and deepen your relationship with God, knowing that He is in control and ever-present.</t>
   </si>
   <si>
     <t>July 9, 2024</t>
@@ -60,7 +60,7 @@
     <t>6</t>
   </si>
   <si>
-    <t>Reflect, today, upon what it means to "seek first His kingdom and His righteousness." Consider the priorities you have set in your daily life and ask yourself if God’s kingdom truly comes first. Reflect on the areas where worldly concerns and desires may have taken precedence. As you meditate on this passage, renew your commitment to trust that as you seek God's ways above all else, all other needs will be provided for you. Trust in His divine order and providence.</t>
+    <t>Reflect upon the priorities that guide your daily life. Do you seek first the Kingdom of God and His righteousness, or are you often distracted by worldly pursuits and anxieties? Consider how your life might change if you regularly place your trust in God's providence and align your actions with His will. Invite the Lord to guide your steps and grant you the wisdom to value what truly matters.</t>
   </si>
   <si>
     <t>July 10, 2024</t>
@@ -75,7 +75,7 @@
     <t>5</t>
   </si>
   <si>
-    <t>Reflect upon the powerful words of Amos 5:24: "But let justice roll on like a river, righteousness like a never-failing stream!" Consider how these two elements, justice and righteousness, are meant to flow continually, cleansing and refreshing every aspect of our lives and our society. Examine your life and ask yourself if you are contributing to this divine flow of justice and righteousness. Are there areas where you have neglected to act justly or live righteously? Seek God's guidance and strength to let these virtues permeate your actions, decisions, and relationships, so that His vision for a just and righteous world can be realized through you.</t>
+    <t>Reflect upon the call for justice and righteousness in your life. Consider the ways in which you might contribute to a more just and fair world. Are there areas where you might need to take stronger stands against injustice or take actions that promote the wellbeing of others? Let the imagery of justice flowing like a river inspire you to be an agent of God’s righteous love in all aspects of your life. Seek to align your actions, both great and small, with the divine calling for true justice and integrity.</t>
   </si>
   <si>
     <t>July 11, 2024</t>
@@ -90,7 +90,7 @@
     <t>41</t>
   </si>
   <si>
-    <t>Reflect upon the powerful assurance given to us in Isaiah 41:10, which reminds us not to fear, for God is with us; not to be dismayed, for He is our God. He promises to strengthen, help, and uphold us with His righteous right hand. Consider areas in your life where you are prone to fear and dismay. Bring these anxieties before the Lord and receive His strength and support. Trust in His ever-present help and take courage in knowing that His righteous hand upholds you in every moment.</t>
+    <t>Fear and anxiety often creep into our hearts, clouding our minds and impeding our faith. Reflect on the countless ways God reassures us, offering strength and support in our times of need. Consider whether you truly rely on Him in moments of weakness, or if you tend to grapple with challenges on your own. Let this be a moment to surrender fully to God's unwavering presence, knowing that His support is always with you. Reflect on how you can deepen your trust in Him, embracing His promise to uphold you no matter the trials you face.</t>
   </si>
   <si>
     <t>July 12, 2024</t>
@@ -105,7 +105,7 @@
     <t>8</t>
   </si>
   <si>
-    <t>Reflect upon the deep and reassuring promise within this verse: "And we know that in all things God works for the good of those who love him, who have been called according to his purpose." Consider the challenges and uncertainties in your life right now. Are you able to trust that God is at work, weaving even the difficult moments into a greater tapestry of good? Take time to reflect on the ways God has brought good out of past hardships, and allow this to strengthen your faith in His ongoing work in your life. Embrace the reassurance that God has a purpose and a plan, one that encompasses every moment of your existence.</t>
+    <t>Reflect today upon the profound truth that all things, indeed, work together for the good of those who love God and are called according to His purpose. Consider the trials and tribulations you have faced in your life. Have you seen God's hand guiding you through these moments, transforming them into something beneficial for your soul? Trust in His divine plan, even when circumstances seem challenging. Place your confidence in the assurance that God's wisdom surpasses human understanding, and He is continually working towards your ultimate good and spiritual growth.</t>
   </si>
   <si>
     <t>July 13, 2024</t>
@@ -120,7 +120,7 @@
     <t>4</t>
   </si>
   <si>
-    <t>Reflect upon this powerful declaration: "I can do all things through Christ who strengthens me." Consider the ways in which you face challenges, obstacles, and moments of doubt in your everyday life. Are you relying on your own strength, or are you turning to Christ for the fortitude to overcome? Let this verse remind you that the strength of Christ within you is boundless and can empower you to achieve and endure all things. Embrace this divine strength and let it guide you through every aspect of your life's journey.</t>
+    <t>Reflect on the power and strength that comes from faith and reliance on God. Consider areas in your life where you feel weak or incapable. How might your faith transform these vulnerabilities into sources of strength? Contemplate the idea that true strength isn't about personal might but about the empowerment that comes from entrusting your challenges to God. Embrace this divine support and let it guide you through your obstacles, knowing that with faith, you can overcome.</t>
   </si>
   <si>
     <t>July 14, 2024</t>
@@ -132,7 +132,7 @@
     <t>23</t>
   </si>
   <si>
-    <t>Reflect, today, upon the profound simplicity and depth of the statement, "The Lord is my shepherd; I shall not want." Consider the ways God shepherds you, guiding and protecting you through the valleys of life. Ask yourself whether you truly let Him lead you and provide for you, or if you often try to rely on your own strength and wisdom. Contemplate the peace that comes from trusting in God's provision and care, and let this verse remind you of His unwavering presence and sufficiency in every situation.</t>
+    <t>Reflect upon the profound peace and assurance that comes with entrusting your life entirely to God's care. Consider how acknowledging God's guidance and provision can quiet your anxieties and bring contentment in all circumstances. As you move through your day, remind yourself that you are not navigating alone and that in His care, you lack nothing truly essential. Allow this truth to fill your heart with gratitude and trust.</t>
   </si>
   <si>
     <t>July 15, 2024</t>
@@ -147,7 +147,7 @@
     <t>29</t>
   </si>
   <si>
-    <t>Reflect upon the promise contained in this verse, where God declares, "For I know the plans I have for you, plans to prosper you and not to harm you, plans to give you hope and a future." Consider how often you trust in God's providential care and goodness, especially during times of uncertainty and doubt. Reflect on whether you allow this divine promise to shape your outlook on life and your daily decisions. Let this assurance from God be a source of comfort and strength, renewing your trust in His unwavering guidance and perfect plan for your life.</t>
+    <t>Reflect upon the profound truth that you are always within God's vision, and that He has plans designed uniquely for you. These are not random or harmful plans, but ones filled with hope, purpose, and a promising future. As you ponder this, consider how often you trust in this divine plan, especially during times of uncertainty or challenge. Reflect on the ways in which you can deepen your faith in God's intentions, and rejoice in the assurance that your life is guided by a loving and all-knowing Creator.</t>
   </si>
   <si>
     <t>July 16, 2024</t>
@@ -162,7 +162,7 @@
     <t>16</t>
   </si>
   <si>
-    <t>Reflect, today, upon the profound truth found in this verse: "I keep my eyes always on the Lord. With him at my right hand, I will not be shaken." Consider what it means to keep your focus on God amidst the various distractions of life. How often do you let external circumstances or inner turmoil shift your gaze away from the Lord? Ponder how your life changes when you maintain a steadfast focus on God's presence and support. With God by your side, take courage and find strength to stand firm, no matter the challenges you face.</t>
+    <t>Reflect upon the steadfastness and assurance that comes from placing your trust in God. Consider how recognizing God's constant presence in your life can provide you with unshakeable confidence and peace. Are there moments when you forget that God is at your side? Ponder how your daily actions and decisions might change if you truly believed and felt God's perpetual guidance and support. Let this awareness inspire a deeper trust in Him and a boldness to move forward in faith, knowing that you are never alone.</t>
   </si>
   <si>
     <t>July 17, 2024</t>
@@ -174,7 +174,7 @@
     <t>1 Peter</t>
   </si>
   <si>
-    <t>Reflect upon the significance of casting all your anxieties upon God because He cares for you. Consider the depth of this care and the invitation to trust God fully with every worry and fear you may have. In moments when anxiety overwhelms you, recall this verse and let it guide you to surrender and place your complete trust in His loving hands. Seek to deepen your relationship with God, knowing that He is always there to support and care for you in every situation.</t>
+    <t>Reflect, today, upon the immense love that God has for you. Embrace the invitation to cast all your worries, fears, and anxieties upon Him. Recognize that no burden is too heavy for God to bear and that His concern for you is profound and unwavering. Let this be a reminder that you are not alone in your struggles, and you are encouraged to place your trust fully in His compassionate care. Surrender your heart and find peace in knowing that God is constantly watching over you, ready to shoulder your burdens and provide comfort in times of need.</t>
   </si>
   <si>
     <t>July 18, 2024</t>
@@ -186,7 +186,7 @@
     <t>119</t>
   </si>
   <si>
-    <t>Reflect, today, on the significance of the verse, "Your word is a lamp to my feet and a light to my path." Consider how God’s word illuminates your journey and guides you through the darkness and uncertainties of life. Ask yourself if you are allowing His word to truly direct your decisions and actions, or if you are trying to navigate your path on your own terms. Let this verse remind you to turn to Scripture regularly, letting God’s wisdom shine brightly on your way, providing clarity, direction, and comfort as you walk through life’s journey.</t>
+    <t>Reflect upon the ways in which you seek guidance and direction in your life. Ask yourself whether you rely solely on your own understanding and wisdom, or if you turn to the divine wisdom provided by God. Consider how God's guidance illuminates your path, offering clarity and purpose in moments of uncertainty. Strive to let His wisdom be the light that directs every step you take, trusting that with His guidance, you will be led to the fulfillment of His divine plan for you.</t>
   </si>
   <si>
     <t>July 19, 2024</t>
@@ -198,7 +198,7 @@
     <t>Proverbs</t>
   </si>
   <si>
-    <t>Reflect, today, upon the commitment of your plans to the Lord. Proverbs 16:3 reminds us to "Commit to the Lord whatever you do, and he will establish your plans." Consider what it means to truly entrust every action, every decision, and every dream to God's will. Are there areas in your life where you are holding back, relying more on your understanding than on divine guidance? Open your heart to trust in God's wisdom and seek His counsel in all things, allowing Him to shape and establish your steps along the way. Pray for the grace to surrender your plans and to be guided by His perfect will.</t>
+    <t>Reflect upon the act of committing your works and actions to the divine guidance of God. Consider the importance of entrusting your plans and endeavors to His wisdom and providence. As you reflect, ask yourself if you truly seek God's direction in your daily decisions and whether you rely on His strength to carry you forward. Contemplate the peace and assurance that comes from knowing your ways are established by a higher authority and commit to integrating this trust into every aspect of your life.</t>
   </si>
   <si>
     <t>July 20, 2024</t>
@@ -213,7 +213,7 @@
     <t>14</t>
   </si>
   <si>
-    <t>Reflect upon Jesus' profound declaration, "I am the way and the truth and the life. No one comes to the Father except through me." These words call us to recognize that Jesus is not just one possible path, but the definitive way to communion with God. Consider how fully you are embracing Jesus as your guide, your source of truth, and the very essence of your life. Do you seek other routes to fulfillment and truth, or do you trust wholly in Him? Reflect on how you can deepen your dependence on Jesus in every aspect of your journey.</t>
+    <t>Reflect upon the profound statement that Jesus is the way, the truth, and the life. Contemplate what it means to orient your life entirely towards Him, allowing His presence to be your guiding path. Ask yourself if there are any areas in your life where you are seeking direction or truth from sources other than Jesus. Consider how allowing Him to lead in every aspect of your existence might transform your life and illuminate your path with His divine light.</t>
   </si>
   <si>
     <t>July 21, 2024</t>
@@ -225,7 +225,7 @@
     <t>12</t>
   </si>
   <si>
-    <t>Reflect today upon the transformative power of the renewal of your mind. Romans 12:2 calls us to not conform to the patterns of this world, but to be transformed by the renewing of our minds. Consider what worldly influences might be shaping your thoughts, actions, and values. Are there areas in your life that need the renewal of God's truth and wisdom? Invite the Holy Spirit to guide you in discerning and embracing God's will, which is good, pleasing, and perfect. Allow this transformation to lead you in becoming more aligned with His purpose in your daily life.</t>
+    <t>Consider how often you allow yourself to be shaped by the world around you. Reflect on the sources of influence in your life—media, social expectations, opinions of others—and how they might be molding your thoughts and actions. Challenge yourself to seek transformation through renewal of your mind, focusing on divine wisdom and guidance. This renewal is a continual process, asking us to discern and embrace what is good, pleasing, and perfect in the eyes of God. Honest introspection and a commitment to spiritual growth can lead us to a more authentic and fulfilling life aligned with God’s will.</t>
   </si>
   <si>
     <t>July 22, 2024</t>
@@ -234,7 +234,7 @@
     <t>Proverbs 29:23</t>
   </si>
   <si>
-    <t>Reflect upon the truth that humility is the pathway to honor, while pride inevitably leads to one's downfall. Consider how pride might manifest in your life and how it holds you back from experiencing true exaltation in God's eyes. Contrast that with moments of genuine humility and the inner peace and respect they have brought you. Ask God to help you cultivate a humble heart, so that His honor and grace might uplift you in your journey.</t>
+    <t>Reflect, today, upon the virtue of humility. Consider how pride often leads to one's downfall and how embracing a humble heart brings honor and closeness to God. Ponder the ways in which pride may be subtly influencing your actions and relationships. Ask for the grace to cultivate genuine humility in all aspects of your life, recognizing that true greatness comes from serving others selflessly. Seek to uplift those around you, understanding that in lowering yourself, you will be exalted by the Lord.</t>
   </si>
   <si>
     <t>July 23, 2024</t>
@@ -246,7 +246,7 @@
     <t>34</t>
   </si>
   <si>
-    <t>Reflect, today, upon the invitation to "taste and see that the Lord is good." Consider how you experience the goodness of the Lord in your daily life. Are you open to the many ways God reveals His love and blessings to you? Take time to savor these moments, deepening your awareness and gratitude for His continual presence. Let the recognition of His goodness enhance your trust and reliance on Him in all circumstances.</t>
+    <t>Reflect upon the invitation to taste and fully experience the goodness of the Lord. Consider moments in your life where you have felt the pure, reassuring presence of God's love and goodness. Are there areas where you still hesitate to trust Him completely? Take a step today to deepen your faith by acknowledging and savoring those blessings and graces He continuously offers. Let this reflection inspire you to open your heart more fully to His love, finding true refuge and joy in His presence.</t>
   </si>
   <si>
     <t>July 24, 2024</t>
@@ -258,7 +258,7 @@
     <t>1 Corinthians</t>
   </si>
   <si>
-    <t>Reflect upon the simple yet profound directive, "Do everything in love." Consider how your daily actions, thoughts, and words are infused with love. Are there areas in your life where love is lacking? How can you transform even the smallest tasks and interactions into expressions of genuine love for others? Use this reflection to guide you in striving to ensure that love is at the core of all you do, honoring the teachings of Christ in every moment.</t>
+    <t>Reflect upon the nature of your actions and motivations. Consider whether they are genuinely rooted in love and charity, or if they are driven by self-interest or obligation. Love is the highest calling and the most profound guide for all that we do. Let your every action be an expression of this divine love, bringing light and grace to those around you. Reflect on how you can more fully integrate this principle into every aspect of your life.</t>
   </si>
   <si>
     <t>July 25, 2024</t>
@@ -270,7 +270,7 @@
     <t>37</t>
   </si>
   <si>
-    <t>Reflect, today, upon the delight you take in the Lord and how this delight informs your desires. Psalm 37:4 tells us, "Take delight in the Lord, and he will give you the desires of your heart." Consider what it truly means to find joy and contentment in God's presence. Are your desires aligned with His will? Ponder the depth of your relationship with God and strive to cultivate a heart that finds its ultimate fulfillment in Him. Let this verse remind you to seek God first, trusting that in doing so, He will align your desires with His perfect plan.</t>
+    <t>Reflect upon the desires of your heart and how they align with the will of God. Are your desires rooted in self-interest, or do they stem from a place of love, service, and trust in the Lord? Consider how by delighting in your relationship with God, you invite Him to transform your heart’s desires to mirror His divine will. Embrace the joy that comes from true communion with God and let it guide your deepest longings and aspirations in life.</t>
   </si>
   <si>
     <t>July 26, 2024</t>
@@ -285,7 +285,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Reflect upon the divine reassurance and command given in Joshua 1:9, which says, "Have I not commanded you? Be strong and courageous. Do not be frightened, and do not be dismayed, for the Lord your God is with you wherever you go." Ponder how this message speaks directly to you in the midst of your own fears and uncertainties. Consider the strength and courage that God calls you to embrace, and remind yourself of His constant presence in your life. Let this reflection fortify your spirit and inspire you to step forward with faith, knowing that you are never alone on your journey.</t>
+    <t>Reflect today on the profound strength and courage that faith in God inspires within us. Ponder how trust in God’s presence empowers you to face life's challenges without fear or dismay. Ask yourself if there are areas in your life where fear still holds sway and seek to surrender these fears to God, trusting in His constant guidance and support. Reflect on how you can cultivate a deeper sense of divine courage and resilience in your daily walk.</t>
   </si>
   <si>
     <t>July 27, 2024</t>
@@ -297,7 +297,7 @@
     <t>15</t>
   </si>
   <si>
-    <t>Reflect upon the hope, joy, and peace that God wishes to fill you with through the power of the Holy Spirit, as described in Romans 15:13. Ask yourself if you are truly allowing God to fill you with these gifts, or if there are obstacles in your life preventing you from experiencing His fullness. Ponder how steadfast your trust in Him is and seek ways to grow in faith so that you may abound in hope by His divine power.</t>
+    <t>Reflect on the depth of joy and peace that faith can bring you. Consider the areas of your life where hope might be lacking and invite God to fill those spaces with His presence. Through trust in God's promises, allow yourself to overflow with hope by the power of the Holy Spirit, knowing that true hope is a gift that sustains and uplifts you, no matter the circumstances.</t>
   </si>
   <si>
     <t>July 28, 2024</t>
@@ -309,7 +309,7 @@
     <t>118</t>
   </si>
   <si>
-    <t>Reflect upon this verse, "This is the day the Lord has made; let us rejoice and be glad in it." Take a moment to recognize that each day is a precious gift from God, filled with opportunities for grace and joy. Contemplate how you can truly embrace this day with a heart full of gratitude and a spirit open to the blessings and challenges that come your way. How can you intentionally choose to rejoice and find gladness, even amidst difficulties? Let this verse inspire you to live each day with purpose and joy, acknowledging the divine gift of life.</t>
+    <t>Reflect today on the gift of the present moment. Each day is a unique blessing from God, filled with opportunities for growth, joy, and service. Consider how you approach each new day—do you receive it with gratitude and an open heart, or do you allow worries and past regrets to cloud your perception? Take a moment to embrace today as a sacred offering. Rejoice in its possibilities and ask God to guide you in making the most of every moment He has given you.</t>
   </si>
   <si>
     <t>July 29, 2024</t>
@@ -321,7 +321,7 @@
     <t>19</t>
   </si>
   <si>
-    <t>Reflect on the many plans you have made in your life. Consider the times when things did not go as you had envisioned. Despite the diversity of our intentions, it is ultimately God's purpose that prevails. Are you willing to surrender your plans to God and trust in His perfect design for your life? Spend time in prayer, asking for the grace to let go of your own agendas and to embrace the path God has laid out for you. Seek His guidance in your daily decisions, knowing that His plans are always for your greatest good.</t>
+    <t>Reflect upon the many plans and desires you may hold within your heart. Recognize that while it is natural to have aspirations and goals, it is ultimately God's will that prevails in the end. Surrender your plans to the Lord, trusting that His plan for your life is greater than your own. Seek His guidance in all that you do, and find peace in knowing that His purpose will always stand firm.</t>
   </si>
   <si>
     <t>July 30, 2024</t>
@@ -333,7 +333,7 @@
     <t>11</t>
   </si>
   <si>
-    <t>Reflect on the invitation extended to us by Jesus in this verse, "Come to me, all you who are weary and burdened, and I will give you rest." Ponder what burdens you are carrying today and how they weigh you down. Contemplate the relief and peace that Jesus promises to those who come to Him with their struggles. Consider if you are fully entrusting your worries and cares to Jesus, allowing Him to give you the rest and solace that only He can provide. Take a moment to truly seek His comfort and let go of the burdens you hold onto so tightly.</t>
+    <t>Reflect upon the incredible invitation Jesus offers to come to Him for rest. Consider the burdens you carry and the weariness that sometimes weighs you down. Jesus calls you to unburden yourself by trusting in His gentle and humble heart. Meditate on how you can daily find rest for your soul by turning to Him and allowing His grace to renew your spirit. Seek the strength to persist in your faith journey as you entrust your struggles to His loving care.</t>
   </si>
   <si>
     <t>July 31, 2024</t>
@@ -345,7 +345,7 @@
     <t>1 John</t>
   </si>
   <si>
-    <t>Reflect upon the profound truth that "We love because he first loved us." Consider the ways in which God's love has manifested in your life—through blessings, trials, relationships, and daily experiences. Ask yourself how deeply you recognize and appreciate God's initiating love. Then, challenge yourself to let this recognition fuel your own capacity to love others selflessly and generously, as a genuine response to the tremendous love you have received from God.</t>
+    <t>Reflect on the profound truth that our ability to love originates from a greater love bestowed upon us. Contemplate how this divine gift of love transforms your relationships and interactions with others. Consider your own capacity to love unconditionally, inspired by the perfect love you have received. How can you extend this same love to those around you, especially in moments of difficulty? Let this reflection guide you in deepening your commitment to loving others as a response to the love that has been freely given to you.</t>
   </si>
   <si>
     <t>August 1, 2024</t>
@@ -357,7 +357,7 @@
     <t>27</t>
   </si>
   <si>
-    <t>Reflect upon the profound truth contained in Psalm 27:1, "The Lord is my light and my salvation—whom shall I fear? The Lord is the stronghold of my life—of whom shall I be afraid?" Take a moment to ponder the areas in your life where fear and doubt have crept in. Ask yourself, do you truly trust in the Lord as your light and salvation? Do you allow Him to be the stronghold that sustains you through every challenge? Let this verse be a reminder to place unwavering faith in God, knowing that with Him as your protector and guide, there is nothing and no one to fear.</t>
+    <t>Reflect upon the unwavering strength and confidence that comes from placing your trust entirely in God. Consider the fears and uncertainties in your life and how they dissipate as you deepen your faith in Him. Let today's contemplation be about grounding yourself in the reality that with God as your guiding light and salvation, there is truly nothing to fear. Allow this reflection to cultivate a spirit of courage and peace within you, acknowledging the divine protection and support that surrounds you always.</t>
   </si>
   <si>
     <t>August 2, 2024</t>
@@ -366,7 +366,7 @@
     <t>Philippians 4:6</t>
   </si>
   <si>
-    <t>Reflect on the invitation from St. Paul to "Be anxious for nothing, but in everything, by prayer and petition, with thanksgiving, present your requests to God." Consider how often you bring your anxieties to the Lord in prayer. Are there areas in your life where worry overwhelms your capacity to trust in God's providence? Reflect on the power of thanksgiving in your prayers and how gratitude can transform your perspective. Today, make a conscious effort to surrender your anxieties to God, trusting that His peace will guard your heart and mind in Christ Jesus.</t>
+    <t>Reflect today on the invitation to place your worries and anxieties into God's hands. Consider how often you carry the weight of your worries on your own shoulders, and how freeing it can be to surrender them to God's care. Meditate on the process of prayer and supplication with gratitude, and let it inspire you to cultivate a spirit of trust and reliance on God's provision and peace in every aspect of your life.</t>
   </si>
   <si>
     <t>August 3, 2024</t>
@@ -375,7 +375,7 @@
     <t>John 16:33</t>
   </si>
   <si>
-    <t>Reflect upon the words of Jesus in this verse: “I have told you these things, so that in me you may have peace. In this world you will have trouble. But take heart! I have overcome the world.” Contemplate the reality of trials and tribulations in your life and acknowledge that they are part of the human experience. However, do not dwell on the difficulties alone. Remember and find solace in the victory Christ has won over the world. Allow His triumph to be your source of peace and courage amidst your daily struggles. How might you embrace this divine peace and let it transform your perspective on the challenges you face?</t>
+    <t>Reflect upon the profound promise that despite the trials and tribulations you may face in this world, there is a deeper peace available through faith. Contemplate the assurance that overcoming adversity is possible through divine strength. Consider whether you turn to this source of peace and victory during your own challenges. Ask yourself how you can trust more deeply in this promise and bring this divine peace into your everyday life, sharing it with those who may also be in need of hope and encouragement.</t>
   </si>
   <si>
     <t>August 4, 2024</t>
@@ -384,7 +384,7 @@
     <t>Romans 8:31</t>
   </si>
   <si>
-    <t>Reflect upon the powerful question posed by Paul in Romans 8:31, "If God is for us, who can be against us?" Take a moment to consider the profound truth that no opposition, no trial, no enemy can stand against the omnipotent presence of God in your life. Reflect on the areas of your life where you feel challenged or opposed. Are there fears or anxieties that you have allowed to overshadow your trust in God? Let this verse remind you that with God on your side, you are more than a conqueror. Reaffirm your faith and trust in His divine support, knowing that no force can ultimately prevail against the love and power of Almighty God.</t>
+    <t>Reflect upon the assurance that, no matter what challenges or hardships you face, you are never alone or forsaken. The confident knowledge that the ultimate power of God's love and grace is with you can transform the way you approach every situation in life. Allow this truth to permeate your heart, dispelling fear and filling you with courage and hope. Contemplate the ways in which you can live more boldly and faithfully, knowing that God's support is unwavering and unmatched by any worldly power.</t>
   </si>
   <si>
     <t>August 5, 2024</t>
@@ -393,7 +393,7 @@
     <t>1 John 4:11</t>
   </si>
   <si>
-    <t>Reflect, today, upon the profound call to love that we are given in 1 John 4:11: "Beloved, if God so loved us, we also ought to love one another." Contemplate the depth of God's love for you – a love so immense that He sent His only Son for your salvation. With that in mind, consider how you are called to mirror that love in your interactions with others. Are there areas in your life where you struggle to show love or forgiveness? Ask God for the grace to see others through His eyes and to love them as He loves you. Embrace this commandment of love as a daily mission, and let it transform your relationships and your heart.</t>
+    <t>Reflect today upon the profound calling to love one another as we have been loved by God. Consider the depth and magnitude of God's love for you, manifest in every breath, every moment, and every act of grace in your life. Then, let this divine love flow through you, extending it to all those around you, irrespective of who they are or what they have done. Challenge yourself to recognize the divine image within each person and to translate that recognition into genuine acts of kindness and compassion.</t>
   </si>
   <si>
     <t>August 6, 2024</t>
@@ -405,7 +405,7 @@
     <t>22</t>
   </si>
   <si>
-    <t>Reflect upon the importance of guiding and nurturing the young ones in your life, ensuring that they are instilled with values and wisdom from an early age. Proverbs 22:6 reminds us to "Train up a child in the way he should go; even when he is old, he will not depart from it." Consider how you can be a positive influence and a source of guidance for the children around you, leading them in the ways of righteousness. Pray for the patience, love, and wisdom needed to be an effective mentor, knowing that the lessons you impart today will have a lasting impact on their future.</t>
+    <t>Reflect upon the responsibility that is bestowed upon us to guide and nurture the young on their path. Consider the impact you have on the lives of those younger than you, whether they are your children, relatives, or members of your community. Ponder how your actions, words, and teachings can shape their future. Are you leading by example, instilling values, and offering guidance that will help them navigate life's journey with integrity and wisdom? Take a moment to evaluate your influence and commit to being a positive and guiding force in their lives.</t>
   </si>
   <si>
     <t>August 7, 2024</t>
@@ -414,7 +414,7 @@
     <t>Matthew 5:16</t>
   </si>
   <si>
-    <t>Reflect upon the words, "let your light shine before others, that they may see your good deeds and glorify your Father in heaven." Consider how the light of your faith can illuminate the path for others. Are your actions and words a testament to the love and grace of God? Reflect on the ways in which you can manifest this divine light so that others are drawn to the glory and goodness of our Heavenly Father. Aim to let your life be a beacon of hope and love that both reflects and leads others to God.</t>
+    <t>Reflect upon the light that you are called to be in the world. Consider how your actions, words, and presence serve as a beacon of God's love and truth to others. Recognize that this light is not meant to be hidden but to shine forth brightly, illuminating the path for those around you. Contemplate the ways in which you can more effectively let this divine light shine through your daily interactions and decisions, inspiring others to see the goodness of God in you and to glorify Him.</t>
   </si>
   <si>
     <t>August 8, 2024</t>
@@ -426,7 +426,7 @@
     <t>100</t>
   </si>
   <si>
-    <t>Reflect today on the importance of gratitude and praise in your life. Psalm 100:4 says, "Enter his gates with thanksgiving and his courts with praise; give thanks to him and praise his name." Consider how often you pause to offer sincere thankfulness to God. Reflect on the ways in which expressing gratitude can transform your relationship with God and others. Make an effort to consciously enter every moment of your day with a heart full of thanksgiving, regardless of your circumstances, and let His praise be ever on your lips.</t>
+    <t>Reflect upon the practice of gratitude and praise in your daily life. Consider how often you approach God with a heart full of thanksgiving and a spirit ready to offer praise. Think about the moments of your day that might be filled with complaints or worries, and imagine transforming those moments into opportunities for gratitude. Let your heart be filled with joy and thanksgiving, regardless of your circumstances, and allow this attitude to draw you closer to God.</t>
   </si>
   <si>
     <t>August 9, 2024</t>
@@ -438,7 +438,7 @@
     <t>40</t>
   </si>
   <si>
-    <t>Reflect upon the promise that those who hope in the Lord will renew their strength. Contemplate the imagery of soaring on wings like eagles, running without growing weary, and walking without being faint. Consider what it means to truly hope in the Lord amidst life's trials and uncertainties. Are there areas in your life where you feel depleted or burdened? Surrender these to God, trusting in His promise to renew and sustain you. Allow this verse to inspire a deeper reliance on God's strength rather than your own.</t>
+    <t>Reflect upon the promise of renewed strength that comes from waiting upon the Lord. Consider the areas in your life where you feel weary and burdened. Have you placed your trust and hope in God during these times, or have you relied on your own strength? Take this moment to embrace the quiet patience of waiting on God, allowing His divine power to lift you up and renew your spirit. Remember, true strength comes not from our own efforts but from surrendering to God's unwavering care and love.</t>
   </si>
   <si>
     <t>August 10, 2024</t>
@@ -447,7 +447,7 @@
     <t>Proverbs 4:23</t>
   </si>
   <si>
-    <t>Reflect, today, upon the deep significance of the instruction, "Above all else, guard your heart, for everything you do flows from it." Consider your own heart and what you allow into it daily. Is your heart a sanctuary for virtues such as love, kindness, and faith, or are there influences that lead you astray? Pray for the wisdom and strength to protect your heart from negativity and to cultivate a space where God's grace can flourish and guide your every action.</t>
+    <t>Reflect upon the significance of guarding your heart with all diligence. Consider the countless influences and distractions that clamor for your attention every day. Ask yourself how well you are protecting your inner life and spiritual well-being. Are you allowing negative thoughts, harmful relationships, or worldly concerns to penetrate and corrupt your heart? Commit today to seek God's wisdom and strength to guard your heart, recognizing it as the wellspring of your actions and decisions. In doing so, you will honor Him with your entire being and live a life rooted in His love and virtue.</t>
   </si>
   <si>
     <t>August 11, 2024</t>
@@ -456,7 +456,7 @@
     <t>1 Corinthians 15:58</t>
   </si>
   <si>
-    <t>Reflect upon the steadfastness and commitment that Saint Paul calls us to embody in this verse: "Therefore, my beloved brethren, be steadfast, immovable, always abounding in the work of the Lord, knowing that in the Lord your labor is not in vain." Consider how deeply this resonates with your daily life and actions. Are you firm and unwavering in your faith, continually dedicating yourself to the Lord's work? Reflect on any areas where you may need to strengthen your resolve. Trust that your efforts, even if they sometimes feel unnoticed, are valuable and purposeful in God’s eyes. Let this assurance inspire you to persevere and abound in your service to the Lord.</t>
+    <t>Reflect on the steadfastness of your faith and commitment to the work of the Lord. Consider how unshakeable and dedicated you are in serving Him despite the challenges and distractions of daily life. Let this be a moment to renew your devotion, knowing that your efforts and perseverance in the Lord are never in vain. Contemplate how you can continue to be firm, immovable, and always abound in the work of the Lord, bringing forth fruitful and meaningful contributions to His kingdom.</t>
   </si>
   <si>
     <t>August 12, 2024</t>
@@ -465,7 +465,7 @@
     <t>Psalm 46:1</t>
   </si>
   <si>
-    <t>Reflect upon the comfort and strength that comes from knowing "God is our refuge and strength, an ever-present help in trouble." In times of difficulty and uncertainty, consider how often you turn to God as your first source of support. Ponder the ways in which you can deepen your trust in His omnipotent presence and actively seek His guidance and peace amidst life's challenges. Let this verse be a reminder to anchor yourself in His unfailing love and might, finding solace in the assurance that He is always with you.</t>
+    <t>Reflect upon the immense sense of security and solace that can be found in the presence of God during times of trouble. Contemplate how often you turn to God for refuge and strength, and consider the ways in which you can deepen your trust and reliance on Him. In moments of anxiety and uncertainty, remember that God is ever-present and unwaveringly supportive, offering a steadfast foundation upon which you can stand firm. Seek to cultivate a heart that continually turns to God, knowing that His protection and guidance are unfailing.</t>
   </si>
   <si>
     <t>August 13, 2024</t>
@@ -474,7 +474,7 @@
     <t>Romans 8:18</t>
   </si>
   <si>
-    <t>Reflect upon the words, "I consider that our present sufferings are not worth comparing with the glory that will be revealed in us." As you meditate on this passage, consider the struggles and pains you currently face. Acknowledge them, but place them in the context of the eternal glory promised by God. This verse encourages you to embrace hope and trust in God's ultimate plan, knowing that any hardship endured now is temporary and pales in comparison to the everlasting joy and splendor that awaits. Let this heavenly perspective fortify your spirit and guide you through your trials with faith and perseverance.</t>
+    <t>Reflect on the trials, sufferings, and hardships that you face in life. Consider that these present difficulties, as overwhelming as they might seem, are incomparable to the glory that awaits you. Contemplate the indescribable joy and eternal peace that God has promised and how it far surpasses any temporary pain. Let this perspective give you strength, hope, and perseverance to endure with faith, knowing that a far greater and eternal reward is being prepared for you.</t>
   </si>
   <si>
     <t>August 14, 2024</t>
@@ -483,7 +483,7 @@
     <t>Matthew 5:14</t>
   </si>
   <si>
-    <t>Reflect upon the profound truth that you are the light of the world. Contemplate how you can let your light shine before others in your daily life. Are there areas where you feel your light is hidden or dimmed? Seek to remove those barriers and allow God's light to shine through you more clearly. Remember that your actions, your kindness, and your faith can illuminate even the darkest corners of the world, drawing others closer to God's love and truth. Be that beacon of hope and love that Jesus calls you to be.</t>
+    <t>Reflect on the light within you and its purpose. Consider how your actions, words, and life choices can be a beacon to others, guiding them toward hope and truth. Embrace the responsibility to shine brightly, not hiding your gifts and virtues, but letting them illuminate the path for those around you. Ask yourself if there are areas in your life where you dim your light out of fear or uncertainty, and pray for the courage to let your light shine fully and authentically.</t>
   </si>
   <si>
     <t>August 15, 2024</t>
@@ -492,7 +492,7 @@
     <t>Psalm 46:5</t>
   </si>
   <si>
-    <t>Reflect upon the profound truth that "God is within her, she will not fall; God will help her at break of day." As you meditate on this verse, recognize God's constant presence and unwavering support in your life. Consider the challenges you face and the ways in which God’s presence provides you strength and stability. Trust that, at the dawn of each day, God’s help is renewed and He is always ready to uplift you. Let this assurance inspire you to face your daily struggles with faith and confidence, knowing that with God, you will not be shaken.</t>
+    <t>Reflect upon the unwavering presence of God in your life, especially during times of turmoil and uncertainty. Remember that God is steadfast and will always be by your side, providing strength and refuge. Trust in His timing and find solace in His unending support, knowing that with God, you will not be moved. Let this assurance inspire courage and peace in your heart.</t>
   </si>
   <si>
     <t>August 16, 2024</t>
@@ -504,7 +504,7 @@
     <t>10</t>
   </si>
   <si>
-    <t>Reflect upon Proverbs 10:17, "Whoever heeds discipline shows the way to life, but whoever ignores correction leads others astray." Take a moment to examine how open you are to receiving correction and discipline in your life. Do you view these moments as opportunities for growth and guidance on the path to life, or do you resist and turn away from them? Reflect on your willingness to accept constructive criticism and how it influences not only your own path but also the path of those around you. Seek God's grace to embrace discipline with humility and discernment.</t>
+    <t>Reflect upon the path you are following in life. Are you open to receiving and acting upon instruction that leads to growth and righteousness, or do you resist and stray away from this wisdom? Consider how embracing guidance and correction can lead you toward true fulfillment and understanding. Seek humility in your heart, and let it guide you to heed the teachings that steer you closer to your divine purpose. Where you find resistance within yourself, pray for the grace to transform and accept the instruction that brings you life.</t>
   </si>
   <si>
     <t>August 17, 2024</t>
@@ -516,7 +516,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>Reflect, today, upon the call to always be prepared to give an answer for the hope that lies within you. Consider how deeply you understand and cherish your faith, and ask yourself if you are ready to share this hope with gentleness and respect. Contemplate the ways you can grow deeper in your own faith journey so that you can be a beacon of hope and light to those around you.</t>
+    <t>Reflect on the readiness to share the hope within you. Are you prepared to defend your faith with gentleness and respect when questioned? Contemplate how you can live in such a way that others are curious about the hope you possess. Seek to cultivate a heart that responds lovingly and thoughtfully to those who inquire about your faith, embodying the grace and truth of Christ in your interactions.</t>
   </si>
   <si>
     <t>August 18, 2024</t>
@@ -528,7 +528,7 @@
     <t>139</t>
   </si>
   <si>
-    <t>Reflect today upon the profound and personal nature of God’s creative act in your life. "I praise you because I am fearfully and wonderfully made; your works are wonderful, I know that full well." Ponder the intricate and unique way in which God has fashioned you, with all your strengths and weaknesses, and see His hand in every aspect of your being. Consider how you honor the divine artistry that is you, and find ways to celebrate and nurture the gifts you have been given. Let this verse be a reminder to appreciate your intrinsic value and to live with a deep respect for the life God has entrusted to you.</t>
+    <t>Reflect upon the profound truth that you are wonderfully made by God. Consider the intricate details of your life, your gifts, your talents, and your presence in this world. Ponder the uniqueness of your being and the purpose that God has woven into every part of who you are. Let this realization fill you with gratitude and inspire you to honor that divine craftsmanship in yourself and in others. As you recognize your worth and the worth of those around you, may it lead you to live with a renewed sense of purpose, love, and reverence for God's creation.</t>
   </si>
   <si>
     <t>August 19, 2024</t>
@@ -540,7 +540,7 @@
     <t>43</t>
   </si>
   <si>
-    <t>Reflect upon the promise of unwavering divine presence and protection offered in Isaiah 43:2, which states, “When you pass through the waters, I will be with you; and through the rivers, they shall not overwhelm you; when you walk through fire, you shall not be burned, and the flame shall not consume you.” Consider times in your life when you faced overwhelming challenges or dangers and how the promise of God's steadfast accompaniment brought you comfort and strength. Trust and take solace in the assurance that, no matter the trials, God remains ever present, guiding, protecting, and sustaining you through every difficulty. Allow this reflection to deepen your faith and reliance on God’s unwavering support.</t>
+    <t>Reflect today upon the deep assurance and comfort that comes from God's unwavering presence in your life. Consider the trials and tribulations that you have faced or are currently facing, and recognize that you are never alone. God walks alongside you through every hardship and challenge. Trust in His guidance and protection, and let His enduring promise of being with you in all circumstances strengthen your faith and resolve. Allow His presence to fill you with peace and courage, knowing that His love and care are ever-present.</t>
   </si>
   <si>
     <t>August 20, 2024</t>
@@ -549,7 +549,7 @@
     <t>Matthew 6:34</t>
   </si>
   <si>
-    <t>Reflect upon the words of Jesus in this verse: "Therefore do not worry about tomorrow, for tomorrow will worry about itself. Each day has enough trouble of its own." Consider the ways in which anxiety about the future may be overshadowing your ability to live fully in the present. Ask yourself if you trust in God's providence and if you allow His peace to guide you through the challenges of each day. As you meditate on this passage, let go of the burdens that are not yours to carry and find solace in the truth that God is in control of both today and tomorrow.</t>
+    <t>Reflect upon the invitation to live in the present moment and trust that God will provide for your needs. Consider the worries that often occupy your mind about the future and how these anxieties can detract from your daily peace and spiritual growth. Today, make a conscious effort to surrender your future to God’s loving care, trusting that He will guide your steps and provide for you as each new day unfolds. Seek to embrace the grace offered in each present moment, knowing that God’s presence is with you now and always.</t>
   </si>
   <si>
     <t>August 21, 2024</t>
@@ -558,7 +558,7 @@
     <t>Romans 5:8</t>
   </si>
   <si>
-    <t>Reflect today on the profound and transformative truth expressed in Romans 5:8: "But God demonstrates His own love for us in this: While we were still sinners, Christ died for us." Ponder the depth of God's love for humanity, a love so immense that it reaches out to us even in our state of sinfulness. Let this realization fill your heart with gratitude and compel you to love others with a similar selfless and unconditional love. Recognize that God's grace is a gift, unearned and freely given. Allow this awareness to renew your commitment to live a life that reflects His love and grace in all that you do.</t>
+    <t>Reflect, today, upon the unconditional love of God, shown to us even when we are undeserving. Contemplate the depth and extent of such a love that reaches out to each of us despite our imperfections. Consider how you can embody and reflect this divine love in your interactions with others, loving without expectations or conditions. Let this reflection guide your actions and attitudes, striving to love as God loves.</t>
   </si>
   <si>
     <t>August 22, 2024</t>
@@ -567,7 +567,7 @@
     <t>Psalm 23:4</t>
   </si>
   <si>
-    <t>Reflect, today, upon the profound reassurance found in Psalm 23:4: "Even though I walk through the valley of the shadow of death, I will fear no evil, for you are with me; your rod and your staff, they comfort me." Consider the valleys of difficulty and fear in your own life. How do you respond to them? Do you place your trust in God's unwavering presence? Allow this verse to remind you that, no matter the hardships or dangers you face, God walks with you, offering His protection and comfort. Find solace in His nearness and let His guidance relieve you of your fears.</t>
+    <t>Reflect upon the valleys in your life, those moments of trial and uncertainty that may cause fear and doubt. Consider how these times have shaped your faith and reliance on divine guidance. Recognize the reassurance that comes from believing you are not walking alone but are accompanied by a strength and comfort beyond your own. In these moments, let your faith be your rod and staff, guiding you toward peace and fortitude. Embrace this comforting presence and let it calm your heart, knowing you are protected and supported through every dark valley you encounter.</t>
   </si>
   <si>
     <t>August 23, 2024</t>
@@ -576,7 +576,7 @@
     <t>Proverbs 14:29</t>
   </si>
   <si>
-    <t>Reflect upon the wisdom found in the saying, "Whoever is patient has great understanding, but one who is quick-tempered displays folly." Consider the moments in your life where patience has led to greater clarity and understanding. Reflect also on instances where a quick temper has led you astray or caused regret. Seek to cultivate a heart of patience, asking God for the strength to respond with wisdom and calmness in times of stress or frustration. Pray for the grace to grow in understanding and to remain composed, even when challenges arise.</t>
+    <t>Reflect upon the value of patience and understanding in your everyday interactions. Consider how often situations arise that test your temper and how quick you might be to react. Contemplate the strength that comes from remaining calm and the wisdom found in measured responses. When faced with aggravation, ask for the grace to respond with patience and seek to understand the underlying issues, rather than reacting impulsively. This practice nurtures peace within yourself and in your relationships with others.</t>
   </si>
   <si>
     <t>August 24, 2024</t>
@@ -585,7 +585,7 @@
     <t>Philippians 4:19</t>
   </si>
   <si>
-    <t>Reflect upon the profound assurance found in this verse: "And my God will supply every need of yours according to his riches in glory in Christ Jesus." Consider the areas of your life where you experience need—whether they are physical, emotional, spiritual, or relational. Do you trust that God will provide for these needs out of His infinite riches? Reflect on moments when God has shown His faithfulness and allowed these assurances to strengthen your faith. Ask yourself how you can deepen your trust in God's provision, and invite Him to help you surrender your worries and rely on His boundless care.</t>
+    <t>Reflect upon the boundless provisions of God's grace and care in your life. Consider how He continually meets your needs with His glorious riches. Trust in His divine providence, especially during times of uncertainty or lack. Ponder how you can deepen your reliance on Him and cultivate gratitude for His unwavering support. In moments of doubt, remind yourself of His promises and let them fill your heart with peace and confidence.</t>
   </si>
   <si>
     <t>August 25, 2024</t>
@@ -594,7 +594,7 @@
     <t>Psalm 46:11</t>
   </si>
   <si>
-    <t>Reflect upon the abiding presence of God as stated in Psalm 46:11, "The Lord of hosts is with us; the God of Jacob is our fortress." Consider what it means to truly recognize that God is always with you, providing strength and protection. In moments of fear or uncertainty, recall this divine assurance. Ponder how this acknowledgment can transform the way you face daily challenges, knowing that you are never alone, and that the God of all creation stands as your sure and steadfast refuge.</t>
+    <t>Reflect upon the profound truth that God is your ever-present source of strength and security. Amidst life's most tumultuous trials, recognize that the Almighty is with you, providing a fortress of faith and love that cannot be shaken. Take a moment today to silence your heart and mind, in the stillness acknowledging His supremacy and presence in your life. Trust in His unwavering support and let it inspire a deep-seated peace within you, no matter the chaos that may surround you.</t>
   </si>
   <si>
     <t>August 26, 2024</t>
@@ -603,7 +603,7 @@
     <t>Romans 12:12</t>
   </si>
   <si>
-    <t>Reflect, today, on the essence of hope, patience, and prayer as held within this verse: "Rejoice in hope, be patient in tribulation, be constant in prayer." Consider how these three virtues manifest in your life. Are you able to find joy even amid uncertainty, to maintain patience when faced with trials, and to steadfastly commit to prayer regardless of your circumstances? Let this verse guide you towards a deeper practice of hope, patience, and enduring faith in your daily walk with God.</t>
+    <t>Reflect today on the importance of remaining joyful in hope, patient in affliction, and faithful in prayer. Consider how these three virtues intertwine to sustain and uplift you in both good times and challenges. Ask yourself: How do I cultivate hope and joy in my daily life? Am I able to remain patient and steadfast during times of trial? And how committed am I to a regular and sincere prayer life? Seek to strengthen these virtues within yourself, allowing them to be a source of grace and resilience.</t>
   </si>
   <si>
     <t>August 27, 2024</t>
@@ -615,7 +615,7 @@
     <t>61</t>
   </si>
   <si>
-    <t>Reflect upon the profound mission revealed in Isaiah 61:1: "The Spirit of the Sovereign Lord is on me, because the Lord has anointed me to proclaim good news to the poor. He has sent me to bind up the brokenhearted, to proclaim freedom for the captives and release from darkness for the prisoners." As you ponder this verse, ask yourself how you are being called to be an instrument of God's love and healing in the lives of others. Are there people around you who need to hear the good news? Are there broken hearts that need comforting or people trapped in various forms of darkness that need liberation? Let this passage inspire you to act with compassion and boldness, knowing that you, too, are anointed and sent by God to make a transformative impact in the world.</t>
+    <t>Reflect upon the profound mission that God has entrusted to every believer: to bring hope to those in despair, to heal the brokenhearted, and to proclaim freedom to those bound by various forms of captivity. Consider how you are called to be an instrument of God's grace in the lives of others. Are you attentive to the needs of those around you, ready to extend a helping hand and a kind word? Reflect on how you can embody this spirit of service and love in your daily interactions, and ask God to fill you with His Spirit to fulfill this sacred mission.</t>
   </si>
   <si>
     <t>August 28, 2024</t>
@@ -624,7 +624,7 @@
     <t>Psalm 37:5</t>
   </si>
   <si>
-    <t>Reflect on the verse, "Commit your way to the Lord; trust in him, and he will act." Examine your heart and ask yourself whether you truly commit all your ways to the Lord. Is there an area in your life where you rely more on your own strength and understanding rather than trusting fully in God's plan? Reflect upon those areas and imagine how different your life could be if you let go and trusted in God's divine intervention. Place your faith in Him and allow Him to direct your steps, for His ways are higher than ours.</t>
+    <t>Reflect upon the deep trust and surrender that this verse invites us into. Consider your own life and where you may need to let go of control and place your trust more fully in God's hands. What worries or burdens are you carrying that you can turn over to Him? Reflect on the peace and guidance that comes from committing your way to the Lord, knowing that He will act in His perfect timing. Allow this trust to grow within you, bringing you closer to God's will and purpose.</t>
   </si>
   <si>
     <t>August 29, 2024</t>
@@ -636,7 +636,7 @@
     <t>Galatians</t>
   </si>
   <si>
-    <t>Reflect, today, upon the freedom that Christ has won for you. Contemplate the areas of your life where you may still feel bound by sin, fear, or even the opinions of others. Are you fully embracing the liberty that comes from standing firm in the faith and not allowing yourself to be burdened again by a yoke of slavery? Pray for the grace to live more fully in the freedom that Jesus offers, and let this freedom guide your actions and decisions each day.</t>
+    <t>Reflect upon the freedom you have been given through your faith. Consider the ways in which you might still be holding onto past burdens or allowing yourself to be entangled by worldly concerns. True freedom in faith is not merely a release from external bonds but a liberation of the spirit. Today, ask yourself what steps you can take to stand firm in this freedom and resist anything that threatens to pull you back into bondage. Seek the courage to live a life that fully embraces the freedom bestowed upon you, one that is marked by love, peace, and joy.</t>
   </si>
   <si>
     <t>August 30, 2024</t>
@@ -645,7 +645,7 @@
     <t>John 8:36</t>
   </si>
   <si>
-    <t>Reflect upon the profound freedom that Christ offers to each one of us. "So if the Son sets you free, you will be free indeed." Today, ponder what it means to be truly free in Christ. Are there areas in your life where you still feel bound or enslaved by sin, fear, or the expectations of others? Invite Jesus, the Son of God, to break those chains and bring you into the fullness of His freedom. Pray for the grace to live each day in the liberating truth and love that only He can provide.</t>
+    <t>Reflect, today, upon the profound sense of freedom that comes from living in the truth of God's love. Contemplate the areas of your life where you may still feel bound or constrained by sin, fear, or worldly concerns. Recognize that true freedom is not simply the absence of constraint but the presence of God's grace and truth. Seek the liberation that comes from deeper surrender to God, and ask for the courage to live your life in that freedom every day.</t>
   </si>
   <si>
     <t>August 31, 2024</t>
@@ -657,7 +657,7 @@
     <t>55</t>
   </si>
   <si>
-    <t>Reflect upon the words, "Cast your burden on the Lord, and He will sustain you; He will never permit the righteous to be moved." This passage invites you to examine the weight of your worries and anxieties. Are you clinging to them, trying to shoulder them all on your own? Or are you placing them in God's hands, trusting in His power and love to sustain you? Take a moment to identify one burden that you can cast upon the Lord today, and feel the peace that comes from knowing He will support you. Reflect on His unwavering support and take comfort in His promise that the righteous will not be shaken.</t>
+    <t>Reflect on the invitation and reminder to cast your burdens upon God. Today, take a moment to identify the burdens you are carrying, whether they be fears, worries, regrets, or doubts. Reflect on how these burdens affect your life and your relationship with others. Then, prayerfully offer each of these burdens to God, trusting in His steadfast support and care. Allow this trust to bring you peace and strength, knowing you are not meant to carry your burdens alone.</t>
   </si>
   <si>
     <t>September 1, 2024</t>
@@ -666,7 +666,7 @@
     <t>Romans 8:1</t>
   </si>
   <si>
-    <t>Reflect upon the profound freedom offered by this declaration: "There is therefore now no condemnation for those who are in Christ Jesus." Consider the weight that may have been lifted from your shoulders and the liberation of your spirit that comes with this assurance. Ask yourself whether you are truly embracing this freedom or if you still hold on to guilt and shame. Moreover, let this verse inspire you to live according to the Spirit, rejoicing in the grace that saves and sustains you, and extending this same grace to others in their journey of faith.</t>
+    <t>Reflect on the profound freedom and relief that comes from knowing we are no longer condemned. Consider the areas of your life where feelings of guilt and unworthiness obscure your view. Embrace the truth of your liberation and let it guide you to live with confidence and gratitude in each moment, trusting fully in the grace that has set you free.</t>
   </si>
   <si>
     <t>September 2, 2024</t>
@@ -678,7 +678,7 @@
     <t>28</t>
   </si>
   <si>
-    <t>Reflect, today, upon the profound declaration of Jesus in Matthew 28:18: "All authority in heaven and on earth has been given to me." As you meditate on this, consider what it means for Jesus to have ultimate authority over your life. Are there areas where you struggle to submit to His authority? Reflect on how acknowledging Christ's supreme authority can bring peace, guidance, and purpose to your daily endeavors. Surrender to His guidance and allow His authority to lead you into a deeper discipleship and trust in His divine plan.</t>
+    <t>Reflect upon the authority and mission that Christ has entrusted to you in your life. Consider the ways in which you recognize and respond to His calling. Ask yourself how you can more fully embrace and live out the divine commission you have received. Seek to grow in your understanding of God's will and in your commitment to serve Him faithfully and with conviction.</t>
   </si>
   <si>
     <t>September 3, 2024</t>
@@ -690,7 +690,7 @@
     <t>18</t>
   </si>
   <si>
-    <t>Reflect today upon the relationships you hold. Proverbs 18:24 reminds us, “A man of many companions may come to ruin, but there is a friend who sticks closer than a brother.” Consider the depth and authenticity of your friendships. Are they surface-level or rooted in genuine love and loyalty? Seek to be that friend who sticks closer than a brother, faithful and true in all circumstances. Reflect on the quality of your companionship and how it aligns with this call to deep, unwavering friendship.</t>
+    <t>Reflect on the importance of true friendship in your life. Consider the quality and depth of your relationships. Are you surrounded by those who uplift and support you, or do you often feel drained and misunderstood? True friends are a rare gift, often bringing strength, comfort, and a sense of belonging. Take time today to appreciate those who stand by you and to think about how you can nurture and cultivate more meaningful and sincere connections. Seek to be a true friend to others, embodying loyalty, understanding, and love.</t>
   </si>
   <si>
     <t>September 4, 2024</t>
@@ -699,7 +699,7 @@
     <t>Psalm 46:7</t>
   </si>
   <si>
-    <t>Reflect upon the strength and protection that comes from knowing that "The Lord of hosts is with us; the God of Jacob is our fortress." Consider how often you acknowledge the presence of God in your life as your ultimate refuge and defense. Think about the challenges or fears you face today, and entrust them to God's mighty care. Let the assurance of His steadfast presence bring you peace and confidence amid any turmoil you may encounter.</t>
+    <t>Reflect today on the comforting truth that God is always with us. In moments of fear, uncertainty, and chaos, we are invited to find peace in the assurance of His constant presence. Consider the ways in which God has stood by you during turbulent times and how His steadfast support has been a fortress for your spirit. Let this reflection guide you to trust more deeply in His enduring presence and to seek refuge in His eternal strength.</t>
   </si>
   <si>
     <t>September 5, 2024</t>
@@ -711,13 +711,13 @@
     <t>Ephesians</t>
   </si>
   <si>
-    <t>Reflect, today, upon the loving and compassionate nature that God calls us to embody as His children. Ephesians 4:32 says, "Be kind and compassionate to one another, forgiving each other, just as in Christ God forgave you." Consider how well you practice kindness and forgiveness in your daily interactions. Are there areas in your life where resentment or bitterness still reside? Allow the mercy and forgiveness you have received from Christ to flow through you, enabling you to extend that same grace and compassion to others, even in difficult situations. Embrace this call to action with a heart open to God’s transformative love.</t>
+    <t>Reflect upon the call to be kind, compassionate, and forgiving towards others. Consider the ways in which you can embody these virtues in your daily interactions. Reflect on any moments where you have failed to show such kindness or forgiveness, and seek God's grace to transform those areas of your heart. In a world often filled with harshness and resentment, let us become beacons of God's tender mercy and unconditional love, striving always to forgive others as God has forgiven us. Contemplate how this practice of forgiveness can heal relationships and bring peace not only to others but also to your own soul.</t>
   </si>
   <si>
     <t>September 6, 2024</t>
   </si>
   <si>
-    <t>Reflect upon the invitation to "taste and see that the Lord is good." Consider the experiences in your life where you have truly encountered the goodness of the Lord. How did those moments shape your faith and trust in God? Reflect on how you can more deeply "taste" and experience God's presence in your daily life, thanking Him for His goodness and seeking to remain open to His continuous blessings.</t>
+    <t>Reflect upon the invitation to not only trust in God but to fully experience His goodness in your life. Consider the moments when you truly felt God's presence and goodness; hold on to those experiences as a foundation of your faith. As you go about your day, consciously seek opportunities to recognize and acknowledge His goodness and blessings in even the smallest details of life. Let this awareness deepen your trust and inspire you to share this goodness with others, inviting them to also experience the profound joy that comes from a relationship with God.</t>
   </si>
   <si>
     <t>September 7, 2024</t>
@@ -726,7 +726,7 @@
     <t>Psalm 119:11</t>
   </si>
   <si>
-    <t>Reflect upon the words of Psalm 119:11, "I have hidden your word in my heart that I might not sin against you." Consider what it means to truly hide God's word within your heart. Are you immersing yourself in Scripture, allowing it to take root deeply within your soul? Reflect on the ways in which God's word can act as a safeguard against sin in your life. How committed are you to internalizing His teachings so that, in moments of temptation, you are guided by His wisdom and truth? Ponder the depth of your relationship with God's word and ask for the grace to cherish and preserve it always within your heart.</t>
+    <t>Reflect deeply on what it means to "store up" God's words in your heart. Consider how these divine words can serve as a source of strength, guidance, and purity in your daily actions. How often do you meditate on scripture, allowing its wisdom to penetrate the core of your being? Strive to let God's words dwell richly within you, shaping your thoughts, words, and deeds so that you may not stray from the path of righteousness.</t>
   </si>
   <si>
     <t>September 8, 2024</t>
@@ -738,7 +738,7 @@
     <t>21</t>
   </si>
   <si>
-    <t>Reflect upon the pursuit of righteousness and love. Proverbs 21:21 states, "Whoever pursues righteousness and love finds life, prosperity and honor." Consider the ways in which you seek to act justly and love others in your daily life. Are you intentional in these pursuits, allowing them to shape your actions and decisions? Reflect on the promise that embracing righteousness and love leads to true life and honor. Ask God to guide your heart and mind in such a way that you consistently seek these virtues with a sincere and devoted spirit.</t>
+    <t>Reflect on your pursuit of righteousness and steadfast love in your daily life. Consider if your actions exhibit a sincere desire for justice and kindness towards others. Allow this reflection to guide your intentions and choices, understanding that the pursuit of these virtues will lead you to life, prosperity, and honor. Take a moment each day to assess how you are living out these values and ask for God's grace to continue growing in them.</t>
   </si>
   <si>
     <t>September 9, 2024</t>
@@ -747,7 +747,7 @@
     <t>Romans 15:7</t>
   </si>
   <si>
-    <t>Reflect upon these words of unity and acceptance: "Accept one another, then, just as Christ accepted you, in order to bring praise to God." Today, consider how well you accept others in your life, especially those who may be different from you or whom you find challenging to love. Reflect on Christ’s unconditional acceptance and love for you, despite your own flaws and shortcomings. Take this reflection as an invitation to extend that same grace and acceptance to others, making every effort to foster unity and mutual understanding. By doing so, you bring praise and glory to God.</t>
+    <t>Reflect upon the act of welcoming and accepting one another as Christ has welcomed and accepted you. Consider how this acceptance brings glory to God. Examine your actions and attitudes towards others, especially those who are different from you or whom you struggle to understand. Ask yourself how you can embody Christ's embracing love and acceptance in your daily interactions. Seek to become a vessel of His kindness and inclusion, drawing others closer to the heart of God through your example.</t>
   </si>
   <si>
     <t>September 10, 2024</t>
@@ -756,7 +756,7 @@
     <t>Psalm 37:7</t>
   </si>
   <si>
-    <t>Reflect upon the command to "Be still before the Lord and wait patiently for him." In our fast-paced world, it can be difficult to practice stillness and patience. Contemplate the areas in your life where you feel rushed or anxious, and bring those before God. Ask for the grace to surrender your timelines and plans to Him, trusting that His timing is perfect. Embrace the peace that comes from resting in His presence and wait with a hopeful and expectant heart.</t>
+    <t>Reflect, today, upon the value of patience and trust amidst life's inevitable trials and uncertainties. Consider whether you can genuinely rest in the assurance that God's timing is perfect and that His plans are far greater than our own. Surrender your worries and anxieties, knowing that true peace lies in the quiet confidence of His providence. Let this trust grow within you, guiding your steps and calming your heart.</t>
   </si>
   <si>
     <t>September 11, 2024</t>
@@ -765,7 +765,7 @@
     <t>Isaiah 41:13</t>
   </si>
   <si>
-    <t>Reflect, today, upon the comforting words of God: "For I am the Lord your God who takes hold of your right hand and says to you, ‘Do not fear; I will help you.'" As you contemplate this scripture, consider the moments in your life when fear has overwhelmed you. Allow this passage to remind you that God is always by your side, holding your hand, and offering His help. Trust in His presence and let go of your fears, knowing that the Lord your God is your constant protector and guide.</t>
+    <t>Reflect upon the reassurance that God offers. Consider moments in your life when you have felt overwhelmed or fearful, and remember that God is always there to uphold you with His righteous hand. Ponder the depth of His promise and place your trust in His constant presence. Let this assurance embolden you to face any challenges with a heart full of faith.</t>
   </si>
   <si>
     <t>September 12, 2024</t>
@@ -774,7 +774,7 @@
     <t>John 3:16</t>
   </si>
   <si>
-    <t>Reflect upon the profound and all-encompassing love that God has for humanity, as expressed in John 3:16, \"For God so loved the world that He gave His only begotten Son, that whoever believes in Him should not perish but have everlasting life.\" Take a moment to contemplate the depth of this divine love and the immense sacrifice made for our salvation. Consider how this truth impacts your daily life and relationships. Do you accept and live according to this love? Are you able to share this love with others, showing them the path to everlasting life through your actions and words? Let this verse guide you in embracing and reflecting God's love in every aspect of your being.</t>
+    <t>Reflect upon the profound love that God has for humanity, a love so vast and unconditional that it prompts the greatest sacrifice imaginable. Contemplate what this love means for you personally. Ask yourself how you can deepen your relationship with God in response to this divine love. Let this reflection inspire you to live a life of gratitude, service, and love toward others, mirroring the boundless love that has been bestowed upon you.</t>
   </si>
   <si>
     <t>September 13, 2024</t>
@@ -783,7 +783,7 @@
     <t>Psalm 34:17</t>
   </si>
   <si>
-    <t>Reflect upon the comforting truth in this verse: "When the righteous cry for help, the Lord hears and delivers them out of all their troubles." Consider the ways in which you seek God's assistance in your times of need. Place your trust fully in Him, knowing that He is always attentive to your cries and eager to bring you relief. Ponder the faithfulness of God and let this assurance of His ever-present help deepen your reliance on Him in every circumstance.</t>
+    <t>Reflect upon the powerful promise that God hears and delivers those who call upon Him in times of trouble. Consider the times in your life when you have felt overwhelmed, trapped, or lost, and recall how God has intervened, perhaps in ways you did not immediately recognize. As you ponder these moments, seek to deepen your trust in God's faithfulness and develop a habit of turning to Him not just in desperate times, but daily. Let this assurance strengthen your faith and embolden your prayers, knowing that God is responsive, attentive, and ever-present in your struggles and victories alike.</t>
   </si>
   <si>
     <t>September 14, 2024</t>
@@ -792,7 +792,7 @@
     <t>Proverbs 16:9</t>
   </si>
   <si>
-    <t>Reflect, today, upon the paths you choose to walk and the plans you make. "The heart of man plans his way, but the Lord establishes his steps." Ponder the ways in which you seek to control your own destiny and recognize that true fulfillment and guidance come from surrendering to God’s divine will. Ask God to reveal His steps for you and trust that His plans are far greater than any you could devise on your own.</t>
+    <t>Reflect upon the paths you take in life. Consider how often you make plans and set goals for yourself, only to find that unforeseen circumstances lead you in an entirely different direction. Contemplate the role of divine guidance in these moments. How open are you to letting go of your own plans and placing your trust in a higher wisdom? Practice surrendering your ambitions and desires to the guiding hand of God, trusting that He directs your steps with a greater purpose and plan in mind. Seek to align your heart and actions with His will, finding peace in the journey He lays before you.</t>
   </si>
   <si>
     <t>September 15, 2024</t>
@@ -804,7 +804,7 @@
     <t>Hebrews</t>
   </si>
   <si>
-    <t>Reflect upon the profound depth of faith described in Hebrews 11:1, which states, "Now faith is confidence in what we hope for and assurance about what we do not see." Consider how this definition of faith challenges you to trust in God's promises even when they are not immediately visible or understandable. Ponder areas in your life where you struggle with doubt and invite God to strengthen your confidence and assurance in His divine plan. Reflect on how this assurance can bring peace and purpose to your daily walk with God, trusting fully in His unseen yet unfailing presence.</t>
+    <t>Reflect on the nature of faith as a profound trust and conviction in things unseen and hoped for. Consider the areas in your life where you are called to trust in God's promises despite not having tangible evidence. Contemplate how this faith can shape your actions, thoughts, and decisions. Do you live with an assurance in God's plan for you, even when the path isn't clear? Take time today to reaffirm your commitment to that unwavering trust and let it guide you forward confidently.</t>
   </si>
   <si>
     <t>September 16, 2024</t>
@@ -813,7 +813,7 @@
     <t>Psalm 23:6</t>
   </si>
   <si>
-    <t>Reflect upon the profound promise contained within Psalm 23:6, "Surely goodness and mercy shall follow me all the days of my life: and I will dwell in the house of the Lord forever." Take time to meditate on how God's goodness and mercy pursue you continuously, not just in moments of clarity and peace, but even in times of struggle and doubt. Let this assurance of divine companionship and eternal home fill you with hope and gratitude. Consider the ways in which you can respond to this promise with a life of faithfulness, courage, and love. How can you become more aware of God's pervasive goodness and allow it to transform your daily living?</t>
+    <t>Reflect upon the profound sense of assurance and peace that accompanies the awareness of God's endless goodness and mercy in your life. Consider how the presence of divine love not only follows you but also actively guides and comforts you throughout all your days. Contemplate the depth of God's commitment to you and how this understanding can transform your daily experiences. Let your heart be filled with gratitude and a renewed dedication to dwell in the presence of the Lord each day, finding solace in His eternal promise.</t>
   </si>
   <si>
     <t>September 17, 2024</t>
@@ -822,7 +822,7 @@
     <t>Romans 8:26</t>
   </si>
   <si>
-    <t>Reflect, today, upon the profound mystery and comfort contained in these words from Romans 8:26: "In the same way, the Spirit helps us in our weakness. We do not know what we ought to pray for, but the Spirit himself intercedes for us through wordless groans." Consider the times in your life when you have felt lost, helpless, or unsure of what to pray for. Recognize that in those moments, the Holy Spirit is with you, understanding the depths of your heart and interceding on your behalf. Trust in the Spirit's guidance and allow yourself to rest in the assurance of God's intimate knowledge and care for you.</t>
+    <t>Reflect upon the ways in which your spirit seeks connection with God, even in moments when you lack the words or understanding to express your deepest needs and desires. Consider how the Holy Spirit intercedes on your behalf, guiding and supporting you in your weaknesses. Trust in this divine assistance and open your heart to the presence of God, allowing the Spirit to lead you closer to the fullness of divine grace and love. In your quiet moments of prayer, surrender to the guidance of the Holy Spirit and find comfort in knowing that you are never alone in your spiritual journey.</t>
   </si>
   <si>
     <t>September 18, 2024</t>
@@ -834,7 +834,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>Reflect upon the profound truth that we are God's handiwork, created in Christ Jesus to do good works, which God prepared in advance for us to do. Consider the specific ways in which you can fulfill this divine purpose in your daily life. Contemplate the unique gifts and talents God has bestowed upon you and how you might use them to serve others and bring glory to Him. Take a moment to recognize the intentionality behind your creation and embrace the good works that God has already ordained for you. Allow this reflection to deepen your sense of purpose and commitment to living out God's calling.</t>
+    <t>Reflect upon the reality that you are God's handiwork, created in Christ Jesus to do good works. Embrace the truth that God prepared these good works in advance for you to do. Ask yourself whether you truly see your life as part of God's grand design and purpose. Consider the ways in which you can actively seek and fulfill the good works that God has laid out for you. Let this understanding fill you with a sense of purpose and a commitment to live out the unique calling that God has placed upon your life.</t>
   </si>
   <si>
     <t>September 19, 2024</t>
@@ -843,7 +843,7 @@
     <t>Psalm 37:23</t>
   </si>
   <si>
-    <t>Reflect upon these words, and consider how God has been guiding your steps along the journey of life. Are you open to recognizing and accepting His direction, even when the path is challenging or unclear? Contemplate the reassurance that comes when your way is established by the Lord. Trust in His divine plan, find joy in following His ways, and take comfort in knowing that He delights in each step you take under His guidance.</t>
+    <t>Reflect on the path your life has taken, acknowledging that it is guided by a higher power. Consider the moments when steps seemed uncertain, yet find reassurance in knowing that your way is divinely ordered. Where you feel most grounded and purposeful, see it as a sign of divine delight in your journey. Seek to align your actions with this greater plan, and trust in the guidance that is always leading you towards fulfillment and peace.</t>
   </si>
   <si>
     <t>September 20, 2024</t>
@@ -852,7 +852,7 @@
     <t>Proverbs 16:24</t>
   </si>
   <si>
-    <t>Reflect upon the power of gentle and kind words in your life, as Proverbs 16:24 states, "Gracious words are a honeycomb, sweet to the soul and healing to the bones." Consider how often you speak with kindness and gentleness. Do your words bring comfort, healing, and encouragement to others? Take this moment to examine how you can be more intentional with your words, making them a source of sweetness and healing in a world that so desperately needs it. Seek God's wisdom to use your speech as an instrument of His grace and love.</t>
+    <t>Reflect on the power of kind words in your life. Consider how gentle, uplifting speech can bring healing and sweetness to your soul and to the souls of those around you. Think about the impact of your words on others and strive each day to speak with kindness and compassion. Use this reflection to foster a habit of speaking in ways that are constructive and filled with grace. Let your words be a source of encouragement and nourishment for all.</t>
   </si>
   <si>
     <t>September 21, 2024</t>
@@ -861,7 +861,7 @@
     <t>Isaiah 40:29</t>
   </si>
   <si>
-    <t>Reflect today upon the profound assurance that God gives strength to the weary and increases the power of the weak. Consider those moments in your life where you have felt drained, both physically and spiritually. How often do you rely on your own strength versus turning to God for renewal and sustenance? Ponder the endless source of strength that our Lord provides and try to surrender your weariness to Him, trusting that He will uplift and sustain you in all your endeavors. May this reflection fortify your faith and reliance on God’s boundless power.</t>
+    <t>Reflect today on the strength that God provides in times of weakness. Acknowledge those moments in your life where you felt incapable or overwhelmed. Consider how God has been your support, lending you strength beyond your own capacity. Trust in His power to uplift you, especially when you feel weary or burdened. Seek His presence and allow His strength to sustain you.</t>
   </si>
   <si>
     <t>September 22, 2024</t>
@@ -870,7 +870,7 @@
     <t>Matthew 5:9</t>
   </si>
   <si>
-    <t>Reflect, today, upon the beatitude: "Blessed are the peacemakers, for they will be called children of God." Consider the ways in which you can promote peace in your own life and in the lives of those around you. This involves fostering harmony within your family, workplace, and community, as well as actively pursuing reconciliation where there is discord. Ask yourself, am I a true peacemaker, seeking to heal divisions and bring others together in the love of Christ? Strive to deeply embody this virtue and know that in doing so, you are living out your identity as a cherished child of God.</t>
+    <t>Reflect on the peace that you cultivate in your heart and how you extend that peace to others. Consider how often you strive to be a peacemaker in your daily interactions, fostering understanding and reconciliation. Recognize the profound blessing it is to bring harmony into a world frequently filled with conflict. As you seek to embody and spread peace, remember the divine calling and the promise of being recognized as a true child of God. How can you enhance your efforts to achieve peace and encourage others to do the same?</t>
   </si>
   <si>
     <t>September 23, 2024</t>
@@ -882,7 +882,7 @@
     <t>121</t>
   </si>
   <si>
-    <t>Reflect upon the profound assurance found in the words, "He will not let your foot slip—he who watches over you will not slumber." Consider the steadfast and vigilant care that God provides for you at all times. Allow this verse to deepen your trust in His unceasing support and protection. In moments of uncertainty or struggle, recall that God is ever-watchful, never growing weary or inattentive. Let this truth bring you peace and confidence as you navigate the path He has set before you.</t>
+    <t>Reflect on the assurance and comfort that comes from knowing you are under constant divine watchfulness. Consider how this understanding can diminish your fears and anxieties, knowing that no harm can befall you outside of God’s sovereign will. Contemplate the depth of trust and faith you place in God's vigilant care over you, and strive to live with a peaceful heart, free from worry, embraced by His steadfast protection.</t>
   </si>
   <si>
     <t>September 24, 2024</t>
@@ -891,7 +891,7 @@
     <t>Romans 12:18</t>
   </si>
   <si>
-    <t>Reflect upon the words, "If it is possible, as far as it depends on you, live at peace with everyone." Consider the impact of these words in your daily life. Are there areas where you harbor resentment or conflict? Take a moment to ponder how you can actively seek reconciliation and promote peace in your relationships. Reflect on the steps you can take to embody this teaching, and ask God for the grace to foster harmony and understanding, even in difficult situations. Let this verse guide you to become a vessel of God's peace in the world around you.</t>
+    <t>Reflect upon the call to strive for peace with everyone, as much as it depends on you. Consider how often you encounter conflict or tension in your everyday life and whether you respond with a peace-seeking heart. Think about the times when you hold on to grudges or let pride stand in the way of reconciliation. Make a conscious effort to approach every interaction with a spirit of humility and an earnest desire for harmony. Seek God’s grace to overcome any barriers within you that hinder peace and always aim to be an instrument of His tranquility in the world.</t>
   </si>
   <si>
     <t>September 25, 2024</t>
@@ -900,7 +900,7 @@
     <t>Matthew 6:25</t>
   </si>
   <si>
-    <t>Reflect, today, upon the words of Jesus telling us not to worry about our lives, what we will eat or drink or about our bodies and what we will wear. Reflect on the things that often cause you worry and anxiety. Contemplate whether these concerns distract you from fully trusting in God's providence. Jesus invites us to entrust all our needs to Him and to seek His Kingdom first. How can you deepen your trust in God's care and provision for you? Let go of your anxieties and seek a heart filled with peace and trust.</t>
+    <t>Reflect upon the anxieties that often burden your heart. Consider the ways in which worry about daily needs and future uncertainties consume your thoughts. Challenge yourself today to lay down these worries and trust deeply in the providence of God. Ponder the freedom that comes from entrusting your life wholly to God’s care, knowing that His love and provision are everlasting. Embrace a spirit of peaceful trust, surrendering each concern to His loving hands.</t>
   </si>
   <si>
     <t>September 26, 2024</t>
@@ -909,13 +909,13 @@
     <t>Proverbs 15:1</t>
   </si>
   <si>
-    <t>Reflect upon the power and significance of gentle words in your daily interactions. "A soft answer turns away wrath, but a harsh word stirs up anger." Consider moments when you faced conflict or tension: Did you respond with a soft answer or harsh words? Reflect on the outcomes and how different responses could have changed those situations. Ponder how you can cultivate a habit of gentle speech, and pray for the wisdom and grace to communicate in ways that build peace and understanding.</t>
+    <t>Reflect upon the power of your words today. Consider how a gentle response can diffuse tension and promote understanding, while harsh words can escalate conflicts and cause pain. Make it your intention to seek the guidance of the Holy Spirit in your conversations, aiming to bring peace, patience, and love into every interaction. Assess how you can grow in the virtue of gentleness, particularly in challenging situations, and strive to be a source of calm and comfort to those around you.</t>
   </si>
   <si>
     <t>September 27, 2024</t>
   </si>
   <si>
-    <t>Reflect upon the ways in which God's Word serves as a beacon in your life: "Your word is a lamp to my feet and a light to my path." Consider how often you turn to Scripture when you are in need of guidance and direction. Ask yourself if you truly allow it to illuminate your path and influence your decisions. This verse challenges us to rely on God's Word as our primary source of enlightenment and to trust that it will lead us correctly. Take time to ponder areas in your life where you may need more light and invite God's Word to shine brightly in those moments.</t>
+    <t>Reflect upon the light that guides your path each day. Consider how you seek direction and where you turn when faced with uncertainty. Are you allowing a higher wisdom to illuminate your journey, or do you stumble through the darkness relying solely on your own understanding? Embrace the guidance and clarity that comes from a source beyond yourself, and be mindful of the steps you take under its light.</t>
   </si>
   <si>
     <t>September 28, 2024</t>
@@ -924,7 +924,7 @@
     <t>1 Corinthians 10:13</t>
   </si>
   <si>
-    <t>Reflect upon the profound truth found within 1 Corinthians 10:13: "No temptation has overtaken you except what is common to mankind. And God is faithful; he will not let you be tempted beyond what you can bear. But when you are tempted, he will also provide a way out so that you can endure it." Contemplate the boundless faithfulness of God in your moments of trial. Consider how God does not abandon us in our temptations but provides the strength and grace needed to overcome them. Trust in His providence and look for His guidance and escape routes in moments of weakness. Let this awareness anchor you in perseverance and hope, knowing that with Him, you can endure and triumph over every challenge.</t>
+    <t>Reflect on the times in your life when you have faced various challenges and temptations. Consider how, even in your most difficult moments, there has always been a way forward, a path of endurance and faithfulness provided by God. Acknowledge that no trial is too great to bear with His presence and support. Embrace the assurance that you are never alone and that God's faithfulness ensures you can overcome any obstacle, resisting the urge to despair. As you ponder this, strengthen your trust in His guidance and seek to deepen your reliance on His unfailing help.</t>
   </si>
   <si>
     <t>September 29, 2024</t>
@@ -933,7 +933,7 @@
     <t>Psalm 27:14</t>
   </si>
   <si>
-    <t>Reflect upon the importance of patience and trust in God's timing. Psalm 27:14 says, "Wait for the Lord; be strong and take heart and wait for the Lord." Consider the moments in your life where impatience has led you astray or caused unnecessary anxiety. Ponder this verse and allow it to remind you that strength and courage often come through waiting patiently for God's plan to unfold. Seek His guidance and trust that He is always working for your ultimate good, even when His timeline does not align with yours.</t>
+    <t>Reflect today on the virtue of patience. Our lives are filled with moments of waiting, whether it's for a clear answer to prayer, the fulfillment of a promise, or the resolution of a difficult situation. Patience is not merely waiting; it's a confident, expectant trust in God's perfect timing and will. Consider how you handle periods of anticipation or uncertainty. Are you filled with anxiety and frustration, or do you find peace in the assurance that God is working behind the scenes? Surrender your impatience and commit to trusting God's plan. Let your heart be serene and strong, knowing that His timing is always right.</t>
   </si>
   <si>
     <t>September 30, 2024</t>
@@ -942,7 +942,7 @@
     <t>Romans 8:32</t>
   </si>
   <si>
-    <t>Reflect upon the depth of God's love and generosity as expressed in this verse. "He who did not spare his own Son, but gave him up for us all—how will he not also, along with him, graciously give us all things?" Consider the magnitude of this gift and how it signifies God’s utmost commitment to our salvation and well-being. Contemplate the areas in your life where you might struggle to trust in God's provision. Let this passage be a reminder that if God has given His very best for you, you can trust Him to take care of all your needs. Where do you need to deepen your trust in God's abundance and provision today?</t>
+    <t>Reflect upon the profound generosity and love of God, who did not hold back even His own Son but gave Him up for us all. Consider what this ultimate gift signifies for your life and how it calls you to trust in God's provision and love. Contemplate how you can respond to such an immense act of love by sharing that love with others, trusting that God will supply every need you have as you live out His will.</t>
   </si>
   <si>
     <t>October 1, 2024</t>
@@ -951,7 +951,7 @@
     <t>Matthew 6:6</t>
   </si>
   <si>
-    <t>Reflect upon the words of Jesus in Matthew 6:6, where He instructs us to go into our room, close the door, and pray to our Father who is unseen. This directive is both an invitation to intimacy with God and a reminder of the importance of sincerity in our prayer life. Reflect on how often you seek out quiet, private moments to commune with God, free from distractions and the gaze of others. Are your prayers truly heartfelt, or are they sometimes influenced by the desire to be seen by others? Embrace the call to engage deeply with God in your own personal space, knowing that your Father who sees what is done in secret will reward you.</t>
+    <t>Reflect today upon the practice of seeking God in the quiet and solitude of your personal space. Consider how often you retreat into a secret place to commune with God, away from the distractions and the eyes of the world. In this intimate and private setting, lay bare your heart and bring before God your deepest desires, concerns, and gratitude. Contemplate the strength derived from these quiet moments and how they fortify your spirit to face the demands of daily life. Let this practice be a regular, sacred dialogue that nurtures and sustains your soul.</t>
   </si>
   <si>
     <t>October 2, 2024</t>
@@ -960,7 +960,7 @@
     <t>Proverbs 11:25</t>
   </si>
   <si>
-    <t>Reflect upon the profound wisdom found in Proverbs 11:25, “A generous person will prosper; whoever refreshes others will be refreshed.” Contemplate the ways in which generosity shapes your life. Do you freely offer your time, resources, and compassion to others? Ponder the promise within this verse, that in selflessly helping and uplifting others, you too will find your spirit renewed. Take a moment to identify one area of your life where you can extend generosity today, trusting that in doing so, you are participating in a divine cycle of giving and receiving.</t>
+    <t>Reflect upon the joy and fulfillment that come from being generous and selfless toward others. Consider the ways in which your acts of kindness and giving have not only benefited those around you but have also brought growth and renewal to your own spirit. Contemplate how you can continue to be a source of blessing and support in the lives of others, and seek opportunities to give without hesitation, knowing that this generosity will enrich both your life and the lives of those you touch.</t>
   </si>
   <si>
     <t>October 3, 2024</t>
@@ -969,7 +969,7 @@
     <t>Psalm 46:4</t>
   </si>
   <si>
-    <t>Reflect upon the imagery of a river whose streams bring joy to the city of God. Consider how God's presence flows into your life, bringing peace, joy, and sustenance. Think about the ways you can stay connected to this divine stream, allowing it to nourish and cleanse your soul. Seek moments of quiet reflection and prayer, letting God's love wash over you, especially in times of trouble. Rejoice in the promise that His presence is always with you, making your life a dwelling place of the Most High.</t>
+    <t>Reflect upon the serenity that God's presence brings into your life, even amidst chaos. Consider how the divine presence can transform turmoil into peace. Seek ways to deepen your connection with God so that His peace may flow through you, bringing comfort and resilience in all circumstances. Let this reflection inspire you to become a conduit of His peace to others.</t>
   </si>
   <si>
     <t>October 4, 2024</t>
@@ -978,7 +978,7 @@
     <t>Philippians 1:6</t>
   </si>
   <si>
-    <t>Reflect upon the profound confidence and assurance found in this verse: "He who began a good work in you will carry it on to completion until the day of Christ Jesus." Ponder the reality that the good work God starts in each of us is not something we accomplish on our own. Consider how often you rely on your own strength versus placing your trust in God's ongoing work within you. As you reflect, ask yourself: In what areas of my life do I need to surrender more fully to God's guiding hand? Where do I need to trust that He is faithful to complete the work He has started in me? Take comfort and find peace in knowing that God’s work in your life is continuous and unwavering, even amidst your imperfections and struggles.</t>
+    <t>Reflect upon the confidence Paul speaks of in this passage. Consider how deeply you trust in God's good work within you and His plan for your life. Are you able to rest in the assurance that God, who began a good work in you, will carry it on to completion? Ponder your faith journey and recognize the ways God has been faithful. Allow this reflection to deepen your trust in His eternal promise and find peace in knowing that God will never abandon the masterpiece He is creating in you.</t>
   </si>
   <si>
     <t>October 5, 2024</t>
@@ -987,7 +987,7 @@
     <t>Matthew 28:20</t>
   </si>
   <si>
-    <t>Reflect upon the profound promise contained in Jesus' words: "And surely I am with you always, to the very end of the age." Contemplate the unwavering presence of Christ in every moment of your life. Consider whether you live each day with the awareness of His constant companionship. Take comfort in knowing that no matter what trials or challenges you face, you are never alone. Let this promise strengthen your faith and inspire you to trust in His enduring presence and guidance. Allow His reassurance to transform your fears into confidence and your doubts into faith.</t>
+    <t>Reflect upon the promise of Jesus to always be with you until the end of time. Consider the significance of this divine assurance in your daily life. Ask yourself, do you truly live each day with the awareness of His presence? Let this reflection lead you to a deeper sense of peace and courage, knowing that you are never alone and that His guiding hand is ever present, even in the most challenging of times.</t>
   </si>
   <si>
     <t>October 6, 2024</t>
@@ -999,7 +999,7 @@
     <t>9</t>
   </si>
   <si>
-    <t>Reflect upon the profound titles given to the Messiah in Isaiah 9:6: Wonderful Counselor, Mighty God, Everlasting Father, Prince of Peace. As you meditate on these titles, consider how each one speaks to a different aspect of the divine nature of Christ. Reflect on how He is a source of wisdom and guidance, a mighty protector, a nurturing and eternal presence, and a bringer of peace. Allow these reflections to deepen your understanding of the gift of Jesus in your life and consider how you can embody and share these qualities with others in your daily interactions.</t>
+    <t>Reflect upon the profound gift that is this promise, the promise of a child given to us, bearing titles of wonder and immense significance. Consider the depth of what it means to have a savior who embodies wisdom, power, and peace. How do these attributes offer guidance and comfort in your own life? Contemplate how you can more fully welcome and live out the presence of this divine guidance, power, and peace in your daily actions and interactions with others. Allow this reflection to inspire a deeper sense of gratitude and commitment to embodying these divine qualities in all that you do.</t>
   </si>
   <si>
     <t>October 7, 2024</t>
@@ -1008,7 +1008,7 @@
     <t>Psalm 37:34</t>
   </si>
   <si>
-    <t>Reflect upon the call to "wait for the Lord and keep his way." Consider the times in your life when you have been impatient, seeking your own solutions rather than trusting in God's timing and direction. Ponder the promise that He will exalt you to inherit the land. What does this inheritance mean for you personally? How can you cultivate greater patience and steadfastness in following God's path, even when it requires waiting? Allow these words to inspire you to remain faithful and trusting, confident that God's plan for your life is worth the wait.</t>
+    <t>Reflect upon the virtue of patience and trust in the Lord's timing as you navigate the challenges and uncertainties of life. Consider the times when you have felt anxious or impatient, and recall how God has faithfully guided you through those moments. Meditate on the importance of remaining steadfast in your faith, even when the outcome is unclear, and trust that God will lift you up in due time. Allow this reflection to cultivate a deeper sense of surrender and trust in God's perfect plan for your life.</t>
   </si>
   <si>
     <t>October 8, 2024</t>
@@ -1017,7 +1017,7 @@
     <t>Romans 8:37</t>
   </si>
   <si>
-    <t>Reflect on this powerful verse, "No, in all these things we are more than conquerors through him who loved us." Consider the trials and challenges you face in your everyday life, and remember that through the love of Christ, you are given the strength and victory over all adversities. Reflect on the depth of Christ's love for you and let this love empower you to overcome any obstacle. Let this assurance of victory instill in you a deep sense of peace and confidence, knowing that you are not alone and that God's love makes you more than a conqueror in all circumstances.</t>
+    <t>Reflect upon the deep truth that we are more than conquerors through Him who loves us. Consider the battles you face in life and recognize that with faith, not only can you overcome, but you can do so triumphantly because of Christ's love. Meditate on how this victory is not by your strength alone but by the grace and love bestowed upon you. How might this perspective shift the way you approach and handle your challenges today?</t>
   </si>
   <si>
     <t>October 9, 2024</t>
@@ -1026,7 +1026,7 @@
     <t>Matthew 5:13</t>
   </si>
   <si>
-    <t>Reflect today upon the metaphor of being the "salt of the earth." Consider what it means to bring flavor, preservation, and healing to the world around you. How can you actively contribute to preserving the goodness in society and enhance the lives of those you encounter? Ponder your unique gifts and how you might use them to season the world with Christ’s love and truth. Pray for the clarity and courage to live out this calling each and every day.</t>
+    <t>Reflect on the essence of being the "salt of the earth." Consider how salt, though small and often unseen, makes a significant impact by preserving and enhancing the flavor of food. Ponder your role in the world: are you living in a way that preserves goodness and brings out the best in others? Reflect on the subtle but powerful influence you have and ask yourself if you are serving your purpose fully. How can you be a source of preservation and add spiritual richness to the lives you touch?</t>
   </si>
   <si>
     <t>October 10, 2024</t>
@@ -1038,7 +1038,7 @@
     <t>Ecclesiastes</t>
   </si>
   <si>
-    <t>Reflect upon the humbling truth that we come into this world with nothing and leave with nothing. This verse is a poignant reminder of the transient nature of our earthly possessions and achievements. Consider what treasures you are storing up in Heaven and how you are living your life in light of eternity. Focus on what truly holds eternal value and let go of attachments to material things that will eventually fade away.</t>
+    <t>Reflect upon the transient nature of material possessions and the stark reality that we bring nothing into this world and will take nothing out of it. Consider the ways in which you may be overly attached to material wealth and the pursuit of worldly success. Examine your heart and identify any areas where you might be placing too much value on physical belongings rather than on spiritual riches. Take time to refocus on the eternal treasures that cannot be taken away and find peace in the simplicity of a life entrusted to God's providence.</t>
   </si>
   <si>
     <t>October 11, 2024</t>
@@ -1047,13 +1047,13 @@
     <t>Proverbs 3:27</t>
   </si>
   <si>
-    <t>Reflect upon the importance of generosity and kindness in your daily life as guided by Proverbs 3:27, which states, "Do not withhold good from those to whom it is due, when it is in your power to act." How often do you find yourself in a position to help others but hesitate or hold back? Examine these moments and consider the reasons why you may hesitate. Seek God's guidance to open your heart more fully to acts of kindness and generosity, and pray for the courage to take action whenever you have the power to do good. Remember that every small act of kindness can have a profound impact on someone's life and bring you closer to living a life of true Christian charity.</t>
+    <t>Consider today the ways in which you can be a blessing to those around you. Reflect upon the resources, talents, and opportunities you possess, and how you might use them to act generously. Sometimes, the greatest impact can come from small acts of kindness, a listening ear, or a word of encouragement. Seek to recognize the moments when you can offer assistance or support and choose to act promptly. Remember that your generosity can have a ripple effect, creating a far-reaching impact that you may never fully see. Let your heart be open today to the needs of others, and strive to be an instrument of God's love and provision.</t>
   </si>
   <si>
     <t>October 12, 2024</t>
   </si>
   <si>
-    <t>Reflect upon the promise found in this verse: "But those who wait on the Lord shall renew their strength; they shall mount up with wings like eagles, they shall run and not be weary, they shall walk and not faint." Consider what it means to truly wait on the Lord in your life. Are there areas where you are struggling to find patience or enduring strength? Take time today to trust in God's timing and provision. Allow His Spirit to renew you, giving you the strength to rise above challenges like an eagle soaring in the sky. Embrace the assurance that, through faith and perseverance, you will find the resilience to run without growing weary and to walk without fainting.</t>
+    <t>Reflect upon the concept of waiting upon the Lord with faith and patience. Consider the times in your life when you have felt weary or burdened, and how often you have trusted in your own strength rather than seeking God's guidance and support. Meditate on the promise of renewed strength and soaring to new heights when you place your hopes in Him. Today, let this reflection inspire you to deepen your trust and reliance on God, knowing that He will sustain and uplift you through all trials.</t>
   </si>
   <si>
     <t>October 13, 2024</t>
@@ -1062,7 +1062,7 @@
     <t>Matthew 5:44</t>
   </si>
   <si>
-    <t>Reflect upon the powerful and challenging command of Jesus to "Love your enemies and pray for those who persecute you." Consider those individuals who may have caused you pain or suffering. Reflect deeply on the unconditional love and forgiveness that Jesus calls us to extend to them, emulating His own example on the cross. Pray for the strength and grace to truly forgive and love as Jesus did, recognizing that this path leads to spiritual freedom and deeper communion with God.</t>
+    <t>Reflect on the profound challenge Jesus offers us—to love our enemies and pray for those who persecute us. Consider how transforming it can be to respond to hatred with love, and animosity with prayer. Ponder the situations or relationships in your life where this seems most difficult. In those moments, draw strength from Christ's example of boundless love and ask for the grace to see others through His eyes, cultivating a heart capable of forgiveness and compassion in the face of adversity.</t>
   </si>
   <si>
     <t>October 14, 2024</t>
@@ -1071,7 +1071,7 @@
     <t>Psalm 37:39</t>
   </si>
   <si>
-    <t>Reflect upon the reassurance that "The salvation of the righteous comes from the Lord; he is their stronghold in time of trouble." In moments of distress, do you turn to the Lord as your stronghold? Take time today to entrust your struggles to Him, trusting that He will be your steadfast protector and source of salvation. Let this verse remind you to rely on God's strength and not your own.</t>
+    <t>Reflect upon the truth that the Lord is your salvation and your refuge in times of difficulty. Consider the moments in your life when you have felt lost or in need of deliverance, and recognize that God's protection and strength have been your constant companion. Allow this awareness to deepen your trust in Him, knowing that His support is unfailing and His love is enduring. Turn to Him in every situation, and find peace in His steadfast presence.</t>
   </si>
   <si>
     <t>October 15, 2024</t>
@@ -1080,7 +1080,7 @@
     <t>Romans 12:21</t>
   </si>
   <si>
-    <t>Reflect upon the profound simplicity of Paul's instruction: "Do not be overcome by evil, but overcome evil with good." Take a moment to examine any areas in your life where you feel overwhelmed by negativity, anger, or temptation. Are there instances where you have allowed these forces to dominate your thoughts or actions? Consider how you can actively choose to respond to such challenges with acts of kindness, love, and goodness. Remember that true strength lies not in succumbing to the negative, but in transforming it with the power of God's grace and goodness. Aim to be a beacon of light and hope even in the face of darkness.</t>
+    <t>Reflect today upon the transformative power of goodness in your life. Consider moments when you have been tempted to respond to negativity with negativity. Did you overcome this temptation, or did you succumb to it? Every act of kindness and love becomes a testament to the strength within you, a quiet but powerful declaration against the darkness. Choose goodness, and let it be the light that guides your path and dispels the shadows around you. Pray for the grace to consistently embody this principle in every interaction and circumstance.</t>
   </si>
   <si>
     <t>October 16, 2024</t>
@@ -1092,7 +1092,7 @@
     <t>7</t>
   </si>
   <si>
-    <t>Reflect upon this passage and consider the foundation upon which you are building your life. Are you like the wise man who built his house on rock, listening to and acting upon the words of Jesus? Or are you like the foolish man who built his house on sand, ignoring His teachings? Contemplate the solidity of your spiritual foundation and seek to fortify it by deepening your commitment to live according to God’s will, ensuring that you stand firm against the storms of life by anchoring yourself in His truth and love.</t>
+    <t>Reflect on the importance of building your life on a solid foundation rooted in faith and the teachings of Jesus. Consider how the choices you make and the principles you adhere to shape the strength and stability of your character, much like a house built on rock withstands storms. Take a moment to evaluate whether your everyday actions align with the values and guidance provided by Christ, ensuring that you are constructing a life that can weather any challenge with resilience and unwavering faith. Let this reflection inspire you to deepen your commitment to living out these teachings in all aspects of your life.</t>
   </si>
   <si>
     <t>October 17, 2024</t>
@@ -1104,7 +1104,7 @@
     <t>91</t>
   </si>
   <si>
-    <t>Reflect upon the comforting truth in Psalm 91:11, which states, "For he will command his angels concerning you to guard you in all your ways." Consider the infinite care and protection God provides through His angels. As you go about your daily life, recognize the unseen spiritual guardians by your side and trust in God's providential care. Contemplate how this divine protection allows you to walk fearlessly towards fulfilling God's purpose for you. Are you fully entrusting yourself to His protective grace? Let this verse remind you of the ever-present help from heaven, encouraging a deeper trust and a more fearless living.</t>
+    <t>Reflect today upon the incredible promise that God assigns His angels to guide and protect us in all our ways. Take comfort in the fact that we are never truly alone, even in moments of fear, uncertainty, or danger. Consider how you can live with a deeper awareness of these divine protectors and trust in their presence in your daily life. Let this awareness lead you to a greater sense of peace and trust in God's providential care.</t>
   </si>
   <si>
     <t>October 18, 2024</t>
@@ -1113,13 +1113,13 @@
     <t>Proverbs 16:7</t>
   </si>
   <si>
-    <t>Reflect upon this verse which states, "When the Lord takes pleasure in anyone’s way, he causes their enemies to make peace with them." Consider the profound peace that comes when your life finds favor with God. Are there areas in your life where you strive for your own way rather than seeking the Lord's pleasure? Contemplate how aligning your actions and intentions with God's desires can transform even adversarial relationships. Seek to live in such a way that God’s favor rests upon you, bringing harmony and reconciliation into all areas of your life. Where there is discord, pray for the grace to walk in God’s ways and witness the peace that only He can bring.</t>
+    <t>Reflect upon the deep truth that when our ways are pleasing to the Lord, He brings peace even with our adversaries. Consider in your heart what it means to live a life that is truly pleasing to God. Are there areas in your life where you need to seek His guidance to align more closely with His will? Strive to walk in righteousness and integrity, knowing that God can transform even the most challenging relationships for His glory and your good.</t>
   </si>
   <si>
     <t>October 19, 2024</t>
   </si>
   <si>
-    <t>Reflect upon the profound truth found in Romans 8:18: "I consider that our present sufferings are not worth comparing with the glory that will be revealed in us." In times of trial and suffering, it is often difficult to see beyond the immediate pain. However, this verse invites us to lift our eyes to the eternal promise of God's glory. Contemplate how your current struggles, no matter how arduous, are temporary compared to the everlasting joy and splendor that God has prepared for you. Let this promise fill you with hope and perseverance, knowing that every moment of suffering is working towards a greater and incomprehensible good that will be fully revealed in God's perfect time.</t>
+    <t>Reflect upon the hope that lies within you and upon the promises that God has made. Consider the challenges and struggles you face in life and understand them in the light of eternity. The sufferings of this present moment are fleeting compared to the infinite glory that awaits those who trust in God. Let this truth bring you comfort and strength, knowing that your faith is leading you to an eternal joy beyond all comprehension. Embrace your trials with patience and perseverance, keeping your eyes fixed on the promises of our Lord.</t>
   </si>
   <si>
     <t>October 20, 2024</t>
@@ -1128,7 +1128,7 @@
     <t>Matthew 11:29</t>
   </si>
   <si>
-    <t>Reflect upon the invitation Jesus extends to you in Matthew 11:29: "Take my yoke upon you and learn from me, for I am gentle and humble in heart, and you will find rest for your souls." Consider what burdens you are carrying today and how you might place them upon Jesus instead. Ponder the gentle and humble heart of our Lord and ask yourself how you can emulate these qualities in your own life. Embrace His promise of rest and seek to find solace in His loving guidance.</t>
+    <t>Reflect upon the gentle and humble heart of Jesus, who invites us to take His yoke upon ourselves and learn from Him. Consider the burdens and struggles you carry in life and how often you try to bear them alone. Reflect on how Jesus' invitation is a call to surrender these burdens and find rest for your soul in His love and guidance. Ask yourself how you can better embrace His way of gentleness and humility in your interactions with others, trusting that in doing so, you will find the peace and rest that your heart seeks.</t>
   </si>
   <si>
     <t>October 21, 2024</t>
@@ -1137,7 +1137,7 @@
     <t>Psalm 37:3</t>
   </si>
   <si>
-    <t>Reflect today on what it means to trust in the Lord and do good. Consider areas of your life where you might struggle with trust or where doubts and fears may creep in. Ask yourself how you can more deeply commit to trusting God’s plan for your life and surrendering those worries to Him. Reflect also on how you can actively do good in the world around you, knowing that your efforts are a testament to your faith. Dwell in the land of His promise and let faithfulness be your foundation.</t>
+    <t>Reflect upon the significance of trust and commitment in your relationship with God. Consider how relying on His faithfulness can bring peace and guidance to your life. Ask yourself if you are placing your full trust in God's plan, and reflect on ways you can cultivate a deeper sense of faith and trust through your actions and choices each day.</t>
   </si>
   <si>
     <t>October 22, 2024</t>
@@ -1146,7 +1146,7 @@
     <t>Isaiah 43:4</t>
   </si>
   <si>
-    <t>Reflect upon the profound message of Isaiah 43:4, which reminds us of our precious worth in the eyes of God. "Because you are precious in my eyes, and honored, and I love you, I give men in return for you, peoples in exchange for your life." Reflect on the depth of this divine love. Recognize that our value is not derived from worldly achievements or possessions but from being cherished creations of God. Let this truth sink into your heart and transform the way you see yourself and others. Strive to honor this love by living a life that reflects your awareness of being deeply valued and loved by the Creator.</t>
+    <t>Reflect today upon the profound love that God has for you, recognizing that you are precious and honored in His sight. Consider how this divine love shapes your identity and self-worth. Ask yourself how fully you embrace and live out this truth in your daily life. Are there areas where you struggle to see your own value as God does? Ponder how this recognition of your sacred worth can transform your relationships and interactions with others, seeing them also as cherished and valuable in the eyes of God.</t>
   </si>
   <si>
     <t>October 23, 2024</t>
@@ -1155,7 +1155,7 @@
     <t>1 Corinthians 3:16</t>
   </si>
   <si>
-    <t>Reflect upon this profound revelation: "Do you not know that you are God’s temple and that God’s Spirit dwells in you?" Take a moment to contemplate the significance of this truth. Consider how you treat yourself and others, knowing that each of us is a sacred dwelling place for the Holy Spirit. Ask yourself if your actions, thoughts, and words honor the divine presence within you. Where you find shortcomings, seek God's grace to live in a manner worthy of being His holy temple.</t>
+    <t>Reflect today upon the profound truth that you are a dwelling place of the Holy Spirit. Consider the honor and responsibility that comes with being the living temple of God's Spirit. How does this reality influence your daily thoughts, actions, and interactions with others? Seek to make your heart a worthy sanctuary, filled with love, grace, and holiness, recognizing the sacred presence within you.</t>
   </si>
   <si>
     <t>October 24, 2024</t>
@@ -1164,7 +1164,7 @@
     <t>Matthew 6:19</t>
   </si>
   <si>
-    <t>Reflect upon the treasures you seek and cherish in your life. Are these treasures heavenly or earthly? Jesus reminds us not to store up treasures on earth, where moth and rust destroy, and where thieves break in and steal, but to store up treasures in heaven. Take some time to examine the focus of your heart. Are you investing in eternal treasures through acts of love, kindness, and service? Let this passage steer you toward a renewed appreciation for the eternal blessings that come from a life aligned with God's will.</t>
+    <t>Reflect upon the treasures you seek in life. Are they earthly treasures that may decay and be lost over time, or are they heavenly treasures that last for eternity? Consider where your heart truly lies. If you find yourself attached to possessions or worldly success, ask God to redirect your focus towards that which has eternal value. Let this reflection inspire a shift from accumulating temporary gains to nurturing your soul and building a deeper relationship with God.</t>
   </si>
   <si>
     <t>October 25, 2024</t>
@@ -1173,7 +1173,7 @@
     <t>Proverbs 15:4</t>
   </si>
   <si>
-    <t>Reflect upon the power of your words today. Proverbs 15:4 states, "The soothing tongue is a tree of life, but a perverse tongue crushes the spirit." Consider how your words affect those around you. Are your words bringing healing, comfort, and life, or do they sometimes wound and diminish others? Pray for the grace to be mindful of your speech, to use your words to build up and bless rather than tear down. Each conversation is an opportunity to plant seeds of life or harm, so strive to allow your speech to be guided by kindness and love.</t>
+    <t>Reflect upon the power of your words and the impact they have on others. Consider how even a single kind or harsh word can significantly affect someone’s heart and spirit. Ask yourself if your words bring healing and life or if they cause pain and strife. Strive each day to speak with grace, compassion, and wisdom, recognizing the profound influence that your speech possesses. May your words always uplift and encourage those around you.</t>
   </si>
   <si>
     <t>October 26, 2024</t>
@@ -1185,7 +1185,7 @@
     <t>127</t>
   </si>
   <si>
-    <t>Reflect on the profound truth found in Psalm 127:1, "Unless the Lord builds the house, the builders labor in vain. Unless the Lord watches over the city, the guards stand watch in vain." Consider the efforts and endeavors you undertake in your daily life. Ask yourself whether these actions are truly grounded in the will and guidance of God, or if they are driven by your own ambitions and plans. Seek to build your life, your relationships, and your goals with God as the foundation and guiding presence. Where you find that you are striving in vain, invite the Lord to take over and lead the way. In doing so, trust that He will bless and sustain your efforts with His wisdom and grace.</t>
+    <t>Reflect, today, upon the profound truth that all our efforts are in vain unless God is at the center. Consider the areas of your life where you strive and labor. Are your work, relationships, and aspirations built upon a foundation of divine guidance and trust? Without God, our endeavors can feel empty and unfulfilled. Invite Him into every aspect of your life, recognizing that it is only through His providence and blessing that true success and fulfillment are found.</t>
   </si>
   <si>
     <t>October 27, 2024</t>
@@ -1197,7 +1197,7 @@
     <t>25</t>
   </si>
   <si>
-    <t>Reflect upon this verse, "Like a city whose walls are broken through is a person who lacks self-control." Consider the importance of self-control in your daily life. Just as a city with broken walls is vulnerable to attack, without self-control, we become susceptible to various negative influences and impulses. Reflect on areas in your life where you struggle with self-control and ask God for the strength and discipline to build strong spiritual "walls" that protect you and allow you to live in divine peace and security.</t>
+    <t>Reflect upon the importance of self-control and the consequences of lacking it. Consider how emotions and desires, when left unchecked, can lead to instability in your life, much like a city without walls is vulnerable to attack. Ponder areas where you may struggle with self-discipline, and commit to strengthening these aspects of your character through prayer, guidance, and practical steps. Seek God's help to fortify your inner resolve, knowing that maintaining control over your emotions and actions is a vital foundation for a balanced and secure life.</t>
   </si>
   <si>
     <t>October 28, 2024</t>
@@ -1206,7 +1206,7 @@
     <t>Matthew 6:1</t>
   </si>
   <si>
-    <t>Reflect upon the motivations behind your actions. In this passage, Jesus warns against practicing your righteousness in front of others to be seen by them. Consider why you do the good deeds you do. Are they motivated by a deep desire to serve and glorify God, or are they driven by a need for recognition and approval from others? Seek to cultivate a pure heart that seeks only the approval of your Heavenly Father, and strive to do good quietly and humbly, trusting that God sees and values your sincere efforts.</t>
+    <t>Reflect on the ways in which you seek recognition and praise from others for the good deeds you perform. Consider whether your actions are motivated by a desire for personal glory or by a genuine love for God and others. Ponder the quiet, humble acts of kindness you can do that go unnoticed by the world but are seen by God. Seek to purify your intentions and act out of a selfless heart, knowing that your Heavenly Father sees all that is done in secret.</t>
   </si>
   <si>
     <t>October 29, 2024</t>
@@ -1215,7 +1215,7 @@
     <t>Psalm 37:16</t>
   </si>
   <si>
-    <t>Reflect upon the truth inherent in these words: "Better the little that the righteous have than the wealth of many wicked." Take some time to assess your own life and consider where true contentment lies. Are you able to find peace and joy in the simple blessings that come from living a life of integrity and righteousness? Contemplate the idea that the value of our lives is not measured by material wealth but by the richness of our connection with God and our alignment with His will. Where there is any discontent or desire for more, invite God to transform your heart to treasure what is truly invaluable.</t>
+    <t>Reflect on the true value of what you possess, focusing not on material wealth but on the richness of a life lived in righteousness. Consider how often society measures success through the lens of affluence, and how true contentment can be found in a virtuous life. Contemplate the blessings that come from simplicity and integrity, and let this lead you to a deeper appreciation of the quieter, more profound riches that align with divine will.</t>
   </si>
   <si>
     <t>October 30, 2024</t>
@@ -1227,7 +1227,7 @@
     <t>17</t>
   </si>
   <si>
-    <t>Reflect upon the words, "Whoever would foster love covers over an offense, but whoever repeats the matter separates close friends." Take a moment to consider how you handle offenses in your relationships. Do you seek to forgive and cover over an offense with love, or do you dwell on it, allowing it to create separation and division? Today, challenge yourself to foster love by letting go of past hurts and choosing forgiveness, nurturing harmony and unity in your relationships.</t>
+    <t>Reflect upon the significance of forgiveness in your interpersonal relationships. Consider how often you hold onto grievances and the impact this has on your emotional and spiritual well-being. Ponder how true reconciliation and letting go of past wrongs can heal and strengthen your relationships. Strive to foster an environment of love and understanding where conflicts are resolved through forgiveness and compassion. As you do this, invite God's grace to help you overlook faults and promote peace in your connections with others.</t>
   </si>
   <si>
     <t>October 31, 2024</t>
@@ -1236,7 +1236,7 @@
     <t>Isaiah 40:28</t>
   </si>
   <si>
-    <t>Reflect upon the everlasting nature and infinite power of God as proclaimed in Isaiah 40:28. "Do you not know? Have you not heard? The Lord is the everlasting God, the Creator of the ends of the earth. He will not grow tired or weary, and his understanding no one can fathom." Think about the comfort and assurance that comes from knowing that God never grows weary or faint. In moments of doubt or fatigue, remember this truth, and let it strengthen your faith. Contemplate how God's infinite understanding and tireless presence provide guidance and peace in every aspect of your life. Surrender your worries and trust in His eternal wisdom and unfailing support.</t>
+    <t>Reflect upon the eternal nature and boundless strength of God. Consider how, even in moments when you feel weary and overwhelmed, God's power and understanding are infinite and unwavering. Let this truth fill you with comfort and hope. Trust that God, who never grows tired or faint, will provide you with the strength you need to persevere through any trial. Remain steadfast in your faith, knowing that God's wisdom and power are always at work in your life.</t>
   </si>
   <si>
     <t>November 1, 2024</t>
@@ -1245,7 +1245,7 @@
     <t>Matthew 5:5</t>
   </si>
   <si>
-    <t>Reflect upon the words, "Blessed are the meek, for they shall inherit the earth." In a world often driven by power and assertiveness, meekness may seem like a weakness. However, true meekness is strength under control. It is an attitude of humility and gentleness, recognizing our position before God and others. Consider how you can embody meekness in your daily interactions, showing patience, kindness, and understanding even when provoked or challenged. Reflect on how this virtue can bring about true peace and how, through this peace, you might inherit the deeper and more meaningful blessings God has prepared for you.</t>
+    <t>Reflect upon what it means to be truly meek in the eyes of God. Meekness is not about weakness or a lack of confidence. Rather, it is about humility, gentleness, and a willingness to submit to God's will. Consider how you can practice meekness in your daily life, especially in moments of conflict or when your pride is challenged. How can you learn to find strength in gentleness and power in humility? Seek to embrace a spirit of meekness and trust that, through it, God's kingdom will be more fully manifested in your life.</t>
   </si>
   <si>
     <t>November 2, 2024</t>
@@ -1254,7 +1254,7 @@
     <t>Psalm 37:25</t>
   </si>
   <si>
-    <t>Reflect upon the steadfastness and faithfulness of God throughout your life. Psalm 37:25 says, "I have been young, and now am old; yet I have not seen the righteous forsaken, nor his children begging bread." Consider how God has provided for you in both times of abundance and times of need. Trust in His continued provision and care. Reflect on any anxieties or concerns you hold about the future, and bring them before God, trusting in His enduring faithfulness and promise to never forsake the righteous.</t>
+    <t>Reflect upon the unwavering faithfulness of God throughout the countless seasons of your life. Consider the moments of difficulty and uncertainty where, despite the challenges, you were never truly abandoned. Contemplate how God's enduring provision has sustained you and those before you. Use this reflection as an opportunity to deepen your trust in His promises and to cultivate a heart full of gratitude for His perpetual care. Let this reflection inspire you to become a vessel of hope and assurance for others who may doubt His unwavering presence.</t>
   </si>
   <si>
     <t>November 3, 2024</t>
@@ -1263,7 +1263,7 @@
     <t>Romans 12:19</t>
   </si>
   <si>
-    <t>Reflect upon the words of Romans 12:19, "Do not take revenge, my dear friends, but leave room for God's wrath, for it is written: 'It is mine to avenge; I will repay,' says the Lord." Ponder the nature of forgiveness and the surrender of control. Ask yourself if there are any grudges or feelings of revenge that you are holding onto. Entrust these feelings to God's just and perfect judgment. Remember that true peace and healing come not from seeking vengeance, but from allowing God's justice to prevail and showing mercy, just as God shows mercy to us.</t>
+    <t>Reflect on the human tendency to seek revenge and the deep longing for justice that often accompanies it. Consider the words of this passage, which urge us to relinquish our claims for personal vengeance and trust in God’s perfect wisdom and justice. Ponder the freedom that comes from letting go of bitterness and trusting that God's ways are higher and more just than our own. In moments of anger and hurt, seek to place your trust in God's hands, allowing Him to be the divine judge and letting peace fill your heart in the absence of vengeful desires.</t>
   </si>
   <si>
     <t>November 4, 2024</t>
@@ -1272,7 +1272,7 @@
     <t>Matthew 7:21</t>
   </si>
   <si>
-    <t>Reflect upon these profound words of our Lord: "Not everyone who says to me, 'Lord, Lord,' will enter the kingdom of heaven, but only the one who does the will of my Father who is in heaven." Consider the depth of your faith and relationship with God. Do your actions align with your professed beliefs, or are there inconsistencies between your words and deeds? Let this verse challenge you to truly live out your faith through concrete actions and a sincere heart devoted to doing God's will. Examine your actions and intentions, and seek to bring them into harmony with the will of our Heavenly Father.</t>
+    <t>Reflect today on the authenticity of your faith and actions. Are your words and deeds truly aligned with the will of God, or are they simply for show? True discipleship goes beyond mere profession of faith; it requires a deep, sincere commitment to live according to God's call. Examine your heart and your life, and ask yourself if you are genuinely seeking to do the will of God in all things. True devotion will manifest in actions that reflect God's love and commandments. Seek to transform your inner intentions and let them guide your everyday actions, that you may truly be known by Him.</t>
   </si>
   <si>
     <t>November 5, 2024</t>
@@ -1281,7 +1281,7 @@
     <t>Psalm 91:4</t>
   </si>
   <si>
-    <t>Reflect today on the comforting image presented by this psalm. "He will cover you with his feathers, and under his wings you will find refuge; his faithfulness will be your shield and rampart." Consider the ways in which God provides protection and care for you, like a bird shielding its young. Are there areas of your life where you feel exposed or vulnerable? Bring those concerns to God in prayer, and trust in His promise to be your sanctuary and protect you with His steadfast love. Let this image of divine protection fill you with peace and confidence as you navigate the uncertainties of life.</t>
+    <t>Reflect on the profound image of being covered under the protective and loving wings of God. Think of the security and comfort that comes from knowing you are shielded by His unwavering faithfulness. In moments of fear and uncertainty, remember this divine shelter, and let your heart be at peace, resting in the assurance of God's steadfast love and care for you. Consider how you can extend this same sense of refuge and protection to those around you, becoming a source of God's love and faithfulness in their lives.</t>
   </si>
   <si>
     <t>November 6, 2024</t>
@@ -1290,7 +1290,7 @@
     <t>Proverbs 16:20</t>
   </si>
   <si>
-    <t>Reflect upon the wisdom found in heeding instruction and trusting in the Lord. Take a moment to honestly assess how open you are to receiving guidance and whether you seek divine direction in your daily life. The verse tells us, "Whoever gives heed to instruction prospers, and blessed is the one who trusts in the Lord." Consider how you can cultivate a more attentive and trusting heart, allowing God to lead you towards prosperity and abundant blessings.</t>
+    <t>Reflect upon the meaning of trust in the Lord in your daily life. Consider how often you rely on your own understanding and strength, and how that compares to the times you seek guidance and wisdom from God. True joy and spiritual prosperity come from recognizing that God's plan is perfect, even when it isn't clear to us. Ponder how you can more consistently place your trust in Him and find contentment, even in challenging times.</t>
   </si>
   <si>
     <t>November 7, 2024</t>
@@ -1299,7 +1299,7 @@
     <t>John 14:27</t>
   </si>
   <si>
-    <t>Reflect on the words, "Peace I leave with you; my peace I give you. I do not give to you as the world gives. Do not let your hearts be troubled and do not be afraid." Take a moment today to consider the type of peace that Jesus offers. It is not a temporary or superficial peace, but a profound, inner tranquility that calms your soul amid the chaos of life. Ponder on how you can embrace this divine peace more deeply and let go of the anxieties and fears that the world imposes. Seek God's presence and allow His peace to fill your heart, assuring you that in Him, you can find true rest and comfort.</t>
+    <t>Reflect upon the profound sense of peace that Jesus offers. This peace is not merely the absence of conflict or turmoil, but a deep, abiding tranquility that surpasses all earthly understanding. Consider the areas in your life where anxiety or fear takes hold and contemplate how you can surrender these concerns to Jesus. Trust that His peace is greater than any fear you face. Today, make a conscious decision to embrace His peace and let it rule in your heart.</t>
   </si>
   <si>
     <t>November 8, 2024</t>
@@ -1308,7 +1308,7 @@
     <t>Psalm 37:19</t>
   </si>
   <si>
-    <t>Reflect upon the comforting assurance found in Psalm 37:19 which states, "In times of disaster they will not wither; in days of famine they will enjoy plenty." Consider how, in moments of personal hardship or when enduring the various "famines" of life—whether spiritual, emotional, or physical—God’s providence remains sufficient. Reflect on the importance of placing your trust in God’s unwavering provision and protection. Allow this verse to bolster your faith, reminding you that even in the most trying times, God’s generosity and care will see you through.</t>
+    <t>Reflect upon the promise that God provides and sustains His faithful even during difficult and trying times. Consider the ways in which you have experienced God’s provision and protection throughout your life, even when circumstances seemed bleak. Trust that His grace will continue to uphold and guide you, and let this assurance give you peace and confidence irrespective of the challenges you face. Take time today to express gratitude for His unwavering presence and commit to deepening your reliance on His steadfast love and goodness.</t>
   </si>
   <si>
     <t>November 9, 2024</t>
@@ -1317,7 +1317,7 @@
     <t>Romans 1:17</t>
   </si>
   <si>
-    <t>Reflect upon the truth that "the righteous will live by faith." Contemplate how faith is the foundation of your relationship with God and how it guides your actions, thoughts, and decisions. Are there areas in your life where you rely more on your own understanding rather than trusting in God's plan? Ask for the grace to deepen your faith and to live out the righteousness that comes from walking in faith every day. Let this verse inspire you to trust more fully in God's promises and to seek His guidance in all things.</t>
+    <t>Reflect, today, on the profound truth that righteousness comes through faith. Consider the faithfulness of God and how this invites you into a transformed life of grace. Ask yourself where your faith stands and how it impacts your actions and decisions. This journey of faith unfolds daily and requires both trust and commitment. Seek to deepen your faith, trusting in God's righteousness to guide and sustain you.</t>
   </si>
   <si>
     <t>November 10, 2024</t>
@@ -1326,7 +1326,7 @@
     <t>Matthew 9:13</t>
   </si>
   <si>
-    <t>Reflect upon the words of Jesus where He says, "I desire mercy, not sacrifice." Take a moment to consider what this means in your own life. Are there instances where you prioritize ritual and routine over genuine acts of compassion and kindness? Examine your heart to see where there is a need for more mercy. Understand that true discipleship is not solely about following religious obligations but about embodying the love and mercy that Jesus exemplifies. Seek ways to practice mercy in your daily interactions and let it guide your actions towards others.</t>
+    <t>Reflect on the profound mercy of God as emphasized in this verse. Consider how often we get caught up in rituals and legalism, sometimes overlooking the greater need for compassion and understanding. Ask yourself: In what ways can I show mercy and love in my daily interactions, rather than focusing solely on rules and judgments? Let Christ’s example of unbounded forgiveness guide you in your relationships with others, inviting you to prioritize mercy above all.</t>
   </si>
   <si>
     <t>November 11, 2024</t>
@@ -1335,7 +1335,7 @@
     <t>Proverbs 16:18</t>
   </si>
   <si>
-    <t>Reflect upon the profound truth contained in Proverbs 16:18, "Pride goes before destruction, and a haughty spirit before a fall." Consider how pride has manifested in your life and the ways it may have led you astray or caused harm. Reflect on moments when humility could have guided you more gently and securely. Seek God's grace to cultivate a humble heart, recognizing that humility opens the door to wisdom, compassion, and true strength. Allow this reflection to transform your approach to life's challenges, relationships, and personal growth.</t>
+    <t>Reflect on the subtlety and danger of pride in your life. Pride often creeps in unnoticed, influencing thoughts and actions in ways that can lead to downfall. Consider moments when arrogance or self-importance may have affected your decisions or relationships. Seek humility, recognizing that true wisdom and strength come from acknowledging your dependence on God and others. Strive to replace pride with a humble heart, open to growth and guidance.</t>
   </si>
   <si>
     <t>November 12, 2024</t>
@@ -1344,7 +1344,7 @@
     <t>Psalm 34:4</t>
   </si>
   <si>
-    <t>Reflect today upon any and every situation in your life that causes you fear or anxiety. “I sought the Lord, and he answered me; he delivered me from all my fears.” Ask yourself whether you truly seek the Lord when faced with these challenges or if you rely more on your own strength or the distractions of the world. As you contemplate this Scripture, surrender your fears to God and trust in His assurance and deliverance. Let this passage inspire you to seek the Lord more fervently and to rest in His promise of freedom from fear.</t>
+    <t>Reflect upon the moments of fear and anxiety that visit us all. Consider how often we attempt to face these fears on our own, seeking solutions in our own strength. Instead, let us turn to God in these moments, seeking His guidance and deliverance. Ponder the peace that comes from knowing He is always ready to answer our call and relieve us of our burdens. Where can you invite God's presence into your life more fully to dispel your fears and bring peace to your heart?</t>
   </si>
   <si>
     <t>November 13, 2024</t>
@@ -1353,7 +1353,7 @@
     <t>Isaiah 40:11</t>
   </si>
   <si>
-    <t>Reflect upon the image of the Lord as a shepherd who tenderly cares for His flock. Consider the ways in which the Lord gathers you in His arms, carries you close to His heart, and gently leads you, especially in times of difficulty and uncertainty. Ponder how you can trust in His guidance and protection. Aim to experience the peace that comes from knowing you are continually cared for by your loving and ever-present Shepherd.</t>
+    <t>Reflect upon the tender image of a shepherd who gently leads his flock, carrying the lambs close to his heart. Consider the ways in which God shepherds you with such compassion and understanding. Think about the moments in your life when you felt lost or vulnerable and how God, like a compassionate shepherd, guided you back to safety. Ponder how you can emulate His tender care in your interactions with others, offering them the same compassion and understanding that you have received.</t>
   </si>
   <si>
     <t>November 14, 2024</t>
@@ -1365,7 +1365,7 @@
     <t>133</t>
   </si>
   <si>
-    <t>Reflect today on the beauty of unity and harmony among God’s people. "How good and pleasant it is when God’s people live together in unity!" Consider the relationships in your life—your family, friends, and community. Are there areas where division or discord exist? Ask God to help you become an instrument of His peace, fostering love and understanding wherever you go. Strive to build bridges and heal wounds, so that the warmth of unity can thrive in your life, bringing joy and delight to you and those around you.</t>
+    <t>Reflect upon the beauty and strength found in unity and harmony among people. Consider how your relationships contribute to a sense of togetherness and peace. Ask yourself how you can foster more unity within your family, community, and beyond. Seek ways to build bridges where there are divides, and cultivate a spirit of solidarity and mutual respect in all your interactions. Let the pursuit of harmony be a guiding principle in your life, bringing blessings and a sense of divine presence into all your relationships.</t>
   </si>
   <si>
     <t>November 15, 2024</t>
@@ -1374,7 +1374,7 @@
     <t>Matthew 5:7</t>
   </si>
   <si>
-    <t>Reflect, today, upon the simple but profound statement, "Blessed are the merciful, for they shall obtain mercy." Consider the ways in which you extend mercy to others in your daily life. Do you forgive those who have wronged you? Do you show compassion to those in need? Mercy is an act of love that goes beyond justice; it seeks to heal and restore relationships. Ask yourself if there are areas where you struggle to be merciful and seek God's grace to help you grow in this essential virtue. Remember, as you extend mercy to others, you open yourself to receive God's abundant mercy in return.</t>
+    <t>Reflect upon the invitation to embody mercy in your daily interactions. Consider those moments when you have been wronged or when you have seen others in need of compassion. Are you quick to forgive and offer a helping hand, or do you struggle with holding onto grudges and judgments? Contemplate how showing mercy can transform your relationships and bring healing and peace to both yourself and others. Seek ways to demonstrate mercy more fully in your life, remembering that it is through your compassionate actions that you will find true fulfillment and grace.</t>
   </si>
   <si>
     <t>November 16, 2024</t>
@@ -1383,7 +1383,7 @@
     <t>Psalm 37:8</t>
   </si>
   <si>
-    <t>Reflect on the significance of this verse, which advises, "Refrain from anger and turn from wrath; do not fret—it leads only to evil." Consider the presence of anger and anxiety in your own life. Is there a recurring situation or a relationship that triggers such emotions? Take this to prayer, asking God for the grace to transform anger into peace and fretting into trust. Remember, choosing the path of calm and faith not only aligns you with God’s will but also wards off the evil that anger and worry can foster in your heart. Let this be a daily commitment: to embrace a spirit of patience and trust in God's greater plan.</t>
+    <t>Reflect, today, on the many emotions you experience and how they influence your life. Consider moments of anger or irritation and ask yourself how these feelings impact your heart and your actions. How do they steer you away from peace and trust in God? Invite God into these moments and ask for His grace to cultivate patience, understanding, and serenity in your soul. In doing so, you will find a renewed strength to walk the path of righteousness with a heart full of divine peace.</t>
   </si>
   <si>
     <t>November 17, 2024</t>
@@ -1392,7 +1392,7 @@
     <t>Proverbs 15:22</t>
   </si>
   <si>
-    <t>Reflect upon the importance of seeking counsel and the wisdom of others. Consider instances when you have tried to go it alone and found yourself struggling. How might have seeking the advice of others changed the outcome? Ponder the humility needed to ask for help and the strength it takes to listen to and implement the counsel of trusted friends and mentors. Remember, "Plans fail for lack of counsel, but with many advisers they succeed." Let this verse remind you to value collective wisdom and to diligently seek guidance in your endeavors.</t>
+    <t>Reflect on the importance of seeking counsel and guidance in life. Consider how often you rely solely on your own understanding and the potential pitfalls of doing so. True wisdom comes not only from within but also from the collective experience and insight of others. Ask yourself if you are open to receiving advice and are willing to act upon it. Embrace the humility needed to seek and accept the counsel of those who can help lead you on a path of righteousness and success.</t>
   </si>
   <si>
     <t>November 18, 2024</t>
@@ -1401,7 +1401,7 @@
     <t>Philippians 3:10</t>
   </si>
   <si>
-    <t>Reflect upon Paul's desire "to know Christ and the power of His resurrection and the fellowship of sharing in His sufferings, becoming like Him in His death." Consider how deeply you yearn to truly know Christ. Are you willing to embrace not only the glory of His resurrection but also the trials and sufferings that come with following Him? Allow this verse to challenge you to deepen your relationship with Christ, willingly entering into both His joys and His sufferings. Seek a faith that transcends comfort and convenience, striving to become more and more like Him in all aspects of life.</t>
+    <t>Reflect upon the intimate and profound desire to know Christ deeply, which encompasses experiencing both His suffering and His resurrection. Consider your own journey of faith and the balance between the hardships you endure and the hope of new life in Christ. Contemplate how you can embrace both the pain and the joy that come with following Him. Seek to deepen your union with Christ, allowing His life to transform your own.</t>
   </si>
   <si>
     <t>November 19, 2024</t>
@@ -1410,7 +1410,7 @@
     <t>Matthew 7:7</t>
   </si>
   <si>
-    <t>Reflect upon the profound and simple teaching found in Matthew 7:7: "Ask, and it will be given to you; seek, and you will find; knock, and the door will be opened to you." Consider how often you actively ask God for what you need, seek His guidance, and knock on the doors of opportunity He has placed before you. Are there areas in your life where you hesitate to ask, seek, or knock out of fear or doubt? Let this verse remind you of God’s promise and encourage you to approach Him with confidence and trust, knowing that He listens and responds to those who earnestly turn to Him.</t>
+    <t>Reflect on the assurance that God listens to our prayers. Consider how sincerely and persistently you seek, ask, and knock in your spiritual life. Reflect on the depth of your trust that God will open doors and provide according to His divine will. Challenge yourself to seek His presence more earnestly, ask with deeper faith, and knock with greater perseverance. Trust that His response will always be a reflection of His perfect love for you.</t>
   </si>
   <si>
     <t>November 20, 2024</t>
@@ -1419,7 +1419,7 @@
     <t>Psalm 46:9</t>
   </si>
   <si>
-    <t>Reflect upon the profound message in Psalm 46:9, which speaks of God making wars cease, breaking the bow, shattering the spear, and burning the shields with fire. Contemplate the immense peace and power of God, who is able to bring an end to conflicts and destroy the instruments of war. Ask yourself where in your life there exists conflict, both external and internal, and invite God into those spaces to bring His peace. Trust in His power to break and shatter any source of strife, and seek to be an instrument of His peace in your interactions with others.</t>
+    <t>Reflect upon the peace and stillness that God desires to bring into your life. Consider the ways in which you can be an instrument of that peace in a world filled with conflict and strife. Ponder how you can embrace moments of stillness to hear God's voice more clearly amidst the noise of daily life. Allow this reflection to inspire you to seek tranquility within yourself and share that calmness with others.</t>
   </si>
   <si>
     <t>November 21, 2024</t>
@@ -1428,7 +1428,7 @@
     <t>Isaiah 40:30</t>
   </si>
   <si>
-    <t>Reflect upon the message conveyed in this verse: "Even youths grow tired and weary, and young men stumble and fall." Contemplate the transient nature of human strength and the limits we all possess. Recognize your own moments of weariness and stumbling, and see them as opportunities to lean more fully on God's everlasting strength. In acknowledging your own limitations, open your heart to relying on the divine power that never diminishes. Let God's boundless energy and support become the bedrock upon which you stand firm and persevere in faith.</t>
+    <t>Reflect upon the reality that human strength and vigor will always have its limits, regardless of age or physical capacity. Consider how this truth humbles us and draws our focus toward divine sustenance. Amidst the challenges and weariness of life, recall the boundless strength available to us through God's grace. Contemplate how relying on divine strength rather than our own can lead us to live with greater resilience, hope, and faith. Let this reflection deepen your trust and dependence on God's unfailing support.</t>
   </si>
   <si>
     <t>November 22, 2024</t>
@@ -1437,7 +1437,7 @@
     <t>Romans 12:11</t>
   </si>
   <si>
-    <t>Reflect upon the exhortation found in Romans 12:11, which states, "Never be lacking in zeal, but keep your spiritual fervor, serving the Lord." Consider the energy and enthusiasm with which you pursue your daily activities and responsibilities. Are you fervent and passionate about your relationship with God and your service to others? Reflect on any areas of your life where your zeal may have waned, and ask the Holy Spirit to rekindle a passionate devotion within you. Let this verse inspire you to serve the Lord with unwavering enthusiasm and diligence, trusting that your efforts are meaningful and cherished in His eyes.</t>
+    <t>Reflect upon the energy and dedication you bring to your daily tasks and spiritual life. Are you fervent in spirit, or do you find yourself growing weary and indifferent? Consider how you can rekindle the zeal within you, serving the Lord with greater passion and commitment. Ask God for the strength and inspiration to stay engaged and enthusiastic in your service, knowing that your efforts are for His glory.</t>
   </si>
   <si>
     <t>November 23, 2024</t>
@@ -1446,7 +1446,7 @@
     <t>Proverbs 16:28</t>
   </si>
   <si>
-    <t>Reflect on the ways in which gossip or deceit may be causing division in your own life or among those around you. Proverbs 16:28 reminds us that "a perverse person stirs up conflict, and a gossip separates close friends." Consider how your words and actions impact your relationships, and seek to build bonds of trust and unity rather than divide. Pray for the wisdom and strength to speak truthfully and act with integrity, nurturing peace and understanding within your community.</t>
+    <t>Consider how our words have the power to either build up or tear down. Our speech can be a source of healing or division, and we must be mindful of the impact of our conversations on others. Reflect on whether you are fostering unity and peace through your words, or if you are unintentionally sowing discord. Pray for the wisdom to use your voice in ways that honor God and uplift those around you. Seek to cultivate a heart that speaks truth with love and strives for reconciliation in all relationships.</t>
   </si>
   <si>
     <t>November 24, 2024</t>
@@ -1455,7 +1455,7 @@
     <t>Psalm 118:1</t>
   </si>
   <si>
-    <t>Reflect upon the gratitude and praise that is due to the Lord, for His goodness and everlasting mercy. "Give thanks to the Lord, for he is good; his love endures forever." Contemplate how you can begin each day with a heart full of thanks for God's unwavering love and mercy that surrounds you. Consider how expressing this gratitude can uplift your spirit and bring you closer to God, enabling you to share that same love and kindness with others.</t>
+    <t>Reflect, today, upon the countless blessings you have received in life and the ways in which God's love and mercy have been evident. Take time to offer sincere gratitude and praise for all He has done. Recognize that His love is everlasting and continually present in every moment, even during trials. Let this awareness deepen your faith and trust in His unending goodness.</t>
   </si>
   <si>
     <t>November 25, 2024</t>
@@ -1464,7 +1464,7 @@
     <t>Proverbs 15:13</t>
   </si>
   <si>
-    <t>Reflect upon the saying, "A joyful heart brightens one's face, but an anguished heart breaks the spirit." Consider the state of your own heart and how it affects not only your inner well-being but also the way you present yourself to the world. Reflect on the sources of your joy and anguish. What gives your heart genuine joy? What sources of pain do you need to address and bring before God for healing? Today, ask God to fill your heart with His joy so that it may shine through your actions, attitudes, and interactions with others.</t>
+    <t>Reflect upon the power of a cheerful heart and how it radiates through your entire being. Consider the impact your inner joy can have not only on your own life but also on those around you. Ponder the ways you can nurture a joyful spirit, even in times of difficulty, and recognize the transformative effect of true inner contentment. Seek to align your heart with peace and positivity, and let that inner cheerfulness be a beacon of light to others.</t>
   </si>
   <si>
     <t>November 26, 2024</t>
@@ -1476,7 +1476,7 @@
     <t>1 Thessalonians</t>
   </si>
   <si>
-    <t>Reflect, today, upon the profound meaning of the words found in 1 Thessalonians 5:18: "Give thanks in all circumstances; for this is God's will for you in Christ Jesus." Consider how frequently you express gratitude, not only during moments of joy and triumph but also during periods of trial and suffering. Gratitude has the power to transform your heart, allowing you to embrace God's will even in challenging times. Ask God for the grace to cultivate a thankful heart and to recognize His blessings in every moment of life.</t>
+    <t>Reflect on the spirit of gratitude that this passage calls for in all circumstances. Consider how embracing thankfulness can transform your perspective, even in difficult times. Take a moment to identify areas in your life where gratitude is lacking and contemplate how you can cultivate a deeper appreciation for God's presence and blessings in those moments. How might your outlook on life change if you truly live out a continuous attitude of thankfulness?</t>
   </si>
   <si>
     <t>November 27, 2024</t>
@@ -1485,7 +1485,7 @@
     <t>Psalm 37:28</t>
   </si>
   <si>
-    <t>Reflect today upon God's unwavering commitment to uphold the righteous and His promise to never forsake them. Consider the steadfast love and faithfulness of the Lord. How do you experience His love in your daily life? What steps can you take to align yourself more closely with His righteousness and justice? Ponder the eternal inheritance in Christ, and let this promise bring you comfort and motivation.</t>
+    <t>Reflect on the enduring faithfulness of our Lord. Consider how your actions and choices align with His promises and His justice. Are you embodying the virtues and righteousness that He upholds, even when faced with difficulties or opposition? Hold fast to the reality that God's love for you is unwavering and that He will never forsake those who strive to live in His truth. Let this assurance give you strength and courage to pursue a life of devotion and integrity.</t>
   </si>
   <si>
     <t>November 28, 2024</t>
@@ -1494,13 +1494,13 @@
     <t>Romans 8:15</t>
   </si>
   <si>
-    <t>Reflect, today, upon the profound gift of being adopted as a child of God, as Paul describes in Romans 8:15. This verse reminds us that we have not received a spirit of slavery that leads us back into fear, but rather the Spirit of sonship, through which we cry, "Abba, Father." Consider how often you live in unnecessary fear or doubt, forgetting your true identity and the intimate relationship you have with God. Embrace the freedom and love that come with being God's child, and let this truth dispel any lingering anxieties or uncertainties in your life. Live today with the confidence and trust of a beloved child speaking to their most loving Father.</t>
+    <t>Reflect upon the profound truth that you are not bound by a spirit of slavery and fear, but are instead embraced by a spirit of adoption. Contemplate what it means to be a child of God, to call Him "Abba, Father." Consider the depth of this relationship, rooted in love and trust, and allow it to permeate every aspect of your life. Embrace this identity and let go of any fear or uncertainty, knowing that you are deeply loved and cherished by your heavenly Father.</t>
   </si>
   <si>
     <t>November 29, 2024</t>
   </si>
   <si>
-    <t>Reflect upon the light within you that Jesus speaks of when He says, "Let your light shine before others, that they may see your good deeds and glorify your Father in heaven." Consider the ways in which your actions, words, and demeanor reflect the love and grace of God. Are you allowing His light to radiate through you in a way that brings glory to Him? Contemplate how you can be more intentional in your daily life to shine His light, not for your own recognition, but so that others may be drawn to and glorify our Heavenly Father.</t>
+    <t>Reflect upon the ways in which your actions and behaviors shine forth in your daily life. Consider whether your good deeds serve as a beacon of light, guiding others towards a greater good. Ponder how you can increase this light by being more intentional and genuine in your kindness and compassion. By consistently radiating positivity and love, you become an inspiration to those around you, demonstrating the power of living with purpose and integrity.</t>
   </si>
   <si>
     <t>November 30, 2024</t>
@@ -1509,7 +1509,7 @@
     <t>Psalm 37:14</t>
   </si>
   <si>
-    <t>Reflect on the acts of wickedness described in Psalm 37:14, where it says, "The wicked draw the sword and bend the bow to bring down the poor and needy, to slay those whose ways are upright." Consider how in our daily lives, we might encounter attempts by others to bring us down, especially when striving to live righteously. Reflect on any moments when you have felt attacked or undermined for trying to do what is right. Pray for strength and perseverance to remain steadfast in living according to God's will, despite the opposition. Seek God’s guidance to discern how you might support others who are also under spiritual attack, helping to uplift them and remind them of God's unfailing protection and justice.</t>
+    <t>Reflect upon the reality that the world can be filled with challenges and adversities designed to bring us down or lead us astray. As we encounter moments of conflict or negativity, consider how deeply rooted your faith and trust in God’s justice are. Reflect on the assurance that God protects the righteous and upholds those who remain steadfast in their faith. In times of trial, focus on cultivating a heart of peace and reliance on God’s ultimate plan, knowing that true strength lies within His guidance and protection over our lives.</t>
   </si>
   <si>
     <t>December 1, 2024</t>
@@ -1518,13 +1518,13 @@
     <t>Proverbs 14:21</t>
   </si>
   <si>
-    <t>Reflect upon the truth revealed in Proverbs 14:21, "Whoever despises his neighbor is a sinner, but blessed is he who is generous to the poor." Consider how we treat those around us, especially those who may be in need or less fortunate. Reflect upon your own attitudes and actions toward your neighbors and the less fortunate. Do you harbor any prejudices or judgments? Strive to cultivate a heart of generosity and kindness, recognizing that in doing so, you align yourself with God's will and receive His blessings.</t>
+    <t>Reflect upon the call to exhibit kindness and compassion in your daily interactions. Consider the ways in which you might judge or neglect others, sometimes unknowingly. Contemplate the joy and blessings that come from extending mercy and understanding to those around you. In your heart, commit to being more aware of the needs of others and to offering genuine acts of charity and grace.</t>
   </si>
   <si>
     <t>December 2, 2024</t>
   </si>
   <si>
-    <t>Reflect upon the profound promise God offers in this verse: "So do not fear, for I am with you; do not be dismayed, for I am your God. I will strengthen you and help you; I will uphold you with my righteous right hand." In moments of anxiety and fear, ponder how deeply you trust in this divine assurance. Are you able to surrender your worries to God's steadfast presence and support? Contemplate how this promise of strength and help can transform your approach to life's challenges, reinforcing your faith and reliance on God's unwavering love and protection.</t>
+    <t>Reflect on your fears and anxieties today. Allow God's comforting words to remind you that you are never alone. God's assurance is ever-present, offering you strength and support. Think about the areas of your life where you feel weak or afraid, and invite God into those spaces. Let His peace fill your heart as you entrust your worries to Him, knowing that His strong and steady hand is always guiding you.</t>
   </si>
   <si>
     <t>December 3, 2024</t>
@@ -1533,7 +1533,7 @@
     <t>Romans 12:14</t>
   </si>
   <si>
-    <t>Reflect upon the profound challenge presented in this verse: “Bless those who persecute you; bless and do not curse.” Consider how often you have encountered persecution or ill-treatment from others. How did you respond? Did you react with anger or resentment, or were you able to extend blessing and forgiveness? Allow this verse to inspire you to rise above the natural tendencies of reciprocal hostility and instead, embody the radical love and grace that Christ calls us to. Seek strength from God to wholeheartedly bless those who wrong you, transforming hostility into an opportunity for divine love and growth.</t>
+    <t>Reflect on the challenge of blessing those who persecute you. This goes against our natural instincts to retaliate or hold grudges. Consider the transformative power of kindness and forgiveness, even towards those who wrong you. Examine your heart: Are there any areas where you struggle to offer blessing instead of cursing? Ask God for the grace to extend His love and mercy, recognizing that doing so reflects His heart and brings healing to your soul and relationships.</t>
   </si>
   <si>
     <t>December 4, 2024</t>
@@ -1542,13 +1542,13 @@
     <t>Proverbs 18:2</t>
   </si>
   <si>
-    <t>Reflect, today, upon the depth of your understanding and communication. Proverbs 18:2 tells us, "A fool takes no pleasure in understanding, but only in expressing personal opinion." Consider how often you truly seek to understand others versus only seeking to be heard yourself. Ask God for the grace to listen with an open heart and a humble spirit, valuing true understanding over the desire to express your own thoughts. Let this reflection guide you toward more profound empathy and connection with those around you.</t>
+    <t>Reflect upon the ways in which you seek understanding and wisdom in your daily interactions. Do you find yourself speaking more than listening, eager to share your own opinions rather than understanding the perspectives of others? Ponder the value of truly hearing those around you, being open to learning, and gaining deeper insights. Remember, true wisdom often comes from a humble and open heart that listens more than it speaks. Seek to embody this in your life, cultivating a spirit of discernment and patience in all your conversations.</t>
   </si>
   <si>
     <t>December 5, 2024</t>
   </si>
   <si>
-    <t>Reflect today upon the phrase, "The Lord Almighty is with us; the God of Jacob is our fortress." Consider the profound assurance that comes from knowing that God is not only with us but is also our strong and unshakable fortress. In times of difficulty and uncertainty, are you able to rest in this truth? Ponder the ways in which God's presence and protection have manifested in your life and allow this verse to strengthen your faith and trust in Him.</t>
+    <t>Reflect today on the knowledge that God's presence is a constant and unwavering source of strength and protection. In times of turmoil, opposition, or personal struggle, find comfort in the fact that He stands steadfastly by your side. Meditate on the assurance that, regardless of the challenges you face, His presence ensures a refuge and an unwavering support. Let this encourage you to face each day with renewed faith, trusting in His encompassing love and guidance.</t>
   </si>
   <si>
     <t>December 6, 2024</t>
@@ -1557,7 +1557,7 @@
     <t>Proverbs 15:15</t>
   </si>
   <si>
-    <t>Reflect upon this proverb: "All the days of the afflicted are evil, but the cheerful of heart has a continual feast." Consider what it means to have a "cheerful heart." Do you allow daily struggles and hardships to dictate your outlook on life, or do you strive to maintain a joyful and grateful spirit? Ponder how adopting a heart filled with gratitude and cheerfulness can transform your perspective and bring about a sense of continual inner peace and contentment, much like a never-ending feast. Ask God to help you cultivate a heart that finds joy and thanksgiving in all circumstances.</t>
+    <t>Reflect upon the fact that a joyful heart brings light and gladness to one's life, even in the face of difficulties and challenges. Consider how your own perspective and attitude impact your daily experiences. Are you able to find joy and contentment, or do you allow negativity and hardship to overshadow your days? Seek to cultivate a heart of gratitude and joy, recognizing that inner peace and happiness are nurtured from within, regardless of external circumstances.</t>
   </si>
   <si>
     <t>December 7, 2024</t>
@@ -1566,7 +1566,7 @@
     <t>1 John 4:12</t>
   </si>
   <si>
-    <t>Reflect on the profound truth found in this verse: "No one has ever seen God; but if we love one another, God lives in us and his love is made complete in us." Consider the ways in which you've seen God's love manifested through the actions and kindness of others in your life. How can you contribute to making God's love visible through your own actions? Reflect on the transformative power of love and the calling to be a vessel of God's love to those around you. Let this reflection inspire you to actively seek opportunities to love others more deeply and authentically, knowing that in doing so, you reveal the presence of God to the world.</t>
+    <t>Reflect upon the transformative power of love in your life. Contemplate the ways in which you experience God's love through your interactions with others and how this love manifests within your own heart. Consider how your love for others reveals God's presence in the world and how through loving one another, we make God's love complete in us. Ask yourself how you can better embody this divine love in your daily actions and relationships, knowing that through genuine love, the unseen is made visible.</t>
   </si>
   <si>
     <t>December 8, 2024</t>
@@ -1575,13 +1575,13 @@
     <t>Psalm 37:30</t>
   </si>
   <si>
-    <t>Reflect upon the power of speech and the wisdom that it contains. "The mouths of the righteous utter wisdom, and their tongues speak what is just." Consider how your words align with the wisdom and justice that God calls us to embody. Examine your conversations and interactions. Are they marked by truth, compassion, and righteousness? Ponder how you can become a vessel of God’s wisdom in your daily life and let your words be a source of light and guidance for others.</t>
+    <t>Reflect today on the power of wise counsel and just speech. Consider the words you speak and the advice you offer to others. Are your words rooted in righteousness and wisdom? Contemplate the impact of your speech and strive to align your conversations with truth and integrity. Seek guidance from God to fill your heart with His wisdom, so your words may bring light and justice to all those you encounter.</t>
   </si>
   <si>
     <t>December 9, 2024</t>
   </si>
   <si>
-    <t>Reflect upon the profound nature of God's omnipotence and eternal presence, as articulated in Isaiah 40:28. Consider the depth of these words: "Do you not know? Have you not heard? The Lord is the everlasting God, the Creator of the ends of the earth. He will not grow tired or weary, and his understanding no one can fathom." Ponder the limitless strength and incomprehensible wisdom of God. Allow yourself to be comforted by the truth that God, our Creator, is ever-present and never grows weary of guiding and loving us. Reflect on how you can deepen your trust in God's eternal support and infinite understanding in your daily life.</t>
+    <t>Reflect, today, upon the mystery and majesty of God's infinite wisdom and power. Consider the times when you have felt weary or confused, and remember that God's understanding is beyond measure and His strength is inexhaustible. Entrust your worries and doubts to Him, knowing that He never grows tired or weary and is always ready to uplift and guide you. Embrace the awe and wonder of God's enduring presence in your life, and allow His boundless strength to renew your spirit and deepen your faith.</t>
   </si>
   <si>
     <t>December 10, 2024</t>
@@ -1590,13 +1590,13 @@
     <t>Isaiah 7:14</t>
   </si>
   <si>
-    <t>Reflect upon the profound prophecy given in Isaiah 7:14: "Therefore the Lord himself will give you a sign: The virgin will conceive and give birth to a son, and will call him Immanuel." This prophecy invites us to meditate on the mysterious and wondrous fulfillment of God’s promises. Consider the depths of God's faithfulness and love, who in His infinite wisdom chose to enter into our humanity through the miraculous birth of Jesus Christ. Contemplate the name "Immanuel," which means "God with us," and let this truth fill your heart with awe and reverence. How do you acknowledge the presence of God in your life today, and in what ways can you invite Him to be more intimately "with" you in your daily walk?</t>
+    <t>Reflect upon the profound mystery of God's promise and presence in our lives. Consider the ways in which God manifests Himself to us through unexpected and miraculous means. As you ponder this, ask yourself if you are truly open to recognizing God's presence in your daily experiences and whether you trust in His promises even when they seem beyond comprehension. Embrace the wonder and hope that comes from God's assurances and let it inspire a deeper faith and reliance on His divine plan.</t>
   </si>
   <si>
     <t>December 11, 2024</t>
   </si>
   <si>
-    <t>Reflect upon the words, "Commit your way to the Lord; trust in Him, and He will act." Today, consider the areas of your life where you find it difficult to fully surrender to God. What holds you back from placing your complete trust in Him? Take a moment to commit your worries, plans, and hopes to the Lord, and trust that He will act in His perfect timing and wisdom. Let this act of surrender bring you peace and renewed faith in God's providential care.</t>
+    <t>Reflect today upon the trust you place in God in your daily life. Consider the moments when you face uncertainty, worry, or fear. Are you able to surrender these moments into God's hands, fully entrusting Him with your path and future? Reflect on your ability to commit your plans, desires, and challenges to God, believing that He will act on your behalf. Pray for the grace to deepen this trust and commit your way to Him with a confident heart.</t>
   </si>
   <si>
     <t>December 12, 2024</t>
@@ -1605,13 +1605,13 @@
     <t>Proverbs 17:17</t>
   </si>
   <si>
-    <t>Reflect today upon the nature of true friendship as described in Proverbs 17:17, "A friend loves at all times, and a brother is born for a time of adversity." Consider whether you have friends and relationships that embody unwavering love and support through the trials and challenges of life. Furthermore, reflect on whether you offer this kind of steadfast friendship to others. In what ways can you be a source of constant love and a dependable support for those around you, especially in their times of need? Take this reflection to heart and seek to cultivate deeper, more loyal relationships grounded in the love of Christ.</t>
+    <t>Reflect on the nature of true friendship. A genuine friend stands by us not only during moments of joy and prosperity but also during times of hardship and distress. Consider whether you extend such unwavering support to those you call friends. Take a moment to thank God for the true friends in your life and ask for the grace to be a steadfast friend, offering love and loyalty regardless of the circumstances. Value and nurture these relationships, as they are a reflection of God's endless love and compassion for us.</t>
   </si>
   <si>
     <t>December 13, 2024</t>
   </si>
   <si>
-    <t>Reflect upon the promise found in this verse, which states, "But those who hope in the Lord will renew their strength. They will soar on wings like eagles; they will run and not grow weary, they will walk and not be faint." Consider your own life and the times when you have felt weary or overwhelmed. Do you place your hope fully in the Lord during these times? Allow this verse to remind you that when you lean on God and place your hope in Him, He promises to renew your strength. Ponder the image of soaring on wings like eagles, running without growing weary, and walking without fainting. Let it inspire you to trust in God's sustaining power and endless renewal.</t>
+    <t>Reflect upon the strength that comes from placing your trust in the Lord. Consider the times when you have felt weary and burdened, and how turning to God has lifted your spirits and renewed your strength. Picture yourself soaring on wings like eagles, running without growing weary, walking without fainting. Contemplate how this divine support enables you to overcome life's challenges with resilience and hope. Let this image inspire you to deepen your trust and reliance on God's steadfast support in all aspects of your life.</t>
   </si>
   <si>
     <t>December 14, 2024</t>
@@ -1620,7 +1620,7 @@
     <t>Romans 12:10</t>
   </si>
   <si>
-    <t>Reflect, today, on what it means to "be devoted to one another in love" and to "honor one another above yourselves." Consider the relationships in your life and how you can prioritize love and honor in your interactions. Are there areas where pride or selfishness has taken precedence? Pray for the grace to see others through the eyes of Christ and to genuinely uplift and serve those around you, placing their needs and dignity above your own. Strive to embody a love that is selfless and honoring, reflecting the love that Christ has for each of us.</t>
+    <t>Reflect upon the command to love one another with mutual affection and to outdo one another in showing honor. Consider how you can truly value and uplift those around you, especially in small, everyday interactions. Reflect on the ways in which you can honor others not just through grand gestures but through consistent acts of kindness and respect. Seek to deepen your relationships by making a conscious effort to uplift and support those whom God has placed in your life.</t>
   </si>
   <si>
     <t>December 15, 2024</t>
@@ -1629,13 +1629,13 @@
     <t>1 John 4:15</t>
   </si>
   <si>
-    <t>Reflect upon the profound simplicity and depth of this verse: "If anyone acknowledges that Jesus is the Son of God, God lives in them and they in God." Consider the implications of this mutual indwelling. How often do you openly acknowledge Christ in your daily life? Do you sense God's presence within you because of this acknowledgment? Let this truth permeate your heart, bringing comfort and strength, knowing that by affirming Jesus, you live in the very presence of God, and He lives in you.</t>
+    <t>Reflect today upon what it means to truly acknowledge that Jesus is the Son of God and to dwell in God's presence. Consider whether your acknowledgment is simply verbal or if it emanates from the depths of your heart, influencing every aspect of your life. Ponder how this truth can transform your actions, your values, and your relationships. Commit to deepening your faith so that your life becomes a living testimony of God's abiding presence within you.</t>
   </si>
   <si>
     <t>December 16, 2024</t>
   </si>
   <si>
-    <t>Reflect upon the truth that, "The LORD makes firm the steps of the one who delights in him." Consider how your daily life is guided by God's hand, steering you towards righteousness and peace. Are you truly allowing God to direct your steps, trusting in His timing and wisdom? Ponder how you can delight more in His presence, ensuring that every step you take aligns with His divine plan. Let this reflection inspire you to deepen your trust and joy in the path that God has laid out for you.</t>
+    <t>Reflect on the notion that each of your steps is guided by a divine plan. Consider how this changes your perspective on day-to-day actions and decisions. Do you trust in the path set before you, even when it seems unclear? Ponder the assurance that comes from knowing your steps are established by a higher power. Seek to walk in faith, and embrace the idea that each step, whether large or small, is part of a greater journey meant for your good.</t>
   </si>
   <si>
     <t>December 17, 2024</t>
@@ -1644,7 +1644,7 @@
     <t>Proverbs 15:16</t>
   </si>
   <si>
-    <t>Reflect upon this verse: “Better a little with the fear of the Lord than great wealth with turmoil.” True contentment stems from revering God rather than accumulating material wealth or earthly status. Examine your life to see where your priorities lie. Are you pursuing a deeper relationship with God, or are you caught up in the endless pursuit of material gain? Embrace simplicity and seek to cultivate a fear of the Lord, trusting that spiritual richness outweighs any earthly possession. Let this verse guide you towards finding peace and fulfillment in God's presence, regardless of your worldly circumstances.</t>
+    <t>Reflect upon the true value of simplicity and contentment in your life. Consider how much peace and fulfillment come from having a modest heart free from insatiable desires. Ponder the difference between seeking material wealth and seeking the richness of a humble spirit. Ask yourself what truly brings you joy and satisfaction. When your heart is set on simplicity and righteousness, you can find lasting peace that transcends any earthly treasure. Let this reflection guide you towards a life of genuine contentment and spiritual abundance.</t>
   </si>
   <si>
     <t>December 18, 2024</t>
@@ -1656,13 +1656,13 @@
     <t>James</t>
   </si>
   <si>
-    <t>Reflect today on the powerful message contained within this verse: "Do not merely listen to the word, and so deceive yourselves. Do what it says." Consider whether you are actively living out the teachings you hear and profess. Are you a hearer of the Word only, or do you also strive to put it into action in your daily life? Take this time to examine how you can better embody the principles of your faith through concrete actions, serving others and living with integrity. Let this reflection guide you to become not just a listener, but a true doer of God's Word.</t>
+    <t>Reflect upon the importance of integrating the teachings of faith into your daily actions. Are you merely a listener, or do you endeavor to live out the truths of the faith through your choices and behaviors? Consider areas in your life where you may need to better align your actions with your beliefs, and seek God's strength to transform your intentions into genuine deeds.</t>
   </si>
   <si>
     <t>December 19, 2024</t>
   </si>
   <si>
-    <t>Reflect upon the invitation given in Psalm 55:22, "Cast your burden on the Lord, and He will sustain you; He will never permit the righteous to be moved." Consider the burdens you carry daily—whether they are worries, fears, or responsibilities. Are you trying to manage them alone, or are you seeking the Lord’s help and comfort? Take time today to genuinely place your burdens into God’s hands, trusting that He will sustain you and provide the strength needed to stand firm.</t>
+    <t>Reflect, today, on the immense weight you may be carrying in your heart and mind. Consider the burdens that you hold and the emotional or spiritual toll they take on you. Now, imagine releasing these burdens completely, entrusting them to God's providence. Contemplate the relief and peace that come from placing your full trust in His sustaining power. Seek to grow in this abandonment to divine care, allowing God to be the stronghold and support you need in every moment.</t>
   </si>
   <si>
     <t>December 20, 2024</t>
@@ -1674,7 +1674,7 @@
     <t>Deuteronomy</t>
   </si>
   <si>
-    <t>Reflect upon the profound promise found in this verse: "But if from there you seek the Lord your God, you will find Him if you seek Him with all your heart and with all your soul." Consider what it means to truly seek the Lord with all your heart and soul. Are there areas in your life where you hold back or seek fulfillment elsewhere? Invite God into those spaces, trusting that His promise is true. As you seek Him wholeheartedly, allow your faith to be deepened and your relationship with Him strengthened.</t>
+    <t>Reflect upon the earnest and wholehearted effort required to seek the Lord. Consider if there are parts of your life where you are hesitant or half-hearted in your pursuit of God. The promise of finding Him comes with the condition of seeking Him with all your heart and soul. Contemplate what it means to be fully committed in your spiritual journey, and ask yourself what steps you can take to deepen your devotion and trust in His presence.</t>
   </si>
   <si>
     <t>December 21, 2024</t>
@@ -1686,7 +1686,7 @@
     <t>105</t>
   </si>
   <si>
-    <t>Reflect, today, upon the many blessings and wonders that God has bestowed upon you. Psalm 105:1 encourages us to "Give praise to the Lord, proclaim his name; make known among the nations what he has done." Take time to recall specific instances of God’s faithfulness and how His hand has guided you. Let this lead you to a heart filled with gratitude, and make it your mission to share His glorious works with others. Through your witness, may many come to know the goodness and greatness of our Lord.</t>
+    <t>Reflect on the importance of gratitude in your life. Consider the numerous blessings and acts of kindness you have received, both big and small. How often do you take the time to acknowledge and give thanks for these gifts? Cultivating a heart of gratitude not only uplifts your spirit but also helps you to see the hand of God in every circumstance. Let today be a day where you intentionally recount your blessings and express your thankfulness to God and to those around you. Gratitude can transform your perspective and bring you closer to truly experiencing the fullness of God's love.</t>
   </si>
   <si>
     <t>December 22, 2024</t>
@@ -1695,13 +1695,13 @@
     <t>Proverbs 18:10</t>
   </si>
   <si>
-    <t>Reflect on the name of the Lord as a "strong tower," where the righteous run to it and are safe. Consider what it means to find refuge in God's name. Do you seek solace and strength in Him amidst your life's trials and tribulations? Ponder how you can make the presence of God your place of safety and how you can lead others to find this refuge as well. Embrace the security and protection offered through faith, and allow it to build your confidence and trust in God's unwavering support.</t>
+    <t>Reflect upon the strength and refuge that comes from knowing we have a powerful protector who is always available to us. Consider how often you seek solace and security in worldly things that can easily falter. Reflect on the unwavering support you can find when you turn to God as your strong tower. Examine your life to see if you truly rely on this divine protection in times of trouble and seek to deepen your trust in God’s unending strength.</t>
   </si>
   <si>
     <t>December 23, 2024</t>
   </si>
   <si>
-    <t>Reflect upon the words, "Be still before the Lord and wait patiently for him." Contemplate the importance of practicing patience and stillness in our fast-paced world. Are there moments in your life where anxiety and impatience override your peace? Consider these moments and bring them to the Lord in prayer, asking for the grace to develop a heart that is calm and steadfast, trusting that His timing is perfect. Take solace in knowing that God's plans for you are unfolding perfectly, even if it requires a season of waiting.</t>
+    <t>Reflect upon the importance of patience and trust in your life. Consider the moments when you have felt the need to hurry or the urge to take control because situations seemed out of hand. Entrust these feelings to God and allow yourself to rest in His divine timing. Recognize that His plans for you surpass any understanding you may possess. Embrace the stillness and serenity that comes with trusting in His wisdom, and find peace knowing that He is at work, even when you cannot see it.</t>
   </si>
   <si>
     <t>December 24, 2024</t>
@@ -1713,13 +1713,13 @@
     <t>Luke</t>
   </si>
   <si>
-    <t>Reflect, today, upon the profound message of joy and salvation that the angels proclaimed to the shepherds: "For unto you is born this day in the city of David a Saviour, which is Christ the Lord." Consider how this announcement is meant personally for you, recognizing that Jesus' birth is not just a historical event, but an invitation to welcome Him into your heart. Reflect on the ways in which you can embrace and live out the joy and hope that comes from knowing Christ as your Savior. Allow this divine message to stir within you a deeper sense of gratitude and a renewed commitment to share this Good News with others.</t>
+    <t>Reflect upon the profound gift of the birth of our Savior. Today, consider the magnitude of this divine arrival and what it means for our lives. Contemplate the kindness and love expressed through this miraculous event and let it fill your heart with gratitude. Think about how you can bring forth this light into the world, sharing the joy and peace that comes with knowing the Savior is born.</t>
   </si>
   <si>
     <t>December 25, 2024</t>
   </si>
   <si>
-    <t>Reflect today on the profound meaning of Isaiah 9:6, which speaks of the birth of a child who will be called "Wonderful Counselor, Mighty God, Everlasting Father, Prince of Peace." Consider how each title reveals a different facet of the Messiah's character. Ask yourself: Do I seek God's counsel in my decisions and challenges? Do I recognize His mighty power at work in my life? Do I feel His everlasting presence as a loving Father? And do I truly embrace the peace He offers? Let each name given to Jesus deepen your understanding and relationship with Him, guiding you to live more fully in His divine presence and abundant grace.</t>
+    <t>Reflect upon the profound titles given to the prophesized Messiah: Wonderful Counselor, Mighty God, Everlasting Father, Prince of Peace. As you meditate on each title, consider how Christ embodies these roles in your life. Do you seek His counsel in times of confusion? Do you lean on His might in times of weakness? Do you trust in His eternal love as a father? Do you embrace His peace amidst chaos? Allow these reflections to deepen your relationship with Jesus and to seek His presence in every aspect of your life.</t>
   </si>
   <si>
     <t>December 26, 2024</t>
@@ -1728,7 +1728,7 @@
     <t>Jeremiah 2:13</t>
   </si>
   <si>
-    <t>Reflect upon this verse from the perspective of your relationship with God. “My people have committed two sins: They have forsaken me, the spring of living water, and have dug their own cisterns, broken cisterns that cannot hold water.” Consider how often we turn away from the true source of life and seek fulfillment in things that ultimately fail to sustain us. Reflect on the areas of your life where you may have abandoned God’s living water for empty pursuits. Ask God for the grace to leave behind these broken cisterns and return to Him, the true and abundant source of life and grace.</t>
+    <t>Reflect upon the ways in which you might seek fulfillment or satisfaction apart from God. Are there "broken cisterns" in your life, sources that give promise but ultimately fail to provide the living water your soul deeply craves? Contemplate how you might return to the true Source of life and align your heart and actions to seek Him unwaveringly. Allow this reflection to lead you into a deeper commitment to drink from the wellspring of God's love and grace.</t>
   </si>
   <si>
     <t>December 27, 2024</t>
@@ -1737,31 +1737,31 @@
     <t>Matthew 2:2</t>
   </si>
   <si>
-    <t>Reflect upon the journey of the Magi who traveled from the East, guided by the star, to seek and honor the newborn King, Jesus. Consider the dedication and faith it took for them to leave their homeland and follow the signs given to them by God. Ask yourself, am I attentive to the signs God places in my life to guide me? Am I willing to journey out of my comfort zone in pursuit of Jesus? Reflect on how you can seek Him more ardently and honor Him more fully in your own life.</t>
+    <t>Reflect upon the profound journey of the Magi, who followed the star with unwavering faith and conviction, seeking the newborn King. Consider your own life's journey and the guiding lights you follow. Are they leading you towards truth and deeper faith? Reflect on the humility and dedication of the Magi, and ask yourself if you possess the same openness to seek and worship God in your daily life. Seek to cultivate a heart that is always searching for the divine, even in the ordinary moments.</t>
   </si>
   <si>
     <t>December 28, 2024</t>
   </si>
   <si>
-    <t>Reflect upon the profound truth that while we may plan our paths and make numerous decisions daily, it is ultimately the Lord who establishes our steps. This verse invites us to surrender our plans and desires to God's divine wisdom, trusting that He will guide us in fulfilling His holy will. Consider how you might more fully entrust your life's direction to God, especially in times of uncertainty or when your plans do not unfold as expected. Embrace a heart of prayer, seeking His guidance, and be open to His holy detours, knowing that His plans are always for your ultimate good.</t>
+    <t>Reflect upon the way you plan and chart your course each day. Consider how often you genuinely seek God's guidance and remain open to His divine direction, even if it leads you away from your own plans. Ponder whether you trust that His path is ultimately for your greater good, even when it seems uncertain or challenging. Embrace the humility to let go and allow God to guide your steps, confident that His wisdom surpasses all understanding.</t>
   </si>
   <si>
     <t>December 29, 2024</t>
   </si>
   <si>
-    <t>Reflect upon the gracious invitation offered in this verse: "Taste and see that the Lord is good; blessed is the one who takes refuge in him." Consider the moments when you have truly "tasted" the goodness of the Lord—perhaps in times of gratitude, unexpected blessings, or deep comfort during hardship. Invite yourself to more frequently recognize and savor these moments. Reflect on how taking refuge in the Lord brings a profound sense of peace and blessedness, and remind yourself to seek this refuge in times of both joy and sorrow. How can you make it a practice to continually approach the Lord and experience His goodness in your daily life?</t>
+    <t>Taste and see the goodness of the Lord. Reflect upon the moments in your life when you have truly felt the presence and blessings of God. These moments are reminders of His constant love and care for you. Ask yourself if you actively seek out these experiences and allow them to deepen your faith. Let gratitude fill your heart, and let this awareness of His goodness draw you closer to Him every day. Encourage yourself to trust in His providence and to find solace in His unending grace and love.</t>
   </si>
   <si>
     <t>December 30, 2024</t>
   </si>
   <si>
-    <t>Reflect today upon the simplicity and depth of the command, "Let all that you do be done in love." Ponder each aspect of your life and ask yourself if every action, thought, and word is rooted in genuine love. Consider those moments when love may not come naturally, and invite God's grace to transform your heart. Let this command be the guiding principle of your interactions, decisions, and daily pursuits, striving to live out love in the most authentic and Christ-like manner.</t>
+    <t>Reflect upon the importance of love in every action we take. Contemplate how genuine love can manifest through our daily interactions, decisions, and activities. Consider how we can ensure our motivations are rooted in love, and think about the positive impact we can make when love is the driving force behind all we do. Let love be the guiding principle that shapes every moment and relationship in your life.</t>
   </si>
   <si>
     <t>December 31, 2024</t>
   </si>
   <si>
-    <t>Reflect upon the profound truth that "in all things God works for the good of those who love Him, who have been called according to His purpose." Consider the moments in your life when things seemed bleak or confusing, yet in hindsight, you can see how God was weaving a greater plan. How does this realization affect your trust in God during current hardships or uncertainties? Let this verse reassure you that no matter the circumstances, God's loving and divine plan is always at work, turning even the most challenging situations into opportunities for growth and deeper relationship with Him.</t>
+    <t>Reflect on the profound truth that, in all circumstances, God is at work for our good. Consider the moments in your life where challenges seemed insurmountable, but in hindsight, you can see how they led to personal growth, deeper faith, or unexpected blessings. Trust that even in your current struggles, God is weaving a tapestry of grace, turning every thread, even the difficult ones, into part of a beautiful and purposeful design. Embrace a spirit of gratitude and trust, knowing that God's loving hand is upon every aspect of your journey, guiding and shaping you according to His perfect will.</t>
   </si>
   <si>
     <t>January 1, 2025</t>
@@ -1773,13 +1773,13 @@
     <t>Revelation</t>
   </si>
   <si>
-    <t>Reflect upon the powerful words, “Behold, I am making all things new.” Consider the areas of your life that feel weary, broken, or stagnant. This divine promise is a reminder that God continually works to bring renewal and restoration. Ponder whether you are open to the new beginnings God wishes to unfold in your life. Release the past to His mercy and embrace the hopeful future He offers. Allow this promise to stir a deep sense of renewal and transformation within your heart.</t>
+    <t>Reflect today upon the way God is always at work making all things new in your life. Consider those areas where you feel stagnant or in despair, and acknowledge that God has the power to transform and restore every aspect of your existence. Entrust your struggles, pains, and disappointments to Him, believing that He can and will renew them, bringing forth new life and hope from even the most desolate places. How can you invite this divine renewal into your heart and daily living?</t>
   </si>
   <si>
     <t>January 2, 2025</t>
   </si>
   <si>
-    <t>Reflect today upon the powerful declaration, "The Lord is my shepherd; I shall not want." Consider the depth of this statement. It is an affirmation of God's providence, guidance, and care in every aspect of your life. Ask yourself if you truly trust in God's provision and guidance as a shepherd cares for his sheep. Where in your life do you experience lack or anxiety? Bring these areas into the light of this psalm, inviting God to shepherd you through them. Trust that with the Lord as your shepherd, all your needs will be met, and you will find peace and rest in His presence.</t>
+    <t>Reflect on the profound sense of peace and security that comes from acknowledging the guidance and provision of the Divine in your life. Consider the ways in which you lean on this divine care and how it sustains you through both the joyful and challenging moments. Take a moment to feel the comfort that arises from trusting completely in the One who looks after all your needs. Allow this trust to deepen, fostering a sense of contentment and fearlessness in your heart each day.</t>
   </si>
   <si>
     <t>January 3, 2025</t>
@@ -1791,7 +1791,7 @@
     <t>33</t>
   </si>
   <si>
-    <t>Reflect upon the words, "Sing to him a new song; play skillfully, and shout for joy." Contemplate how you can incorporate a 'new song' into your life, in your acts of worship and daily routines. Consider the meaning of playing skillfully – how can you utilize the talents and gifts God has given you to their fullest potential? And, importantly, reflect on the joy God invites you to express. Seek ways to shout for joy in your life, acknowledging and celebrating God's presence and blessings.</t>
+    <t>Reflect upon the joy and creativity that comes from worshipping God with a fresh and enthusiastic spirit. Consider how you can bring a renewed sense of passion and originality into your daily acts of devotion and praise. Think about the ways in which you can express your gratitude and love for God, not just through traditional means, but also through new and heartfelt expressions. Seek to make your worship a living, dynamic experience that continually grows and evolves, just as your relationship with God deepens and flourishes.</t>
   </si>
   <si>
     <t>January 4, 2025</t>
@@ -1803,31 +1803,31 @@
     <t>Ezekiel</t>
   </si>
   <si>
-    <t>Reflect, today, upon the profound promise made in this scripture: "And I will give them one heart, and a new spirit I will put within them. I will remove the heart of stone from their flesh and give them a heart of flesh." Consider the areas of your life where you may have become hardened or resistant to God's love and grace. Ask God to transform your heart, to replace any hardness with a heart that is open, compassionate, and responsive to His divine will. Embrace the new spirit He offers, allowing it to guide you into deeper relationships with Him and with others.</t>
+    <t>Reflect upon the transformative promise of a new heart and a new spirit within you. Consider the areas of your life that have become hardened or calloused, and envision God's life-giving touch softening these places, replacing stubbornness with receptivity. How are you inviting God to transform your heart today, allowing His Spirit to guide your actions and thoughts? Ponder this renewal and seek to embrace it fully, trusting in God's promise to mold you into a vessel of His love and grace.</t>
   </si>
   <si>
     <t>January 5, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the depth and promise of these words: "And we know that in all things God works for the good of those who love Him, who have been called according to His purpose." In times of trial and suffering, it can be hard to see how circumstances can lead to greater good. But this passage reassures us that God’s providence is ever at work, weaving our sorrows and joys into a beautiful tapestry of His design. Reflect on your own life and the challenges you face. Do you trust that God is guiding you, even when the path is difficult? Ask for the grace to deepen your trust in His divine plan and to see His goodness in all things, knowing that everything in your life has a purpose according to His will.</t>
+    <t>Reflect upon the assurance that comes from trusting in God's divine plan. Contemplate how every experience, whether joyous or challenging, is woven into a greater purpose for our ultimate good. Ponder moments of perceived setbacks or hardships in your life and question how God might be using these to shape you, teach you, and bring about growth. Embrace the peace that comes from believing that God is always working for your benefit, and renew your trust in His wisdom and timing.</t>
   </si>
   <si>
     <t>January 6, 2025</t>
   </si>
   <si>
-    <t>Reflect, today, upon the power and strength that comes from a deep and abiding relationship with Christ. "I can do all things through Christ who strengthens me." Consider the challenges and obstacles in your life, and recognize that your own strength alone may fall short. Allow this verse to remind you that through faith, prayer, and reliance on Christ, you have access to a strength that surpasses all understanding. Trust in Him and allow His strength to carry you through every hardship and triumph you face.</t>
+    <t>Reflect upon the strength and resilience that comes from having faith. Consider moments in your life when you felt overwhelmed and uncertain, and how turning to your faith provided the fortitude you needed. Contemplate how this divine empowerment is available to you continuously, not just in times of dire need. Ask yourself how you can more consistently embody this strength in your daily life, knowing that it is not solely your strength but one that is granted through grace. Seek to embrace this power in every aspect of your being, allowing it to guide you through all challenges and inspire you to reach beyond your perceived limitations.</t>
   </si>
   <si>
     <t>January 7, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the words, "The Lord is my shepherd, I shall not want." Consider what it means to have the Lord as your shepherd, guiding and providing for you every step of the way. Contemplate the areas of your life where you may feel lack or need, and trust in God's abundant provision and care. Allow this verse to remind you that, with God as your shepherd, you will find true contentment and peace. How can you deepen your trust in God's guidance today?</t>
+    <t>Reflect today on the profound peace and assurance that comes from knowing you are constantly under divine guidance and care. Consider the areas in your life where you may feel uncertain or anxious, and remind yourself that with God as your guide, you lack nothing essential. Embrace the comfort and security that this brings, allowing it to permeate your actions and decisions throughout the day.</t>
   </si>
   <si>
     <t>January 8, 2025</t>
   </si>
   <si>
-    <t>Reflect upon this profound promise from the Lord: "For I know the plans I have for you," declares the Lord, "plans to prosper you and not to harm you, plans to give you hope and a future." In challenging and uncertain times, consider this message of divine assurance and hope. Ask yourself if you truly trust in God's plan for your life, even when you cannot see the path ahead. Reflect on how you can surrender your worries and fears to God, embracing His promise to guide and care for you. Take comfort in the knowledge that God's plans are always rooted in love and intended for your ultimate good.</t>
+    <t>Reflect upon the profound promise of hope and future that God has for each one of us. Consider the context of your current life challenges and uncertainties, and then consciously place your trust in the divine plan that surpasses all human understanding. Contemplate the ways in which you can align yourself more fully with God's vision and plans, allowing His assurance to transform your fears into faith and your worries into peaceful anticipation of His guiding hand.</t>
   </si>
   <si>
     <t>January 9, 2025</t>
@@ -1839,122 +1839,121 @@
     <t>2 Corinthians</t>
   </si>
   <si>
-    <t>Reflect, today, upon the transformative power of being in Christ. As St. Paul writes, "Therefore, if anyone is in Christ, he is a new creation. The old has passed away; behold, the new has come." Consider how your life has been renewed and changed by your faith. What old habits, thoughts, or ways of living have you left behind? How are you embracing the new life that God has given you? Ponder the immense grace of God in making you a new creation, and ask for His guidance to fully live out this transformation each day.</t>
+    <t>Reflect upon the transformative power of a life in Christ. Consider how the grace of God enables us to leave our past behind and embrace a new identity filled with hope and purpose. Reflect on the areas of your life where you have experienced this renewal and also where you still need God's transformative touch. Embrace the opportunity each new day offers to live into the new creation you have become, leaving behind any remnants of the old self.</t>
   </si>
   <si>
     <t>January 10, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the profound invitation offered to us in 1 Peter 5:7, "Cast all your anxiety on him because he cares for you." Ponder the depth of God’s immense compassion and care for you. Consider the weight of the anxieties and burdens you carry daily. Are you truly entrusting them to God, or are you attempting to bear them alone? In your quiet moments, lay every fear, worry, and concern at His feet, confident in His loving care. Let this assurance of God's unwavering love and attention guide you to a place of peace and trust.</t>
+    <t>Reflect upon the burdens and anxieties that you carry in your heart. Are there worries, fears, and stresses weighing you down? Take a moment to offer each of these concerns to God in prayer. Trust in His deep love and care for you, believing that He is capable of handling every burden you entrust to Him. Let go of your need to control and allow God's peace to fill your heart, knowing that He watches over you with infinite compassion and tenderness.</t>
   </si>
   <si>
     <t>January 11, 2025</t>
   </si>
   <si>
-    <t>Reflect, today, upon the profound truth contained within the words, "Your word is a lamp to my feet and a light to my path." Consider how deeply you rely on God's word to guide you through the shadows and uncertainties of life. Ponder the extent to which you allow Scripture to illuminate your decisions, actions, and attitudes. In moments of doubt or confusion, seek the clarity and direction that come from immersing yourself in God's word. Let His divine wisdom be the light that steers you along the right path, leading you closer to His love and truth.</t>
+    <t>Reflect on the idea that guidance from divine wisdom illuminates our path and provides clear direction in moments of uncertainty. Consider moments in your life where you felt lost or unsure and how spiritual insight or an inner sense of divine presence helped steer you. Contemplate how you can remain open to this guidance daily, allowing it to shine brightly in all your decisions and actions. Seek to trust in this source of light, knowing that even in your darkest hours, there is guidance available to you if you are willing to seek it and follow.</t>
   </si>
   <si>
     <t>January 12, 2025</t>
   </si>
   <si>
-    <t>Reflect, today, upon the meaning of Proverbs 16:3: "Commit to the Lord whatever you do, and he will establish your plans." Consider how often you truly surrender your actions and intentions to the Lord. Do you begin your day by placing your endeavors in His hands? Take time to reflect on how you can more fully entrust your plans, big and small, to God, seeking His guidance and blessings. Let this verse remind you of the peace that comes from knowing that as you commit your ways to Him, He remains faithful to establish and guide your path.</t>
+    <t>Reflect today upon the intentions behind your actions and plans. Are you seeking to align them with God's will, or are you driven by personal desires? Consider dedicating your work and decisions to God, trusting that He will guide you and establish your steps. As you do so, find peace in knowing that your efforts, when harmonized with divine purpose, hold deeper meaning and lasting impact.</t>
   </si>
   <si>
     <t>January 13, 2025</t>
   </si>
   <si>
-    <t>Reflect today on the profound statement made by Jesus when He said, "I am the way and the truth and the life." Consider what it means for Jesus to be the way—your path to God, leading you in every step you take. Reflect on Jesus as the truth—the ultimate revelation of God's essence, shedding light on all that is noble and good. Ponder Jesus as the life—offering eternal life and daily sustenance for your spirit. Allow this verse to challenge you to align every aspect of your life with Jesus, seeking Him as your guide, your wisdom, and your sustenance in all things.</t>
+    <t>Reflect upon the profound truth that Christ is our way, our truth, and our life. Contemplate the deep meaning of each of these titles. Reflect on Jesus as "the way" and consider how He guides every step of our journey. Reflect on Jesus as "the truth" and how His teachings illuminate our lives. Finally, reflect on Jesus as "the life" and how He brings an abundance of grace and eternal life to those who follow Him. Ponder how these aspects of Jesus' identity impact your daily decisions, your understanding of reality, and your ultimate purpose. Seek to align your life more closely with Him as your path, your foundation, and your source of eternal joy.</t>
   </si>
   <si>
     <t>January 14, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the words of Romans 12:2: "Do not conform to the pattern of this world, but be transformed by the renewing of your mind. Then you will be able to test and approve what God's will is—his good, pleasing and perfect will." As you ponder this verse, consider where your thoughts and actions may be conforming to worldly patterns rather than God's divine wisdom. Reflect on how you can renew your mind through the daily practice of prayer, reading scripture, and seeking the guidance of the Holy Spirit. Challenge yourself to embrace this transformation, allowing God's will to guide your life in every aspect.</t>
+    <t>Reflect on the transformative power of renewing your mind. Consider the ways in which you conform to the patterns of this world and how they may be hindering your spiritual growth. Today, focus on how you can align your thoughts, values, and actions more closely with God's will. Identify specific areas in your life where you need renewal and commit to adopting a mindset that seeks and discerns what is pleasing and perfect in the eyes of God. Let this be a daily journey of inner transformation that leads to a more profound connection with His divine purpose for your life.</t>
   </si>
   <si>
     <t>January 15, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the profound promise within Jeremiah 29:11: "For I know the plans I have for you," declares the Lord, "plans to prosper you and not to harm you, plans to give you hope and a future." Consider how this divine assurance can transform your perspective on life's uncertainties. Reflect on the times you have faced challenges and doubts, and remember that God's intentions are always for your ultimate good. Trust in His divine providence, and allow hope to guide your path forward, knowing that you are held within the loving and purposeful design of the Almighty.</t>
+    <t>Reflect, today, upon the future plans that God has for you. Contemplate the hope and the goodness in God's promises for your life. Even amidst trials, trust that His divine purpose will unfold in its perfect time. Embrace the peace that comes from knowing you are in the midst of His plan, and let this confidence drive you forward with courage and faith.</t>
   </si>
   <si>
     <t>January 16, 2025</t>
   </si>
   <si>
-    <t>Reflect on the invitation to "Taste and see that the LORD is good." This verse calls you to experience and perceive God's goodness actively. Ask yourself how you have encountered God's goodness in your life and how often you share that experience with others. Consider how opening yourself up to the rich, diverse ways God manifests His love and blessings could deepen your faith and understanding. Take time today to be attentive to the myriad ways God’s goodness is present in your life and commit to nurturing that awareness every day.</t>
+    <t>Reflect on the divine invitation to "taste and see the goodness of the Lord." Imagine the richness and depth of God’s love as something to be experienced, not just understood intellectually. Consider the various ways in which you encounter God’s goodness in your daily life – through acts of kindness, moments of peace, and experiences of joy. How often do you pause to truly savor these moments and recognize them as manifestations of God's presence? Allow yourself to be open to these experiences, and let them deepen your faith and trust in the Lord’s providence.</t>
   </si>
   <si>
     <t>January 17, 2025</t>
   </si>
   <si>
-    <t>Reflect on this simple yet profound command: "Do everything in love." Take a moment to examine all aspects of your life—your thoughts, actions, and interactions with others. Ask yourself whether love is the driving force behind them. Consider the ways you might better embody love in every situation you encounter. Let this guidance transform your daily routines and relationships, allowing God's love to permeate through you and touch those around you. "Do everything in love" becomes not just a command, but a way of life, leading you closer to God's perfect will.</t>
+    <t>Reflect upon the call to let all that you do be done in love. Consider how often your actions, words, and thoughts are grounded in true, selfless love. Contemplate the times when you might have acted without love, and ask God for the grace to infuse every aspect of your life with His divine love. Let today be a moment to recommit yourself to living a life that reflects God's infinite love in even the smallest gestures. Seek ways to make love the foundation of everything you do.</t>
   </si>
   <si>
     <t>January 18, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the deep meaning of Psalm 37:4: "Take delight in the Lord, and He will give you the desires of your heart." Contemplate what it truly means to take delight in the Lord. Is it merely about outward expressions of joy, or does it go deeper into a profound and intimate relationship with God? Examine your own life — are you finding your true joy and satisfaction in the presence of the Lord, or are you seeking fulfillment in worldly pursuits? As you reflect on this, consider how aligning your desires with God's will can transform your heart, leading to a life of deeper purpose and divine contentment.</t>
+    <t>Reflect upon the desire of your heart and the alignment of that desire with God's will. Consider whether the pursuits and aspirations you hold dear are rooted in a deep trust and surrender to God's divine plan. Seek to delight in the Lord genuinely, placing your joy and fulfillment in His presence and His promises. As you do, trust that He will guide your heart towards what is truly best for you, granting you the deepest desires that are in harmony with His love and purpose for your life.</t>
   </si>
   <si>
     <t>January 19, 2025</t>
   </si>
   <si>
-    <t>Reflect on the powerful words of Joshua 1:9, where God commands, "Have I not commanded you? Be strong and courageous. Do not be afraid; do not be discouraged, for the Lord your God will be with you wherever you go." Ponder how often life's challenges discourage you and cause fear. In these moments, remember this divine assurance of God's unwavering presence. Reflect upon how embracing this promise could transform your approach to obstacles and difficulties, filling you with strength and courage rooted in the certainty of God's companionship. Ask yourself, are you truly letting this promise guide your every step?</t>
+    <t>Reflect on the courage and strength that God instills within us. Consider times in your life when you felt overwhelmed or uncertain, but found the inner fortitude to push forward. Trust in the divine presence that accompanies you always, providing both support and guidance. Embrace the call to bravery and resilience in all circumstances, knowing that you are never truly alone.</t>
   </si>
   <si>
     <t>January 20, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the words of Romans 15:13, which states, "May the God of hope fill you with all joy and peace as you trust in him, so that you may overflow with hope by the power of the Holy Spirit." As you ponder this verse, consider how much trust you place in God in your daily life. Are you allowing His joy and peace to fill your heart completely? Examine whether the hope you have is evident to those around you. Allow the Holy Spirit to work within you so that your life becomes a beacon of hope, shining brightly for others to see.</t>
+    <t>Reflect on where you find your hope and peace. Do you place these in the temporary and uncertain aspects of life, or do you anchor them in the everlasting promise of God? Consider the joy that God offers and how it transcends all understanding. Ask yourself, how can I open my heart and mind more fully to this joy, allowing it to overflow and touch the lives of those around me? Seek to live in such a way that the hope and peace that come from faith in God are clearly evident in your life, becoming a beacon of light for others who may be struggling to find their way.</t>
   </si>
   <si>
     <t>January 21, 2025</t>
   </si>
   <si>
-    <t>“This is the day that the Lord has made; let us rejoice and be glad in it.”
-Reflect, today, upon the gift of each new day that you receive from the Lord. Consider how easy it can be to take each day for granted and to fall into routines and habits that overlook the blessings present in every moment. Challenge yourself to view today with fresh eyes and an open heart, seeking to find joy and gratitude in the ordinary and the extraordinary alike. Rejoice in the small miracles, the gentle whispers of God’s presence, and the opportunities to share love and kindness with those around you. Let your rejoicing be a testament to your faith and a reflection of your deep appreciation for the life God has given you.</t>
+    <t>Reflect upon the gift of each day given to us by the Lord. Each morning presents a new opportunity to embrace His grace, love, and joy. Consider how you can approach today with a heart full of gratitude, recognizing it as a precious gift. Rejoice in the moments God grants you, and seek to live them out with purpose and faith. How can you bring this sense of rejoicing and gladness into all the moments, both good and challenging, that today holds? Let your heart be filled with divine joy, knowing that God is with you each step of the way.</t>
   </si>
   <si>
     <t>January 22, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the essence of this proverb: "Many are the plans in a person’s heart, but it is the Lord’s purpose that prevails." Consider how often you make plans and set goals based on your own desires and understanding. Reflect on moments when your plans did not unfold as expected, and recognize that God's purpose transcends human intentions. Take time to surrender your own plans to God, seeking His guidance and wisdom. Trust that His purpose for your life will ultimately bring about the greatest good, even if it deviates from your own expectations.</t>
+    <t>Reflect upon the many plans you make in your life. Sometimes, you may find that despite your best efforts and intentions, things take a different course. This passage invites you to consider the ultimate influence and direction of God's will in your life. How often do you seek God's guidance and surrender your plans to His greater wisdom? Reflect on the trust and faith required to let go of your own plans and embrace the direction God has laid out for you. Seek His guidance in every decision and find peace in knowing that His plan is perfect and meant for your good.</t>
   </si>
   <si>
     <t>January 23, 2025</t>
   </si>
   <si>
-    <t>Reflect, today, upon the gentle invitation extended to you by our Lord: "Come to me, all you who are weary and burdened, and I will give you rest." Consider the areas in your life where you carry heavy burdens and allow the words of Jesus to penetrate your heart. Are you truly surrendering your struggles and anxieties to Him, trusting in His promise of rest? Take this time to entrust your burdens to the Lord and embrace the peace and comfort that He offers to those who come to Him with faith and trust.</t>
+    <t>Reflect upon the gentle invitation of Jesus to come to Him when you are burdened and weary. Consider those times in your life when you have felt overwhelmed and how turning to Jesus has brought you peace and rest. Ponder the depth of this promise and ask yourself if you truly seek out Jesus in your moments of need. Allow His comforting words to penetrate your heart and guide you towards finding solace and rejuvenation in His presence.</t>
   </si>
   <si>
     <t>January 24, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the profound simplicity and depth of this verse: "We love because he first loved us." Consider the incredible truth that every act of genuine love we experience and express originates from God's initial and unending love for us. Reflect today on how God's love has transformed and continues to transform your life. How can you better embrace and share this love with others? Allow yourself to be a conduit of this divine love, acknowledging that without His first loving us, our capacity to love would be incomplete. Let this awareness guide your interactions, decisions, and relationships.</t>
+    <t>Reflect on the profound truth that our capacity to love comes from God's initiative. He loved us first, reaching out to us in our brokenness and drawing us into His divine embrace. Consider how this love permeates our daily interactions and beckons us to respond with a heart open to others. Evaluate how you can become a conduit of this divine love, allowing it to heal, nurture, and uplift those around you. Through gratitude and humility, let your life be a testament to the love that began with God and continues through you.</t>
   </si>
   <si>
     <t>January 25, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the powerful declaration that "The Lord is my light and my salvation; whom shall I fear? The Lord is the stronghold of my life; of whom shall I be afraid?" Consider the moments in your life when fear has overshadowed your hope and courage. Ponder on this verse and realize that with the Lord as your guiding light and salvation, there truly is no one and nothing to fear. Allow this truth to penetrate your heart, dispelling darkness and anxiety, and renewing your trust and confidence in God's unwavering protection and strength.</t>
+    <t>Reflect today on the profound reassurance that comes from seeking God's presence in times of fear and uncertainty. Consider what it means to have God as your source of light and salvation, and how this awareness can transform your perspective in challenging times. When faced with fear, ask yourself if you truly lean into your faith and trust in God's protection and guidance. Use this reflection to deepen your reliance on His strength and to find solace in His unwavering support. Allow His light to dispel the darkness in your life.</t>
   </si>
   <si>
     <t>January 26, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the words from Philippians 4:6: "Do not be anxious about anything, but in every situation, by prayer and petition, with thanksgiving, present your requests to God." Take a moment to consider the anxieties you carry in your heart. Are you allowing them to overwhelm you? Reflect on how you can transform your worries into prayers and present them to God with a heart full of gratitude. Let this act of surrender become a source of peace and comfort, trusting that God hears you and will provide what you need in every situation.</t>
+    <t>Reflect on the invitation to release your anxieties and worries to God. In your moments of fear and uncertainty, turn to prayer and present your concerns with a heart full of gratitude. By doing so, you entrust your life to God's loving care and providence. Consider how often you hold onto stress rather than offering it up in prayer. Surrender your burdens today and allow the peace of God to guard your heart and mind.</t>
   </si>
   <si>
     <t>January 27, 2025</t>
   </si>
   <si>
-    <t>Reflect, today, upon the profound and comforting words of Jesus: "In this world, you will have trouble. But take heart! I have overcome the world." Consider the inevitable trials and tribulations you face in life. In those moments of struggle, do you remember that Jesus has already triumphed over all that this world can throw at you? Reflect on the peace that comes from truly trusting in His victory. Let this assurance strengthen your heart and embolden your spirit to face each challenge with unwavering faith and resilience.</t>
+    <t>Reflect today on the reality that Jesus has overcome the world. In moments of tribulation and distress, remember that His victory is not just a promise, but a living truth that you can rely on. Contemplate the courage and peace He offers despite the storms you may face, and let this assurance fortify your heart. Trust that in Him, you will find the strength to endure and the hope to persevere, knowing that His triumph is also yours.</t>
   </si>
   <si>
     <t>January 28, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the powerful and reassuring message of this verse: "If God is for us, who can be against us?" In moments of doubt and fear, anchor yourself in this profound truth. Contemplate the omnipotent support of the Almighty in your life. Consider the challenges and adversaries you face and reaffirm your faith in God's unwavering presence and support. Allow this reflection to deepen your trust in God and empower you to face every obstacle with confidence, knowing that God is for you.</t>
+    <t>Reflect upon the profound truth that God is for you and with you in every situation you face. If God is on your side, what do you need to fear? No obstacle, challenge, or adversary can truly stand against you when you place your trust in Him. Take some moments today to recognize the divine strength and support you have, and let this assurance fill you with peace and confidence. Embrace the unwavering love and protection of God and face your life’s battles with courage, knowing He is always in your corner.</t>
   </si>
   <si>
     <t>January 29, 2025</t>
@@ -1966,67 +1965,67 @@
     <t>Zechariah</t>
   </si>
   <si>
-    <t>Reflect upon the profound message in Zechariah 4:6: "Not by might nor by power, but by my Spirit,' says the Lord Almighty." Contemplate how often you rely on your own strength and abilities when facing challenges. Are there areas in your life where you need to surrender control and allow the Holy Spirit to guide you? Reflect on the importance of trusting in God's Spirit rather than your own efforts, and seek to deepen your reliance on His divine power in every aspect of your life.</t>
+    <t>Reflect on the power and guidance of the Holy Spirit in your life. Are there areas where you rely too much on your own strength and understanding? Consider how God's Spirit has been leading you, even when you were unaware. Today, take a moment to surrender your plans and efforts to God, asking for His Spirit to work through you. Remember, true strength and success come not from your own abilities, but through the divine enablement that God provides.</t>
   </si>
   <si>
     <t>January 30, 2025</t>
   </si>
   <si>
-    <t>Reflect on the profound responsibility and privilege of guiding the young in their lives. "Train up a child in the way he should go, and when he is old he will not depart from it." Consider how your actions, words, and examples shape the lives of those who look to you for guidance. Are you providing a path filled with wisdom, love, and faith? Contemplate how you can be more intentional in your efforts to nurture and direct them towards a life that honors God. Seek God's wisdom and strength as you fulfill this vital role.</t>
+    <t>Reflect on the enduring impact of the lessons we impart to the younger generation. Consider the values and guidance you are providing through both words and actions. Are they rooted in kindness, integrity, and spiritual wisdom? Contemplate the life-long influence of these teachings and ask yourself if they are leading towards a path of righteousness. Seek guidance to ensure that your influence helps to establish a strong, faithful foundation for the future.</t>
   </si>
   <si>
     <t>January 31, 2025</t>
   </si>
   <si>
-    <t>Reflect on the light that you are called to be in the world. Jesus says, "Let your light shine before others, that they may see your good deeds and glorify your Father in heaven." Consider how your actions and words impact those around you. Are you reflecting the love, mercy, and truth of God in such a way that others are drawn closer to Him? Take time to identify areas in your life where you can allow God's light to shine more brightly and ask the Holy Spirit to guide you in being a beacon of His grace to all the people you encounter.</t>
+    <t>Reflect on the light you carry within you and how it shines in your everyday actions. Consider whether your words, deeds, and attitudes reflect the goodness and love of God to others. Ask yourself if those around you can see God's presence through your life. Challenge yourself to live in such a way that your actions become a beacon of hope and inspiration, drawing others toward God's grace and love. How might you better illuminate the world with your faith today?</t>
   </si>
   <si>
     <t>February 1, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the call to "enter his gates with thanksgiving, and his courts with praise; give thanks to him and praise his name." Consider how often you approach God with a heart full of gratitude and an attitude of praise. Reflect on the many blessings in your life and the goodness of God that warrants your thanksgiving. As you contemplate this verse, challenge yourself to cultivate a daily habit of giving thanks and offering praise to God, allowing it to transform your heart and deepen your relationship with Him. Let your every entry into prayer and worship be marked by a spirit of gratitude and adoration.</t>
+    <t>Reflect on the act of entering God's presence with gratitude and praise. Consider how often you approach life with a thankful heart, acknowledging God's goodness and steadfast love. Take a moment to think about the blessings you often overlook and how you can cultivate a habit of expressing thanks for these gifts. Let your reflection inspire you to develop a deeper sense of reverence and joy as you consistently bring your gratitude before the Lord.</t>
   </si>
   <si>
     <t>February 2, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the powerful promise in Isaiah 40:31, "But those who wait for the Lord shall renew their strength; they shall mount up with wings like eagles; they shall run and not be weary; they shall walk and not faint." As you ponder these words, ask yourself how patient and persistent you are in waiting upon the Lord. Consider the areas in your life where you feel weary and need renewal. Invite God to give you the strength to rise above your challenges, just as eagles soar effortlessly in the sky. Trust that in His perfect timing, He will refresh your spirit and empower you to continue your journey with endurance and hope.</t>
+    <t>Reflect upon the promise of renewed strength and vitality that comes from placing your hope and trust in God. In moments of weariness and struggle, consider how your faith can lift you up and enable you to soar above life's challenges. Contemplate how patience and steadfast hope can lead to spiritual renewal, and let this inspire you to place your confidence in God, knowing He will sustain and empower you through all trials.</t>
   </si>
   <si>
     <t>February 3, 2025</t>
   </si>
   <si>
-    <t>Reflect on the importance of guarding your heart above all else, for it is the wellspring of life. Consider the thoughts, emotions, and desires that you allow to influence your heart. Are they leading you closer to God and His path for you, or are they distracting you and pulling you away from His love? Take time to discern what you need to protect your heart from and ask God for the wisdom and strength to do so.</t>
+    <t>Reflect upon the importance of guarding one's heart with diligence, for it is the wellspring of life. Consider the thoughts, influences, and desires that you let into your heart and how they shape your actions and character. Ask yourself whether you are vigilant in maintaining purity, love, and righteousness within. Seek God's guidance in discerning and protecting the valuable essence of your innermost being, nurturing it so that it may bear good fruit in your life and in the lives of others.</t>
   </si>
   <si>
     <t>February 4, 2025</t>
   </si>
   <si>
-    <t>Reflect today upon the steadfastness in your faith and the work you do in the name of the Lord. "Therefore, my dear brothers and sisters, stand firm. Let nothing move you. Always give yourselves fully to the work of the Lord, because you know that your labor in the Lord is not in vain." Consider how you can remain unwavering and dedicated in your service to God, knowing that every effort you make in His name carries eternal significance. Let this be a reminder to persevere with joy and confidence, trusting that God recognizes and values your commitment.</t>
+    <t>Reflect upon the steadfastness and immovability called for in your faith. Consider what it means to be abounding in the work of the Lord, knowing that your labor is not in vain. Contemplate how you can remain unshaken in your commitment to your faith, especially during times of trial. Let this reflection inspire you to deepen your dedication and to trust that every effort made for God's kingdom has eternal significance and purpose.</t>
   </si>
   <si>
     <t>February 5, 2025</t>
   </si>
   <si>
-    <t>Reflect, today, upon the profound truth that God is our refuge and strength, an ever-present help in trouble. Consider the times in your life when you have faced difficulties and trials. How have you sought refuge and strength during these moments? Turn your thoughts to God now, inviting Him to be your fortress and support in both the small and great challenges you face. Trust that His presence is constant and unwavering, guiding you through every storm. Surrender your fears and anxieties to Him, and rest in the assurance that He is always with you, offering His unwavering help and protection.</t>
+    <t>Reflect on the ever-present help and strength that God provides in the midst of life's challenges. Think about the areas in your life where you feel overwhelmed or anxious. Consider how often you turn to God for assistance and how deeply you trust in His presence. Let this reflection guide you to seek refuge in God more consistently and to find peace in knowing that you are never alone. Allow God’s constant support to fortify your spirit and renew your confidence, no matter what obstacles you face.</t>
   </si>
   <si>
     <t>February 6, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the words of Romans 8:18, which states, "I consider that our present sufferings are not worth comparing with the glory that will be revealed in us." Contemplate the suffering or challenges you may currently be facing and hold them up against the immense glory and joy that awaits in God’s eternal presence. Allow this to offer you hope and encouragement, understanding that any hardship you endure now is temporary. Trust in the promise of future glory, letting it strengthen your faith and fortitude to persevere through today's trials.</t>
+    <t>Reflect upon the challenges and sufferings you face in your life. Consider that these trials, though difficult, are temporary and serve a greater purpose when viewed in the light of eternity. Allow your hope to be anchored in the promise of the glory that will be revealed through faith. Through this perspective, draw strength and perseverance, knowing that your current struggles are part of a divine journey leading to eternal joy and fulfillment.</t>
   </si>
   <si>
     <t>February 7, 2025</t>
   </si>
   <si>
-    <t>Reflect today upon the truth that you are called to be "the light of the world." Take some time to consider the particular ways in which Jesus is calling you to let His light shine through you. Are there places in your life where you are hiding this light under a basket, either out of fear, complacency, or distraction? Jesus calls you to let your light shine before others, that they may see your good deeds and glorify your Father in heaven. Pray for the courage and conviction necessary to be that visible beacon of faith, hope, and love to all those around you.</t>
+    <t>Reflect today upon the profound calling to be a light in the world. Consider the unique brightness you bring into the lives of others and how your actions, words, and presence illuminate the path for those around you. Contemplate how well you are fulfilling this role and where you might enhance your ability to be a beacon of hope and love. Seek ways to shine more brightly, not for your own glory, but to lead others to the true Light.</t>
   </si>
   <si>
     <t>February 8, 2025</t>
   </si>
   <si>
-    <t>Reflect on Psalm 46:5, which tells us, "God is within her; she will not fall; God will help her at break of day." Contemplate the profound truth that God’s presence within you is a source of unwavering strength and stability. Reflect on any personal challenges or fears that you face and reaffirm your trust that, with God’s presence in your life, you cannot be shaken. Consider how, even in moments of darkness, God’s help is ever-present and reliable. Let this assurance guide you to face each new day with confidence and faith.</t>
+    <t>Reflect today upon the steadfast presence and strength of God in your life. Contemplate the ways in which you, in times of uncertainty and fear, can draw upon His unwavering support and trust in His promise to sustain you. Despite any turbulence around you, take comfort in the knowledge that His divine presence provides a foundation that cannot be shaken. Let this assurance be a source of inner peace and a reminder of the hope that resides in His eternal care.</t>
   </si>
   <si>
     <t>February 9, 2025</t>
@@ -2035,32 +2034,31 @@
     <t>James 1:5</t>
   </si>
   <si>
-    <t>Reflect upon the words from James 1:5: "If any of you lacks wisdom, let him ask of God, who gives to all liberally and without reproach, and it will be given to him." Consider your own life and the moments when you have felt uncertain or in need of guidance. Do you seek wisdom from God in these times, trusting in His generosity and willingness to provide? Ponder the nature of true wisdom, which is not merely intellectual knowledge but a deep, spiritual understanding aligned with God's will. In your prayers, ask God sincerely for His wisdom, confident that He will bestow it upon you abundantly. Seek this divine wisdom in all your decisions and interactions, trusting that God’s guidance will lead you on the right path.</t>
+    <t>Reflect on the generous nature of God, who offers wisdom to all who seek it without finding fault. Consider how often we rely on our own understanding and how it pales in comparison to the wisdom God is ready to bestow. Take a moment to ask yourself if you are humble and open enough to seek God's wisdom in your daily decisions. Let this prompt you to pray continuously for divine insight, trusting that God will provide the guidance you need.</t>
   </si>
   <si>
     <t>February 10, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the words of 1 Peter 3:15, which call us to sanctify Christ as Lord in our hearts, always being ready to give an answer to everyone who asks us to give the reason for the hope that we have, but doing so with gentleness and respect. Consider the deep hope you have in Christ and how it influences your daily actions and interactions with others. Ask yourself: Am I prepared to share this hope with those who are searching, and do I do so with a loving and respectful heart? Let this verse inspire you to equip yourself with an understanding of your faith and the grace to communicate it with kindness and humility.</t>
+    <t>Reflect upon the call to always be prepared to give a reason for the hope that you possess. Take time to examine the foundation of your faith and your relationship with God. Are you able to articulate your hope with gentleness and respect when asked? Consider how your life serves as a testament to this hope, and think about ways you can demonstrate it more clearly and lovingly to others. Remember that your demeanor and the readiness of your heart speak volumes about the depth of your faith.</t>
   </si>
   <si>
     <t>February 11, 2025</t>
   </si>
   <si>
-    <t>"I praise you because I am fearfully and wonderfully made; your works are wonderful, I know that full well."
-Reflect upon the profound truth that you are fearfully and wonderfully made by God. Consider what it means to recognize the divine craftsmanship that went into your creation. As you think about this, identify the areas in your life where you struggle to believe in your own worth and beauty. Pray for the grace to see yourself as God sees you, acknowledging the wonderful works He has done in you and through you. Allow this recognition to deepen your gratitude and strengthen your sense of purpose.</t>
+    <t>Reflect upon the wondrous nature of God's creation, particularly in yourself. God has intricately and beautifully crafted every part of you, both body and soul. Take a moment to acknowledge the intricate details and the intentional design that makes you unique. Consider the mysteries of your own being and marvel at God's handiwork within you. Let this reflection fill you with gratitude and a sense of divine purpose, as you are fearfully and wonderfully made. Recognize the value and worth you have in the eyes of God, and let this truth shape how you view yourself and others.</t>
   </si>
   <si>
     <t>February 12, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the words of Isaiah 43:2 which promise God's presence and protection during times of trial and danger: "When you pass through the waters, I will be with you; and through the rivers, they shall not overwhelm you; when you walk through fire you shall not be burned, and the flame shall not consume you." Consider the moments in your life when you felt overwhelmed by the challenges you faced. Ponder how God's presence and faithfulness, as expressed in this verse, can be a source of comfort and strength for you. Take a moment to place your trust in God's abiding presence and allow His promise to bring peace to your heart, no matter the circumstances you face.</t>
+    <t>Reflect today on the unwavering presence of God in the midst of your trials and challenges. Consider how this divine companionship changes your perspective on hardship and suffering. Ask yourself, do you feel God's presence guiding you even in the deepest waters and fiercest fires of life? Let this reflection reassure you that you are never alone, and that God's support and protection are steadfast, carrying you through every adversity. Embrace this comfort and allow it to strengthen your faith and courage in all circumstances.</t>
   </si>
   <si>
     <t>February 13, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the words of Jesus as He encourages us not to worry about tomorrow. "Therefore do not worry about tomorrow, for tomorrow will worry about itself. Each day has enough trouble of its own." Consider how often you find yourself consumed with anxiety about the future and whether this impacts your ability to live fully in the present moment. Reflect on the trust and surrender God invites you to have, placing your future in His hands and focusing on the grace provided for today. Allow this verse to remind you to entrust your worries to God and to find peace in His provision, one day at a time.</t>
+    <t>Reflect upon the ways in which worry about the future can consume your thoughts and deter you from being fully present in the moment. Consider how trust in God's provision can liberate you from the anxieties of tomorrow. Today, focus on entrusting your concerns to God, and seek His guidance and strength for the challenges you face right now. Embrace each day as a unique gift, confident that God holds the future and provides for our needs moment by moment.</t>
   </si>
   <si>
     <t>February 14, 2025</t>
@@ -2072,7 +2070,7 @@
     <t>Genesis</t>
   </si>
   <si>
-    <t>Reflect on the reality and the humbling truth revealed in Genesis 3:19: “By the sweat of your face you shall eat bread, till you return to the ground, for out of it you were taken; for you are dust, and to dust you shall return.” Consider the significance of this passage and what it means for your daily life. How does it affect your understanding of work, human frailty, and mortality? Allow this reflection to remind you to live each day with a deep sense of gratitude, purpose, and reliance on God's grace, always remembering the humble and transient nature of life.</t>
+    <t>Reflect today upon the reality of our mortality and the fleeting nature of earthly life. Acknowledge that our physical bodies are temporary and that we are called to something greater beyond this life. Let this awareness inspire you to focus more on that which is eternal and to nurture your soul through acts of love, faith, and service to others. Embrace humility, recognizing that we are all made from dust and to dust we shall return, yet our spirit is destined for eternal communion with God.</t>
   </si>
   <si>
     <t>February 15, 2025</t>
@@ -2081,31 +2079,31 @@
     <t>Psalm 27:4</t>
   </si>
   <si>
-    <t>Reflect upon the deep desire embodied in Psalm 27:4, which speaks of seeking to dwell in the house of the Lord all the days of one's life. Allow this verse to guide a self-examination of your own desires and longings. Ask yourself: Do I truly seek the presence of God above all else? How often do I prioritize time spent in His presence through prayer, worship, and reflection? Let this verse inspire a renewed dedication to finding and dwelling in the beauty and goodness of the Lord each day.</t>
+    <t>Reflect today upon your deepest desires. Consider the yearning of your heart and what occupies your mind most frequently. This verse invites you to align those desires with the pursuit of dwelling in the presence of God all the days of your life. Where are your passions leading you? Redirect any misguided longings toward a singular focus: seeking the beauty of the Lord and dwelling in His sanctuary. Allow this contemplation to transform your priorities, directing them toward a life of divine intimacy and constant communion with God.</t>
   </si>
   <si>
     <t>February 16, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the profound wisdom found in Proverbs 14:29: "Whoever is patient has great understanding, but one who is quick-tempered displays folly." Take this time to examine your own patience. Are you able to remain calm and composed in the face of frustration and adversity, or do you find yourself easily angered and reacting impulsively? Understand that patience is not merely about enduring situations, but about embodying wisdom and understanding in each moment. Reflect on how often you turn to God for strength in moments that test your patience and consider making a conscious effort to cultivate a patient heart, which leads to true understanding and peace.</t>
+    <t>Reflect upon the virtue of patience in your daily life. Patience allows us to control our emotions and respond thoughtfully rather than reacting impulsively. It helps us to see situations clearly and to act with wisdom. Consider moments when you've felt anger or frustration and how exercising patience could have changed the outcome. Strive to develop a heart that is slow to anger and rich in understanding, seeking God's guidance in cultivating this essential virtue.</t>
   </si>
   <si>
     <t>February 17, 2025</t>
   </si>
   <si>
-    <t>Reflect on the profound assurance contained within this verse: "And my God will meet all your needs according to the riches of his glory in Christ Jesus." Consider the ways in which God's abundant provision has manifested in your life. Reflect on any anxieties or concerns you may have about your needs, and bring them to God in trust. Ask yourself if you truly believe in His ability and willingness to fulfill every need you have—emotional, physical, and spiritual. Allow this verse to deepen your reliance on God's infinite grace and resources, knowing that He cares for you and will provide in His perfect timing.</t>
+    <t>Reflect upon the abundance of God's provision in your life today. Consider the ways in which He has supplied your needs, even in moments of doubt and uncertainty. Take time to acknowledge the endless resources of God's grace and faithfulness, and how you can trust Him to meet every one of your needs according to His infinite riches. Rest in the assurance that God, who cares deeply for you, will never leave you wanting. Make a commitment to deepen your trust in God's perfect provision and to share his bounty with others in your community.</t>
   </si>
   <si>
     <t>February 18, 2025</t>
   </si>
   <si>
-    <t>Reflect, today, upon the profound truth that “The Lord of hosts is with us; the God of Jacob is our fortress.” In moments of distress, uncertainty, or fear, hold firmly to this assurance that God is ever-present beside you, offering protection and strength. Ponder how deeply you trust in God as your refuge and how this trust influences your response to life's challenges. Where you find your faith wavering, ask for the grace to firmly believe in His constant presence and unwavering support.</t>
+    <t>Reflect upon the profound comfort and assurance that comes from recognizing the unwavering presence of God in your life. In moments of turmoil and uncertainty, let this divine truth be your anchor. Ponder how you can cultivate a deeper sense of peace and stillness within, knowing that God is a constant refuge and strength. Challenge yourself to fully trust in His sovereignty and seek His peace in the midst of life's storms.</t>
   </si>
   <si>
     <t>February 19, 2025</t>
   </si>
   <si>
-    <t>Reflect on this Scripture today: "Be joyful in hope, patient in affliction, faithful in prayer." Consider how you can live out these three powerful virtues in your daily life. First, meditate on how hope brings joy even amidst uncertainty and hardship. Are you able to find joy in the promises of God despite the trials you face? Second, think about patience during times of suffering. Are you capable of enduring afflictions with a calm heart, trusting in God's timing and plan? Lastly, reflect on your prayer life. Is it marked by faithfulness and consistency, even when answers seem delayed? Strive to embody these virtues, letting them shape your actions and attitudes each day.</t>
+    <t>Reflect upon the essence of perseverance, joy, and prayer in your life. How often do you find joy in hope, remain patient in suffering, and turn to prayer as your source of strength? Consider how these attributes can transform your daily routine and interactions with others. Make a conscious effort to embrace hope, endure hardship with patience, and maintain a steadfast connection with God through prayer. Let these virtues guide you towards a more fulfilled and spiritually enriched life.</t>
   </si>
   <si>
     <t>February 20, 2025</t>
@@ -2117,13 +2115,13 @@
     <t>1 Samuel</t>
   </si>
   <si>
-    <t>Reflect upon the words, "There is no one holy like the Lord; there is no one besides you; there is no Rock like our God." Take a moment to meditate on the uniqueness and holiness of God. Consider how acknowledging His unparalleled greatness can bring stability and security into your life, much like a rock. Let this reflection inspire you to lean on God in times of need and to celebrate His unique and steadfast presence in your life.</t>
+    <t>Reflect upon the profound holiness and uniqueness of God in your life. Consider those moments when you have felt His presence and acknowledged Him as your true foundation. Are there any areas where you've relied on other things or people more than on God? Let this be a reminder to continually place your trust in the strength and steadfastness of the Lord, recognizing that there is no one as holy and unshakable. Surrender to His sanctity and allow Him to guide you through all trials and triumphs.</t>
   </si>
   <si>
     <t>February 21, 2025</t>
   </si>
   <si>
-    <t>Reflect upon placing your trust in God and committing your ways to Him, as Psalm 37:5 encourages: "Commit your way to the Lord; trust in him and he will do this." Consider the areas of your life where you might be holding back from fully surrendering to God's will. Identify those concerns, burdens or decisions, and invite God’s divine presence into each one. Trust in His providence and believe in His promises. Reflect on how you can deepen your trust and reliance on God each and every day.</t>
+    <t>Reflect on your daily life and consider the areas where you have tried to rely solely on your own strength and understanding. Contemplate the beauty of surrendering these aspects to the divine guidance of God. Trusting in God's plan can sometimes be the hardest yet most liberating step. Ask yourself, how much am I willing to let go and commit all my ways to the Lord? As you reflect, invite God to take control, trusting that His ways are higher and His wisdom far surpasses our own. Let this act of trust be your source of peace and faith, knowing that God will lead you with fidelity and love.</t>
   </si>
   <si>
     <t>February 22, 2025</t>
@@ -2135,7 +2133,7 @@
     <t>1 Chronicles</t>
   </si>
   <si>
-    <t>Reflect today upon the call to "Seek the Lord and his strength; seek his presence continually!" This scripture invites us to an active and continuous search for God's presence in our lives. Consider how often you actively seek the Lord's guidance and strength throughout your daily routine. Do you turn to Him only in times of need, or is your relationship with God a constant and ongoing dialogue? Let this verse inspire you to make seeking His presence a regular and integral part of your life, always relying on His strength to guide you through every situation.</t>
+    <t>Reflect upon the importance of seeking out God's presence in everyday life. Consider how often you turn to Him in moments of need versus times of calm and sufficiency. Are you actively seeking His strength and continually pursuing a deeper relationship with Him? Pray for the grace to recognize your dependence on Him in all things and to make your communion with God a constant practice, not only during hardship but in every aspect of life.</t>
   </si>
   <si>
     <t>February 23, 2025</t>
@@ -2147,79 +2145,79 @@
     <t>2 Timothy</t>
   </si>
   <si>
-    <t>Reflect upon the words of Paul: "I have fought the good fight, I have finished the race, I have kept the faith." Consider your own life journey and the battles you face daily. Are you persevering with the same dedication and commitment as Paul? Contemplate the ways in which you can maintain your faith and fulfill the mission God has given you, ensuring that you, too, may one day confidently proclaim these words. Ask God for the strength and guidance to continue this journey with unwavering faith and resilience.</t>
+    <t>Reflect upon the journey of your life and the battles you have faced. Consider the strength and perseverance you have demonstrated through trials and tribulations. Ask yourself if you have remained faithful to your values and beliefs despite the challenges. Take a moment to honor the endurance you've shown and recommit to continuing your journey with integrity and steadfastness. Let this reflection remind you to keep striving towards your goals, knowing that staying true to your path is itself a noble victory.</t>
   </si>
   <si>
     <t>February 24, 2025</t>
   </si>
   <si>
-    <t>Reflect on the invitation of Psalm 55:22, "Cast your burden on the Lord, and He will sustain you; He will never permit the righteous to be moved." Consider what burdens you are currently carrying in your life. Are there worries, fears, or responsibilities weighing heavily on your heart? Take this moment to entrust those burdens to the Lord and to trust in His promise to sustain you. Reflect on how God’s unwavering support and sustaining grace have been evident in your life, and let that remembrance strengthen your faith and reliance on Him.</t>
+    <t>Reflect on the burdens you carry in your life - the worries, stresses, and anxieties that weigh upon your heart. Consider the trust and faith required to truly lay these burdens at God's feet, knowing that He cares deeply for you. Ask yourself if you trust in His strength more than in your own. Seek to deepen this trust and find peace in knowing that He is always ready to support and sustain you.</t>
   </si>
   <si>
     <t>February 25, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the profound reassurance offered in this verse: "There is therefore now no condemnation for those who are in Christ Jesus." In moments of doubt and self-condemnation, remember that through Christ, you are not judged by your past mistakes but are embraced by His infinite love and grace. Ponder the freedom and peace this brings into your soul, and let this promise guide you to live a life renewed by the Spirit, free from the burdens of guilt and shame. Embrace the transformative power of being "in Christ Jesus" and let it inspire you to extend the same grace and love to others.</t>
+    <t>Reflect upon the profound truth that there is no condemnation for those who are in Christ Jesus. Consider what it means to truly embrace this freedom. How often do we hold onto guilt and shame despite being offered complete forgiveness and redemption? Today, let us contemplate the significance of living a life free from condemnation and how we can fully accept and walk in the grace that Christ provides. Take a moment to release any lingering self-condemnation and allow yourself to experience the peace and assurance that comes with being in Christ.</t>
   </si>
   <si>
     <t>February 26, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the profound significance of Jesus' declaration, "All authority in heaven and on earth has been given to me." Contemplate the encompassing extent of Christ's authority and what it means for your life. How does this recognition of His supreme power influence your faith, trust, and obedience to His will? Allow this truth to deepen your understanding of the sovereignty of Christ and inspire you to submit more fully to His guidance and commands in every aspect of your life.</t>
+    <t>Reflect upon the profound declaration from Jesus that He has been given all authority in heaven and on earth. This authority is not just a statement of power but also an invitation for us to find our confidence and mission within His divine mandate. Consider how your life can change when you fully embrace Jesus' authority over every aspect of it. Trust in His guidance, lean on His power, and go forth with the assurance that you are operating under a divine commission. Let this understanding deepen your commitment to living out His teachings and sharing His love with others.</t>
   </si>
   <si>
     <t>February 27, 2025</t>
   </si>
   <si>
-    <t>Reflect today upon the friendships in your life and the qualities that define them. Proverbs 18:24 tells us, "A man of many companions may come to ruin, but there is a friend who sticks closer than a brother." Consider whether you are surrounded by companions who may lead you astray or true friends who uplift and support you in your walk with God. Strive to cultivate relationships that reflect the steadfast, loyal love exemplified by that friend who sticks closer than a brother. Pray for the wisdom to discern the difference and to be that kind of friend to others as well.</t>
+    <t>Reflect upon the nature of true friendship today. Consider who in your life acts as a friend who sticks closer than a brother. Are you this kind of friend to others? True friendship is built upon loyalty, trust, and a deep-seated desire for the good of the other person. Contemplate how you can cultivate these qualities in your relationships and seek to be that steadfast friend, even when it requires self-sacrifice.</t>
   </si>
   <si>
     <t>February 28, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the profound truth expressed in this verse: "The Lord Almighty is with us; the God of Jacob is our fortress." Consider what it means to have the Lord Almighty with you in every moment of your life. Reflect on the strength and protection that comes from God being your fortress. Whenever you face a difficulty or challenge, recall this verse and draw confidence from the assurance that God is always by your side, shielding and supporting you. Trust in His unchanging presence and allow His strength to ground you in times of turmoil.</t>
+    <t>Reflect on the powerful presence of God as an unwavering source of strength in your life. In moments of turmoil and uncertainty, consider how the assurance of His presence provides a firm foundation amid chaos. Contemplate the ways in which you can lean more deeply into this divine strength, finding peace and steadfastness in the knowledge that God is always with you, guiding and protecting you through all of life’s challenges. Let this awareness transform your fear into faith and your anxiety into abiding trust.</t>
   </si>
   <si>
     <t>March 1, 2025</t>
   </si>
   <si>
-    <t>Reflect, today, upon the profound call to kindness, compassion, and forgiveness given in this verse. Consider how you can embody these virtues in your daily interactions. Are there relationships or situations in your life where you struggle to be kind, compassionate, or forgiving? Ponder the depth of forgiveness that God has shown you in Christ, and let this divine forgiveness inspire and empower you to extend the same to others. Aim to make these virtues a cornerstone of your character, transforming not only your relationships but also reflecting the love of Christ to the world around you.</t>
+    <t>Reflect today on the virtue of kindness and compassion. How often do you extend these qualities to those around you, including those who might have wronged you? Consider if there is any anger or bitterness in your heart that needs to be replaced with tenderhearted forgiveness. Reflect on the attitude of Christ, who forgave you with an immeasurable love. Seek to imitate this love in your interactions, striving to build a community rooted in kindness, compassion, and mutual forgiveness.</t>
   </si>
   <si>
     <t>March 2, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the boundless love of God revealed in this verse. "For God so loved the world that he gave his one and only Son, that whoever believes in him shall not perish but have eternal life." Contemplate the depth of this divine love and the magnitude of the gift given to humanity. Consider how this ultimate act of love calls you to both receive and extend love in your own life. Do you truly embrace this love in your heart? Let this powerful verse inspire you to live a life rooted in faith, hope, and charity, continually recognizing the eternal life promised to those who believe.</t>
+    <t>Reflect, today, upon the depth and breadth of love that is extended to you from the Divine. Contemplate the fact that this love is not conditional or fleeting; it is eternal and all-encompassing. Ask yourself how you can better align your life with such a profound gift, and consider the ways in which you can share this love with others in your daily interactions. In recognizing this boundless source of love, may you find the strength and grace to become a vessel of divine love and compassion in the world.</t>
   </si>
   <si>
     <t>March 3, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the significance of storing God's word in your heart, as the psalmist declares, "I have hidden your word in my heart that I might not sin against you." How mindful are you of the Scriptures in your daily life? Do you see them as a source of guidance, strength, and moral compass? Take time today to commit to memory a particular verse that speaks to you, allowing it to be a beacon that keeps you on the path of righteousness and shields you from the temptations and errors of life.</t>
+    <t>Reflect upon the way you treasure God’s word within the depths of your heart. Contemplate how well you allow it to shape your actions, thoughts, and desires. Ask yourself if you are truly making space for it within you, allowing it to guide you away from sin and towards a life of virtue. Seek a deeper commitment to internalize and cherish it, that it may always be a light guiding your path.</t>
   </si>
   <si>
     <t>March 4, 2025</t>
   </si>
   <si>
-    <t>Reflect upon seeking righteousness and love in your daily life. Proverbs 21:21 states, "Whoever pursues righteousness and love finds life, prosperity, and honor." Consider the deeper meaning of this pursuit—how it extends beyond mere actions into the intentions and desires of your heart. Are you actively seeking to cultivate righteousness and love in all you do? Reflect on how true life, prosperity, and honor in God's eyes are not measured by worldly standards but by the depth of your commitment to living in accordance with His will. Pray for the grace to sincerely pursue these virtues, knowing that in doing so, you align yourself more closely with God's eternal promises.</t>
+    <t>Reflect on the pursuit of righteousness and love each and every day. Consider how the choices you make align with these virtues. Are your actions motivated by a genuine desire to do what is right, and are they rooted in love for others? As you seek righteousness and love, trust that you are on the path to finding true life, prosperity, and honor. Let this calling guide your decisions, encouraging you to act with integrity and compassion in all that you do.</t>
   </si>
   <si>
     <t>March 5, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the profound call to welcome and accept others as Christ has accepted you, for the glory of God. Contemplate how you can embody this acceptance in your daily life, transcending differences and embracing others with the love of Christ. Consider how your words, actions, and attitudes can be a reflection of Christ’s unconditional acceptance, fostering unity and glorifying God in all that you do.</t>
+    <t>Reflect upon your own capacity to welcome others as Christ has welcomed you. How often do you reach out to others with genuine love and acceptance, setting aside judgments and biases? Consider how you can cultivate a more inclusive and compassionate heart, seeking to embrace others just as Christ embraces you, with unconditional love and grace. This week, let your actions reflect this divine hospitality in every encounter.</t>
   </si>
   <si>
     <t>March 6, 2025</t>
   </si>
   <si>
-    <t>Reflect today upon your ability to "Be still before the Lord and wait patiently for him." In a world filled with noise, activity, and constant demands, how often do you take the time to quiet your soul and be present before God? Consider the areas of your life where impatience, anxiety, or desire for control may be hindering your trust in God's plan and timing. Ask God for the grace to surrender these areas to Him, cultivating a heart that rests in His presence and waits faithfully for His divine intervention.</t>
+    <t>Reflect upon the importance of patience and trust in your life. Consider how often you become anxious or agitated when things do not go as planned or when facing injustice. True peace comes from surrendering to God's timing and wisdom. Take a moment to identify areas in your life where you struggle to remain calm and trusting. Pray for the grace to rest in God's presence and to trust that He is in control, even when circumstances are challenging or unclear. Surrender your fears and anxieties to Him, and allow His peace to fill your heart.</t>
   </si>
   <si>
     <t>March 7, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the comforting words, "For I am the Lord your God who takes hold of your right hand and says to you, Do not fear; I will help you." Contemplate the profound love and reassurance that God offers us. He is always there to guide and support, holding our hand through the trials and uncertainties of life. Ask yourself how often you allow this divine presence to alleviate your fears and give you strength. How can you strengthen your trust in God's unceasing help and let go of your anxieties? Seek to deepen your reliance on the Lord, knowing that He is always by your side.</t>
+    <t>Reflect upon God's comforting promise of being by your side and holding your hand in times of fear. Consider the moments in your life when you felt overwhelmed or frightened, and recognize God's presence and support during those times. Trust in His unwavering assistance and let your faith in His guidance dispel any anxiety or trepidation you may feel. Embrace His reassurance and walk forward with confidence, knowing that you are never alone.</t>
   </si>
   <si>
     <t>March 8, 2025</t>
@@ -2231,37 +2229,37 @@
     <t>1 Timothy</t>
   </si>
   <si>
-    <t>Reflect upon the significance of godliness in comparison to physical training. While physical exercise benefits the body and has some value, it is discipline in godliness that holds value for all things, promising benefits both in this life and the life to come. Consider how much time and effort you devote to nurturing your spiritual well-being compared to your physical health. Seek to strike a balance that honors God by integrating spiritual disciplines into your daily routine. Contemplate the eternal rewards that come with living a godly life and allow that to motivate and guide your actions each day.</t>
+    <t>Reflect on the value of godliness in your life today. While physical well-being is important and has benefits for our current life, the practice of godliness holds promise for both this life and the life to come. Consider how you are nurturing your spiritual health. Are you investing time and effort into growing closer to God and aligning your life with His will? Seek ways to incorporate more spiritual practices into your daily routine, knowing that these efforts have eternal significance.</t>
   </si>
   <si>
     <t>March 9, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the assurance that the Lord hears the cry of the righteous and delivers them from all their troubles. Consider the areas in your life where you are in need of God's deliverance and comfort. Are you crying out to Him with faith and trust? Remember that God is close to the brokenhearted and saves those who are crushed in spirit. Allow this promise to bring peace to your heart, and keep your trust in God's unfailing support and deliverance.</t>
+    <t>Reflect upon the profound truth that God is always attentive to the cries of the righteous. In times of distress and challenge, remember that He hears and is ever ready to deliver. Contemplate the depth of His compassion and His unwavering presence in your life. Trust in His divine timing and care, and let this assurance bring peace to your heart, knowing that you are never alone in your struggles. Allow your faith to deepen as you lean on His promises and find solace in His steadfast love.</t>
   </si>
   <si>
     <t>March 10, 2025</t>
   </si>
   <si>
-    <t>Reflect on Proverbs 16:9, "In their hearts humans plan their course, but the Lord establishes their steps." This verse invites us to consider the balance between our personal intentions and God's sovereignty. While we may chart our path with great care and ambition, ultimately, it is God's will that prevails. Reflect on your life — are you open to God’s direction, even when it leads you away from your own plans? Trust that God’s guidance will always lead you to where you need to be, for His plans are perfect and born out of an infinite love and wisdom. Embrace the journey He sets for you with faith and surrender.</t>
+    <t>Consider the many plans you have made in your life and reflect on how often things have turned out differently than expected. Ponder the ways in which you have seen providential guidance, even in the midst of your own detailed planning. Reflect on the humility required to relinquish control and trust that a higher purpose is at work. This week, invite stillness into your soul to more deeply sense the guidance that directs your steps, trusting that there is a greater plan at play.</t>
   </si>
   <si>
     <t>March 11, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the definition of faith as presented in this verse: "Now faith is confidence in what we hope for and assurance about what we do not see." Spend some time considering the areas in your life where you are called to exercise faith. Do you find yourself struggling with doubt or uncertainty in those areas? Reflect on God's promises and ask for the strength to hold firm to your hope, trusting in what has not yet been revealed. Let your faith be a source of confidence and reassurance, even when the path ahead seems unclear.</t>
+    <t>Reflect today upon the essence of faith itself. Faith is a profound trust and confidence in things we cannot see with our physical eyes. It is a deep assurance in the promises of God and the truth of His word. As you contemplate this, ask yourself whether your daily life reflects a deep-seated faith. Are you able to trust in God's promises even when circumstances seem uncertain or challenging? Where there is doubt, pray for the strength to have unwavering faith, knowing that it is through faith that we connect deeply with the divine and experience the fullness of God's love and guidance.</t>
   </si>
   <si>
     <t>March 12, 2025</t>
   </si>
   <si>
-    <t>"Surely goodness and mercy shall follow me all the days of my life: and I will dwell in the house of the Lord forever." Reflect upon the profound promise contained within this verse. Contemplate how God's goodness and mercy are not just occasional gifts but constant companions in your journey. Consider the assurance that comes from knowing that you are never alone, for God's presence is with you always. Finally, meditate on the eternal home that awaits you in the presence of the Lord, allowing this promise to fill you with hope and deep peace.</t>
+    <t>Reflect upon the enduring presence of God's goodness and mercy in your life. Consider how, even in times of trial and hardship, His love and kindness have never left your side. As you move forward, embrace the reassurance that His divine care will continue to follow you all your days. Let this reflection instill in you a renewed sense of trust and gratitude for the unwavering companionship of the Lord.</t>
   </si>
   <si>
     <t>March 13, 2025</t>
   </si>
   <si>
-    <t>Reflect, today, upon the profound gift of the Holy Spirit as described in Romans 8:26: "Likewise the Spirit helps us in our weakness; for we do not know how to pray as we ought, but that very Spirit intercedes with sighs too deep for words." Contemplate the moments in your life when you feel confused, weak, or unsure how to communicate with God. Trust deeply in the Holy Spirit’s presence, guiding and interceding for you even when words fail. Embrace the comfort of knowing that in your vulnerability, the Spirit is interceding on your behalf, offering your innermost thoughts and concerns to God in a manner beyond human understanding. Allow this divine aid to strengthen your prayer life and deepen your reliance on God’s ever-present help.</t>
+    <t>Reflect on the beautiful and profound way in which the Spirit intercedes for us in our weakness. Consider those moments in your life when you are at a loss for words, overwhelmed by emotion or uncertainty. Understand that during those times, the Spirit knows your deepest needs and desires, even those unspoken. Trust in the Spirit's intimate knowledge of your heart and His ability to communicate with the Father on your behalf. Allow this to bring you peace and confidence, knowing that you are never alone in your prayers; even in silence, the Spirit is actively working for your good.</t>
   </si>
   <si>
     <t>March 14, 2025</t>
@@ -2270,171 +2268,169 @@
     <t>2 Corinthians 4:6</t>
   </si>
   <si>
-    <t>Reflect upon the profound truth contained in this verse: "For God, who said, 'Let light shine out of darkness,' made his light shine in our hearts to give us the light of the knowledge of God's glory displayed in the face of Christ." Consider how the same God who illuminated the cosmos has chosen to illuminate your heart with the knowledge of His glory. Reflect on how you can let this divine light shine forth from you, dispelling darkness and revealing the face of Christ to those around you. How are you allowing God’s light to transform your life and illuminate the lives of others?</t>
+    <t>Reflect upon the illuminating presence of God within your life, dispelling the darkness and radiating His glory. Consider how His light shines through your actions, words, and thoughts, revealing His divine love to the world. Ask yourself, in what ways can you nurture this light within you and allow it to shine even brighter, guiding others toward His truth and grace? Let His light constantly renew and transform you, becoming a beacon of hope and love for all those around you.</t>
   </si>
   <si>
     <t>March 15, 2025</t>
   </si>
   <si>
-    <t>"Commit your way to the Lord; trust in Him, and He will act." 
-Reflect upon the level of your trust and commitment to God. Are you genuinely surrendering your life and desires into His hands each and every day? Consider the areas of your life where you are holding back, relying solely on your own strength instead of trusting in God's providence. Pray for the grace to deepen your commitment and trust in the Lord, fully believing that He will act in accordance with His divine will and perfect timing.</t>
+    <t>Reflect upon the act of entrusting all your plans and cares to God. Consider the depth of your trust in His guidance and provision. Are you able to let go of your anxieties and place them confidently in His hands? Reflect on the peace that comes from surrendering to God's will and the assurance that He will act rightly in your life. Seek to deepen your trust and commitment, knowing that He is always faithful.</t>
   </si>
   <si>
     <t>March 16, 2025</t>
   </si>
   <si>
-    <t>Reflect on Joshua 1:9, which states, "Have I not commanded you? Be strong and courageous. Do not be afraid; do not be discouraged, for the Lord your God will be with you wherever you go." Today, ponder the areas of your life where fear and discouragement may hold you back. Consider how deeply you trust in God's presence and His command to be strong and courageous. Ask yourself what it means to truly believe that God is with you wherever you go. Allow this reflection to foster a renewed sense of strength and courage, knowing that you are not alone.</t>
+    <t>Reflect today upon the abiding presence of God in your life. Consider the ways in which you can embrace courage and strength, knowing that you are never alone in your journey. Ponder moments of fear and uncertainty and allow this reflection to infuse you with trust and confidence, assuring you that no matter what lies ahead, you are being guided and protected by a loving God. Confront the challenges before you with a renewed sense of determination and faith, stepping forward with the assurance that divine support and encouragement accompany you always.</t>
   </si>
   <si>
     <t>March 17, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the words of Romans 15:13, "May the God of hope fill you with all joy and peace as you trust in Him, so that you may overflow with hope by the power of the Holy Spirit." Consider the depth of joy and peace that comes from placing your trust completely in God. Reflect on areas of your life where you struggle to fully trust and invite the Holy Spirit to fill those areas with hope. Contemplate how this overflow of hope can impact not just your life but also radiate to those around you, becoming a beacon of God's love and promise to others.</t>
+    <t>Reflect upon the immense power and hope that comes from faith. Consider how trust in God fills you with joy and peace, even in times of trouble. Each day provides an opportunity to renew this trust, allowing the Holy Spirit to abound within you. As you go about your life, seek to be an instrument of this hope, spreading joy and peace to those around you. Let your faith be a beacon, illuminating the path for others toward the abundant life God offers.</t>
   </si>
   <si>
     <t>March 18, 2025</t>
   </si>
   <si>
-    <t>Reflect upon this verse: "This is the day that the Lord has made; let us rejoice and be glad in it." Take a moment to recognize the gift that each day offers. No matter the challenges or joys that come your way, remember that every day is a creation of God meant to be embraced with gratitude and joy. Reflect on how you can cultivate a spirit of rejoicing and gladness in your daily life, seeing each moment as an opportunity to experience God's presence and love. How can you bring this sense of rejoicing into your everyday actions and interactions with others?</t>
+    <t>This is the day the Lord has made; let us rejoice and be glad in it. Reflect, today, on the gift of each new day. Recognize it as a unique opportunity presented by God to embrace His grace, mercy, and love. Contemplate how you might spend this day with a heart full of gratitude, seeking to live fully in the present moment, and sharing joy and kindness with those around you. Embrace every moment as a blessed chance to deepen your relationship with the Lord.</t>
   </si>
   <si>
     <t>March 19, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the wisdom of Proverbs 19:21, which states, "Many are the plans in a person's heart, but it is the LORD's purpose that prevails." Consider how often you make plans and set goals based on your own desires and understanding. Reflect on the times when your plans did not come to fruition and how, in hindsight, God's purpose was revealed. Trust in the divine providence of the Lord and be open to surrendering your plans to His greater purpose, knowing that His ways are higher than our ways. Let this reflection lead you to greater faith and trust in God's perfect will for your life.</t>
+    <t>Reflect on the countless plans and aspirations you create throughout your life. While human intentions can be well-meaning and passionately pursued, it is essential to recognize the deeper workings of divine providence. Take a moment to consider how God's purpose subtly influences your path and the outcomes of your endeavors. Allow yourself to surrender more fully to His will, finding peace in the knowledge that His plans are greater and more perfect than anything you could conceive. Seek alignment with His divine purpose, trusting that in doing so, you are walking the true path set before you.</t>
   </si>
   <si>
     <t>March 20, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the invitation Jesus extends to us in this verse: "Come to me, all you who are weary and burdened, and I will give you rest." Consider the burdens that weigh heavily upon your heart and spirit. Jesus calls us to lay these burdens down before Him and to trust in His promise of rest. Reflect on how you can deepen your trust in Jesus' compassionate and restorative love. Ponder, too, whether you are willing to bring your struggles to Him and rest in His grace. Let His words be a source of comfort and renewal for your soul.</t>
+    <t>Reflect today upon the invitation to come to Jesus with all your burdens. Jesus offers us a rest that goes beyond the physical to a deep spiritual rest. Consider the stresses, anxieties, and hidden burdens that weigh upon your heart. Lay them down before Christ, and trust in His gentle care. Ask yourself, do I truly unburden myself to Jesus, or do I hold on to my struggles, thinking I must carry them alone? Allow yourself to find peace in His presence and accept the rest that only He can provide.</t>
   </si>
   <si>
     <t>March 21, 2025</t>
   </si>
   <si>
-    <t>Reflect, today, upon the profound truth that "We love because He first loved us." Ponder the immensity of God's love for you, a love that initiated everything and that continues to sustain you. Ask yourself how you can better respond to this divine love in your daily actions and interactions. Are there areas in your life where you can love more selflessly, more generously, more like Christ? Let this reflection guide you to deepen your love for others, acknowledging that every genuine act of love is a reflection of God's initial and boundless love for you.</t>
+    <t>Reflect upon the profound simplicity of love's origin and its effect in your life. Consider how the love you give and receive is rooted in a higher, divine love that precedes and surpasses all human affection. Take a moment to appreciate the ways in which you have been loved unconditionally, and how that love transforms and empowers you to love others selflessly. Let this divine love be the foundation of your relationships, inspiring you to reach out, forgive, and nurture those around you.</t>
   </si>
   <si>
     <t>March 22, 2025</t>
   </si>
   <si>
-    <t>Reflect, today, upon the profound reassurance found in the words, "The Lord is my light and my salvation; whom shall I fear? The Lord is the stronghold of my life; of whom shall I be afraid?" Ponder these declarations and recognize the deep sense of security and peace that comes from trusting wholeheartedly in God's protection and guidance. Assess your heart for any fears or anxieties that persist, and offer them up to the Lord, embracing the truth that with Him as your light and stronghold, you have no reason to fear. Allow this awareness to fill you with courage and confidence as you navigate through life's challenges.</t>
+    <t>Reflect upon the profound strength and unwavering confidence that comes from placing your trust in God. Consider the moments in your life where fear and uncertainty have cast shadows over your path. In those times, contemplate the divine light and protection that God offers. Ask yourself if you fully embrace this assurance and allow it to dispel your fears. Let this reflection guide you to deepen your faith and trust in God's unending support and guidance.</t>
   </si>
   <si>
     <t>March 23, 2025</t>
   </si>
   <si>
-    <t>Reflect today on this powerful verse: "Do not be anxious about anything, but in every situation, by prayer and petition, with thanksgiving, present your requests to God." Consider the anxieties and worries that burden your heart. Allow yourself to bring each one before the Lord in prayer. Are you able to entrust these concerns to God and trust in His divine providence? As you reflect, cultivate a spirit of thanksgiving, recognizing God’s continuous blessings and faithfulness in your life. Grow in the peace and assurance that comes from placing yourself and your worries in God's loving hands.</t>
+    <t>Reflect today on the beautiful call to trust and surrender completely to God in all aspects of life. In moments of worry or anxiety, pause and recognize the opportunity to turn to God in prayer. Rather than dwelling on concerns, take them to God with a spirit of gratitude, seeking His guidance and peace. Notice how this practice transforms your heart and mind, bringing a sense of calm and assurance that God is in control. Let this reflection guide you toward deeper faith and trust in God's loving care.</t>
   </si>
   <si>
     <t>March 24, 2025</t>
   </si>
   <si>
-    <t>Reflect on the words of Jesus in John 16:33: "I have told you these things, so that in me you may have peace. In this world you will have trouble. But take heart! I have overcome the world." In these words, Jesus offers both a warning and a profound reassurance. The warning is clear: life in this world will inevitably bring challenges and tribulations. The reassurance, however, lies in the victory that Jesus has already achieved over the world.
-Consider the troubles you face in your own life. Reflect on how you can find peace in Jesus amidst these difficulties. Ask yourself whether you truly trust in His victory and take heart in His promise. Where do you need more faith to overcome fear and anxiety? Reflect on how His triumph can change your perspective and bring you enduring peace, regardless of external circumstances.</t>
+    <t>Reflect upon the trials and tribulations you encounter in your daily life. Consider how, despite the challenges and adversities, there is always a source of peace and strength available to you. Contemplate the assurance that, no matter the depth of your difficulties, ultimate victory and solace are promised. Assess how you respond to life's struggles and strive to trust that overcoming them is not your burden alone but a shared journey with unwavering support. Embrace that profound peace and let it guide your heart through every circumstance.</t>
   </si>
   <si>
     <t>March 25, 2025</t>
   </si>
   <si>
-    <t>Reflect on the profound truth that "If God is for us, who can be against us?" This verse invites you to deeply consider the power and love of God standing on your side. Ponder the many challenges you face and realize that, no matter how formidable they may seem, they pale in comparison to the Almighty who supports you. This assurance should fill your heart with immense courage and confidence, motivating you to face every trial with faith and trust in God's eternal support. Let this reflection bolster your spirit today and every day.</t>
+    <t>Reflect upon the profound truth that if God is for us, no one can ultimately prevail against us. Consider how this reality impacts your daily life and your battles against doubt, fear, and adversity. Trust in God's unwavering support and love, and let that trust reinforce your courage and strength in the face of any challenge. Ponder how you can live more fully in the confidence that comes from knowing His presence and favor are with you always.</t>
   </si>
   <si>
     <t>March 26, 2025</t>
   </si>
   <si>
-    <t>Reflect on the depth of God's love as described in Romans 8:32: "He who did not spare His own Son, but delivered Him up for us all, how shall He not with Him also freely give us all things?" Meditate on this undeniable truth that God, in His infinite love, has given us the greatest gift—His own Son. If He has given us His Son, there is nothing He will withhold that is truly good for us. Consider how this assurance can deepen your trust in God and His provisions for every aspect of your life. Where doubt and fear creep in, let this verse remind you of the unparalleled generosity of God’s heart toward you.</t>
+    <t>Reflect upon the profound generosity and unfathomable love of God as demonstrated in this verse. Consider how far God has gone to express His love for you. If He has given His very best, His own Son, for your sake, what does this say about everything else you could possibly need or desire? Trust that He will undoubtedly provide all good things for your ultimate good. Examine your life to see where you might still harbor doubts or fears, and take comfort in the assurance that God's generosity knows no bounds.</t>
   </si>
   <si>
     <t>March 27, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the wisdom found in this verse: "Train up a child in the way he should go, and when he is old he will not depart from it." Consider the profound responsibility and privilege it is to guide and nurture the young. Reflect on the ways you can instill virtues, values, and faith in the hearts of the children around you. Contemplate your own upbringing and the principles that have shaped you into who you are today. Ask yourself, how am I being called to influence the next generation? Seek God's guidance and strength to be a faithful steward of this sacred duty.</t>
+    <t>Reflect upon the deep responsibility and privilege of guiding the young in their formative years. Contemplate the influence you have on their spiritual and moral development. Are you nurturing values that will lead them on the right path throughout their lives? Take time today to assess how you can be a better example and mentor, planting seeds of wisdom and faith that will grow and flourish long after they have left your immediate care.</t>
   </si>
   <si>
     <t>March 28, 2025</t>
   </si>
   <si>
-    <t>Reflect on your daily life and consider how your actions and choices shine a light on others. "Let your light shine before others, that they may see your good deeds and glorify your Father in heaven." Take a moment to examine whether your words and actions truly reflect the love and light of Christ. Ask yourself if you consciously strive to be a beacon of hope and goodness in the world, so that others may be drawn closer to God through your example. Seek God’s grace to help you become a living testimony of His goodness and mercy, inspiring others to glorify Him.</t>
+    <t>Reflect, today, upon how your actions and example can serve as a light to the world around you. Consider whether your daily conduct and decisions bring glory to God and encourage others to seek His love and wisdom. Ask yourself if you are a living testimony of faith through your deeds and interactions. Strive to let your light shine brightly, guiding others toward the goodness and grace of God in all circumstances.</t>
   </si>
   <si>
     <t>March 29, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the beauty and joy that accompanies a heart full of gratitude as you enter "His gates with thanksgiving, and His courts with praise." Consider how you can bring this same spirit of gratitude into your daily life, recognizing the countless blessings you have been given. Regularly express your thanks to God not only with words but through acts of kindness and love. Allow a heart of gratitude to transform your interactions, filling them with joy and thanksgiving.</t>
+    <t>Reflect upon the importance of approaching God with a heart full of gratitude and praise. As you enter into moments of prayer or worship, consider how thanksgiving and praise shape your relationship with the Divine. How might you cultivate an attitude of gratitude in every aspect of your life, recognizing God's presence in both the mundane and the extraordinary? Let each moment of thanksgiving open you up to deeper communion with the Divine, nourishing your spirit and filling your heart with joy.</t>
   </si>
   <si>
     <t>March 30, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the promise of renewed strength that comes to those who hope in the Lord, as described in Isaiah 40:31. Ponder whether you truly place your trust and hope in God, especially during times of weariness and hardship. Consider the imagery of soaring on wings like eagles, running without growing weary, and walking without fainting. Allow this powerful verse to inspire you to renew your hope in the Lord, trusting that He will provide you with the strength you need to rise above life's challenges. How might you better anchor your hope in God today and in the days to come?</t>
+    <t>Reflect upon the strength that comes from placing your hope and trust in the Lord. Consider how, in moments of weakness and fatigue, God promises to renew your strength and lift you up with His power. Think about times in your life when you have felt weary and how turning to God has helped you rise above those challenges. Allow this verse to inspire you to continually seek God's presence and rely on His unwavering support, knowing that with Him, you will find the endurance to soar above your struggles.</t>
   </si>
   <si>
     <t>March 31, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the profound wisdom of this verse: "Above all else, guard your heart, for everything you do flows from it." Consider how significant it is to protect and nurture your heart, ensuring it remains pure and aligned with God's will. Examine the influences you allow into your life and whether they cultivate virtue or lead you astray. Recognize the heart as the wellspring of life, guiding your actions, thoughts, and emotions. Commit to safeguarding it with diligence, relying on God's grace and wisdom to keep it centered on love, integrity, and righteousness.</t>
+    <t>Reflect on the importance of safeguarding your innermost thoughts and feelings, for they shape the course of your life. Consider whether your heart is focused on love, compassion, and truth, or if it is cluttered with negativity and distractions. As you go through your day, take moments to realign your heart with God's presence, ensuring that your actions and decisions stem from a place of purity and purpose. In doing so, you will find your path more aligned with His will and your life more fulfilling.</t>
   </si>
   <si>
     <t>April 1, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the steadfastness that Saint Paul calls for in this verse: "Therefore, my beloved brothers, be steadfast, immovable, always abounding in the work of the Lord, knowing that in the Lord your labor is not in vain." Consider your own life and the challenges you face daily. Are you standing firm in your faith despite difficulties and temptations? Reflect on the areas in your life where you can become more steadfast and immovable. Trust that your efforts in the service of God, no matter how small they may seem, are never in vain. Seek ways to abound in the work of the Lord, and let this assurance fuel your perseverance and dedication.</t>
+    <t>Reflect upon the steadfastness of your faith and the consistency of your dedication. It is essential to remain unwavering and diligent in your efforts to live a life that reflects your faith and commitment to God's work. Consider ways in which you can become more anchored, allowing your actions to be fruitful and meaningful. Ponder on how your perseverance can make an impact on those around you, and find strength in knowing that your labor, when done in the name of the Lord, is never in vain. Embrace the assurance that your dedication and efforts are part of a greater purpose and will yield eternal significance.</t>
   </si>
   <si>
     <t>April 2, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the words of Psalm 46:1, "God is our refuge and strength, an ever-present help in trouble." Consider how often you turn to God in times of distress and how deeply you rely on Him as your refuge. Reflect on the presence of God in your life as a constant source of support and strength. Ponder the assurance that no matter the troubles you face, God is always there, ready to offer His help. Allow this truth to fill you with peace and confidence, knowing that you are never alone in your struggles.</t>
+    <t>Reflect upon God as your refuge and strength. In moments of fear, uncertainty, or anxiety, how often do you actively seek His presence and draw upon His unwavering support? Consider the immense power that lies in truly believing in His constant help and protection. Allow this to guide you in trusting Him more fully, especially in times of trouble. Seek solace in knowing that God is always there, offering you the fortitude and courage you need.</t>
   </si>
   <si>
     <t>April 3, 2025</t>
   </si>
   <si>
-    <t>Reflect deeply upon the words of Romans 8:18: "I consider that our present sufferings are not worth comparing with the glory that will be revealed in us." Take a moment to contemplate the trials and sufferings you face in your life. In the midst of these struggles, remind yourself that they are temporary and incomparable to the eternal glory that awaits. Let this divine promise fill you with hope and resilience. Trust that God has a plan for you, and that your perseverance through hardship is shaping you for the glory that will one day be fully revealed.</t>
+    <t>Reflect on the struggles and sufferings you endure in life. They often feel overwhelming and all-consuming. Yet, when you hold these against the promise of the glory that awaits, remember that these sufferings are momentary and fleeting in the grand tapestry of your eternal journey. Let this perspective bring you both strength and hope. Trust in the joy and peace that lie beyond all temporal pain, allowing it to sustain you through every trial you face.</t>
   </si>
   <si>
     <t>April 4, 2025</t>
   </si>
   <si>
-    <t>Reflect today on what it means to be "the light of the world." Jesus calls each of us to shine brightly in a world that can often feel dark and heavy. Consider how your actions, words, and presence can illuminate the lives of others and bring the light of Christ into even the most shadowed corners. Are there areas in your life where your light is hidden or dimmed? Pray for the grace to let your light shine before others, not for your glory, but so that they may see your good works and give glory to your Father in heaven.</t>
+    <t>Reflect on what it means to be "the light of the world." Consider how your thoughts, actions, and words contribute to bringing light into the lives of others. Are you illuminating the path towards truth, kindness, and love? Reflect on small ways you can shine brighter each day, perhaps through acts of compassion, standing up for justice, or spreading joy in your community. Let your light be a guide not only for yourself but for all those you encounter, radiating the love and grace that you have received.</t>
   </si>
   <si>
     <t>April 5, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the unwavering presence of God in your life, as proclaimed in Psalm 46:5, "God is within her, she will not fall; God will help her at break of day." Contemplate the assurance and strength that comes from knowing that God dwells within you. No matter the challenges or trials you face, understand that divine help will arrive precisely when needed. Trust in His timing and allow this truth to inspire a profound sense of peace and stability in your heart.</t>
+    <t>Reflect on the presence of God within you and the strength that provides. In moments of difficulty or uncertainty, remember that God is ever-present and sustaining you. Consider what it means to have a constant divine support that won't fail you. How can this assurance influence the way you live your life and face your challenges? Contemplate the immense power and stability that comes from this divine presence, and let it encourage you to trust and find peace, no matter what comes your way.</t>
   </si>
   <si>
     <t>April 6, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the deeply comforting words of Jesus: "Peace I leave with you; my peace I give to you. Not as the world gives do I give to you. Let not your hearts be troubled, neither let them be afraid." Consider the source of true peace in your life. Ask yourself where you seek peace, and whether these worldly sources can ever truly satisfy your soul. Meditate on the unique and everlasting peace that only Christ can provide, and surrender your anxieties and fears to Him, trusting in His perfect love and calm assurance. Let this divine peace guard your heart and mind, guiding you in all that you do.</t>
+    <t>Reflect, today, upon the peace that Christ offers. This peace is unlike any peace the world can give; it's profound, enduring, and comes from a deep trust in His love and promises. Examine your heart and identify any areas where anxiety, fear, or unrest reside. Invite Christ into those spaces, asking Him to bestow His peace upon you. Reflect on the assurance that, no matter the challenges you face, His peace is with you, steadying and guiding you through all trials.</t>
   </si>
   <si>
     <t>April 7, 2025</t>
   </si>
   <si>
-    <t>Reflect today on the call to always be prepared to give an answer to everyone who asks you to give the reason for the hope that you have. This requires a heart that is deeply rooted in faith and trust in God. Consider how you can nurture and strengthen your own hope through prayer, study, and fellowship. More importantly, examine how you communicate this hope to others—with gentleness and respect. Are you prepared to share your faith and hope at any moment? Are you doing so with a loving and compassionate approach? Let this reflection guide you in becoming a beacon of hope and love in a world that desperately needs it.</t>
+    <t>Reflect on the call to always be prepared to give an explanation for the hope that you hold within yourself. Consider your daily life and interactions: are you living in a way that naturally invites questions about your hope and faith? Examine whether you are ready to respond with gentleness and respect when those questions arise. Seek God's guidance to develop a heart and mind that can articulate your faith clearly and lovingly, providing a testament to the transformative power of Christ in your life.</t>
   </si>
   <si>
     <t>April 8, 2025</t>
   </si>
   <si>
-    <t>Reflect today on the profound truth that you are "fearfully and wonderfully made." Take a moment to recognize and appreciate the unique qualities and gifts that God has bestowed upon you. Despite any feelings of inadequacy or self-doubt, remember that you are intricately crafted by the Creator with purpose and love. Embrace this divine design and reflect on how you can use your unique abilities to honor God and serve others. Let this reminder deepen your gratitude and inspire you to live out your God-given potential with confidence and humility.</t>
+    <t>Reflect on the profound truth that you are wonderfully made by God. Consider how this acknowledgment of your intrinsic worth shapes your self-image and your interactions with others. Recognize the beauty and purpose in your creation, and let this awareness guide you to live in a way that honors the gifts and uniqueness bestowed upon you by your Creator. Embrace your individuality and use it as a source of strength and confidence in your daily life.</t>
   </si>
   <si>
     <t>April 9, 2025</t>
   </si>
   <si>
-    <t>Reflect upon these comforting words, "When you pass through the waters, I will be with you; and when you pass through the rivers, they will not sweep over you. When you walk through the fire, you will not be burned; the flames will not set you ablaze." Consider the deep assurance God provides as we journey through life's inevitable challenges. Do you trust in His steadfast presence and protection when faced with your own personal trials? Allow this scripture to inspire in you a renewed faith and confidence that, no matter what adversities you encounter, God is always by your side, guiding and safeguarding you.</t>
+    <t>Reflect on the steadfast promise that no matter the trials and tribulations you face, God is unwaveringly present with you. In moments of deep waters, fiery challenges, or overwhelming obstacles, ponder the assurance of His protection and guidance. Consider how this divine accompaniment transforms your perspective on adversity. Are you relying on God's presence and strength in your life's difficulties, or are you leaning on your own understanding? Let this promise embolden you to walk without fear, trusting completely in His unfailing support and love.</t>
   </si>
   <si>
     <t>April 10, 2025</t>
   </si>
   <si>
-    <t>Reflect, today, on the words of Jesus: “Therefore do not worry about tomorrow, for tomorrow will worry about itself. Each day has enough trouble of its own.” Consider the ways in which you let anxiety and fear about the future dominate your present moment. Trust in God's providence and recognize that living fully in the present, grounded in faith, allows you to encounter God's grace more profoundly. Ask for the grace to release your worries into God's hands and to focus on living a life of trust and peace, one day at a time.</t>
+    <t>Reflect upon the peace and tranquility that comes from trusting in God's providence for your future. Consider how often you become overwhelmed with worry and anxiety about what lies ahead. Today, challenge yourself to relinquish those worries and entrust them to God, allowing His grace to calm your spirit. Rather than being anxious about the uncertainties of tomorrow, focus on the gift of today, and live fully in the present moment guided by faith and trust in God's provision.</t>
   </si>
   <si>
     <t>April 11, 2025</t>
@@ -2443,37 +2439,37 @@
     <t>Isaiah 43:19</t>
   </si>
   <si>
-    <t>Reflect deeply upon the promise that God is making through Isaiah: "Behold, I am doing a new thing; now it springs forth, do you not perceive it? I will make a way in the wilderness and rivers in the desert." Consider the new things that God may be doing in your life right now. Are there areas that appear desolate or challenging where God is ready to bring forth new life and hope? Open your heart to perceive God’s transformative work in your circumstances and trust in His ability to create pathways and provide sustenance even in the most unexpected places. Allow yourself to be filled with anticipation and faith in the newness that God promises.</t>
+    <t>Reflect on the new paths that God is creating in your life. Take a moment to consider areas where you feel something new beginning, even if it seems small or insignificant. Trust that God is working in unexpected ways to bring about change and renewal. Let go of the old and welcome the new opportunities and experiences with faith and gratitude. God's transformative power is at work, making a way where there seems to be none, and bringing streams of life to even the most desolate parts of your soul. Embrace this promise and move forward in hope.</t>
   </si>
   <si>
     <t>April 12, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the deep longing expressed in this verse: "One thing I ask from the Lord, this only do I seek: that I may dwell in the house of the Lord all the days of my life, to gaze on the beauty of the Lord and to seek him in his temple." Consider whether you possess such a singular focus on God in your life. Do you yearn to dwell in His presence and seek His beauty daily? Contemplate how you can cultivate a heart that desires nothing more than to be close to God, finding fulfillment and purpose in His presence alone.</t>
+    <t>Reflect upon the singular desire to dwell in the presence of God and to behold His beauty. Consider how you prioritize your pursuits and longings in daily life. Are they aligned with seeking the presence of God above all else? Contemplate what it means to truly seek after God's presence consistently and how this pursuit can transform your life and bring peace to your heart. Seek a deeper awareness of God's beauty in every aspect of your life and nurture a heart that continually yearns for His presence.</t>
   </si>
   <si>
     <t>April 13, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the virtue of patience and the wisdom gained through it, as highlighted in Proverbs 14:29: "Whoever is patient has great understanding, but one who is quick-tempered displays folly." Consider moments in your life where impatience led to regret or misunderstandings, and contrast them with times when patience allowed you to see a situation clearly and respond with grace. Ask God for the strength to cultivate more patience in your daily interactions so that you may grow in both understanding and peace.</t>
+    <t>Reflect on the virtue of patience and the wisdom required to remain calm in challenging situations. Consider how often you allow anger or frustration to dictate your reactions. Contemplate the consequences of these emotions and recognize that patience is a mark of understanding and maturity. Strive to practice patience daily, asking God for the grace to keep a cool spirit, trusting that this will bring about peace in your life and in the lives of those around you.</t>
   </si>
   <si>
     <t>April 14, 2025</t>
   </si>
   <si>
-    <t>Reflect upon this comforting verse from Philippians 4:19: "And my God will meet all your needs according to the riches of his glory in Christ Jesus." Take time to ponder the deep assurance found in these words. Do you truly trust that God is aware of and is meeting all your needs? Reflect on the areas of your life where you experience scarcity or anxiety, and bring those before God, believing in His abundant provision. Let this promise encourage your faith and reliance on God's unwavering care.</t>
+    <t>Reflect upon the profound assurance that God will supply all your needs. Consider the times you have been anxious or uncertain, and recognize how often His providence has provided for you. This promise calls for trust and surrender, reminding us that our true security rests not in worldly wealth or achievements, but in the boundless riches of His glory. As you ponder this, cultivate an attitude of gratitude and faith, confident that in every circumstance, God's provision is ever-present and abundant.</t>
   </si>
   <si>
     <t>April 15, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the profound assurance contained in this verse, "The Lord of hosts is with us; the God of Jacob is our refuge." In moments of turmoil and uncertainty, remember that God is our constant companion and protector. Contemplate the ways in which you can cultivate a deeper sense of trust in His presence and strength in your life. Let go of anxieties and fears, taking solace in the fact that you are never alone. Rejoice in the unfailing refuge God provides and commit to turning to Him in prayer whenever you feel overwhelmed.</t>
+    <t>Reflect upon the profound reality of God's presence in your life. Amidst the turbulence and uncertainties the world presents, there is a divine assurance that God stands with us. Take solace in knowing that His strength and protection are unwavering. In moments of anxiety or doubt, remind yourself of this eternal truth, allowing it to be the foundation upon which you find peace and confidence. Embrace His presence and let it fortify your spirit, acknowledging that you are never alone.</t>
   </si>
   <si>
     <t>April 16, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the essence of this verse, "Be joyful in hope, patient in affliction, faithful in prayer." Consider how you can embody joy even in times of uncertainty, finding strength and optimism in the hope that comes from faith. Examine your ability to remain patient and steadfast when faced with difficulties and challenges, trusting that these moments are part of God's greater plan. Lastly, reflect on your commitment to a life of prayer, making it a continuous and faithful dialogue with God. Strive to integrate these virtues into your daily living, letting them guide your actions, thoughts, and interactions with others.</t>
+    <t>Reflect today on your capacity for patience during moments of trial, your consistency in prayer, and your overall sense of hope. Consider how these three virtues are interconnected in your life. Are you allowing hope to fuel your patience and prayer? Are you persisting in prayer, especially when faced with difficulties? Let this be a moment to recommit to a hopeful, patient, and prayerful disposition. Reflect on where you might need more growth, and ask God for the grace to cultivate these virtues more deeply within yourself.</t>
   </si>
   <si>
     <t>April 17, 2025</t>
@@ -2482,13 +2478,13 @@
     <t>Zechariah 10:1</t>
   </si>
   <si>
-    <t>Reflect today upon the invitation to seek the Lord in prayer, especially during times of need. Zechariah 10:1 says, "Ask the LORD for rain in the springtime; it is the LORD who sends the thunderstorms. He gives showers of rain to all people, and plants of the field to everyone." Consider the times you have relied on your own strength instead of turning to God in prayer. Reflect on how God desires to bless you and provide for your needs, just as He sends rain to nourish the earth. Let this verse remind you to continually seek God’s provision and trust in His faithfulness. Are you bringing your needs and desires to God in prayer? Are you trusting that He will provide abundantly in His perfect timing?</t>
+    <t>Reflect on the source of all blessings and the importance of turning to God in times of need. When we seek assistance, it is crucial to remember to ask God for what we need with a trusting and faithful heart. Consider the areas of your life where you may be relying too much on worldly sources for fulfillment or guidance. Reaffirm your dependency on God, knowing that He alone has the power to provide exactly what you require in His perfect timing. Seek His presence and guidance earnestly, and open your heart to receive His abundant grace and blessings.</t>
   </si>
   <si>
     <t>April 18, 2025</t>
   </si>
   <si>
-    <t>Reflect on the words, "Commit your way to the Lord; trust in him and he will do this." Consider what areas of your life you have yet to fully surrender to God. Are there fears or anxieties that hold you back from placing your complete trust in Him? Reflect upon the invitation to commit your path, your decisions, and your entire being to the Lord. In doing so, remember that true surrender leads to divine action; God promises to work in your life when you fully trust in Him. Take a moment to pray for the grace to deepen your trust and to surrender more completely to His loving care.</t>
+    <t>Reflect upon the concept of trust and surrender in your life. Consider how often you try to control the outcomes of your actions instead of entrusting them to God. Identify areas where worry and fear take precedence over faith and courage. Contemplate the peace that comes from releasing your burdens and genuinely placing them in God's hands. Let today be a starting point for living with greater trust and less anxiety, knowing that God's plans are always for your good.</t>
   </si>
   <si>
     <t>April 19, 2025</t>
@@ -2497,7 +2493,7 @@
     <t>Isaiah 61:11</t>
   </si>
   <si>
-    <t>Reflect upon the imagery of a garden in full bloom used in Isaiah 61:11. Just as the earth brings forth its sprouts and a garden causes what is sown to sprout up, consider how God's grace and righteousness will sprout forth within your life and the lives of others. Reflect on how you might cultivate this spiritual garden through acts of kindness, faithfulness, and devotion, trusting that God's promises will come to fruition in due time. Seek to be a vessel through which God's righteousness and praise are sowed and to rejoice in witnessing its growth.</t>
+    <t>Reflect, today, upon the image of a garden flourishing and blossoming with life and beauty. Consider how God is at work within your soul, planting seeds of righteousness and praise. As you embrace His grace and nurture these seeds with prayer and fidelity, they will grow and bear fruit. Ponder, how you can more fully cooperate with God's work within you, allowing His righteousness to spring forth and His praise to be ever on your lips.</t>
   </si>
   <si>
     <t>April 20, 2025</t>
@@ -2506,79 +2502,79 @@
     <t>James 5:7</t>
   </si>
   <si>
-    <t>Reflect, today, upon the patience of the farmer as a metaphor for your own spiritual life. Just as the farmer waits for the precious fruit of the earth, being patient about it until it receives the early and late rains, consider how you are called to exhibit such patience in your own faith journey. Are you willing to nurture your faith with the same diligence and await God's perfect timing for His blessings to unfold? Take this time to evaluate where you may need more patience and trust in the Lord's promises, and ask for the grace to grow in steadfastness and endurance.</t>
+    <t>Reflect, today, on the virtue of patience. Consider how you await the unfolding of God's plans in your life. Are you able to trust in His timing with a serene heart, even when the outcomes are not immediately visible? Patience in faith is like the farmer cultivating the soil, steadfastly believing that the harvest will come in due time. Trust in God's wisdom and timing, and allow this trust to form a deep peace and endurance within your soul.</t>
   </si>
   <si>
     <t>April 21, 2025</t>
   </si>
   <si>
-    <t>Reflect upon Psalm 55:22, which invites us to “Cast your burden on the Lord, and he will sustain you; he will never permit the righteous to be moved.” Take a moment to identify the burdens that weigh upon your heart and mind. Reflect on how often you try to carry these burdens alone and the toll it takes on your spirit. Consider the profound trust and surrender required to hand these worries over to God. Meditate on the promise that He will sustain you and ensure that those who seek righteousness will not be shaken. Allow this verse to deepen your faith and reliance on God's unwavering support.</t>
+    <t>Reflect on the burdens you carry in your heart and mind. Take a moment to identify what weighs you down, whether it be worries, fears, or responsibilities. Consider the trust God invites you to have, the faith that assures you He is there to sustain and support you through every trial. Let go of your need to control everything and offer these burdens to Him, trusting that He will provide the strength and comfort you need. Embrace the peace that comes from knowing you are never alone in your struggles; God walks with you, ready to bear your burdens if only you will entrust them to Him.</t>
   </si>
   <si>
     <t>April 22, 2025</t>
   </si>
   <si>
-    <t>Reflect, today, upon the profound truth found in this passage: "Therefore, there is now no condemnation for those who are in Christ Jesus." Consider what it means to live without the burden of guilt and condemnation. How has the sacrifice of Christ set you free, and in what ways can you embrace and share this liberation with others? Contemplate the areas of your life where feelings of condemnation still linger, and allow the Holy Spirit to fill those spaces with His reassuring grace and peace.</t>
+    <t>Reflect today on the freedom that comes from living in the Spirit of God. Consider the areas of your life where you still feel bound by guilt, shame, or fear. Acknowledge that in Christ, there is true liberation, and embrace the assurance that no condemnation hangs over you. Let this truth sink into your heart, and allow it to transform the way you see yourself and others. Trust in God's unconditional love and forgiveness, and live each day with renewed hope and peace.</t>
   </si>
   <si>
     <t>April 23, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the profound significance of Jesus' words: "All authority in heaven and on earth has been given to me." Ponder what it means for Jesus to possess all authority and how this shapes your own response to His call. Consider the full trust and obedience that is due to Him. Are there areas in your life where you hesitate to acknowledge His supreme authority? Reflect on the possibility of surrendering more fully to His will, allowing His power to guide every aspect of your life.</t>
+    <t>Reflect upon the incredible authority that Jesus claims and the implications it has for your life. His authority is not just over some aspects but over all creation. Consider whether you fully accept His authority in every aspect of your life and decisions. Are there areas where you resist or ignore His sovereignty? Let this reflection lead you to a deeper surrender and trust in His all-encompassing power and love. Seek to align your will with His and find peace and guidance in acknowledging His supreme authority.</t>
   </si>
   <si>
     <t>April 24, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the relationships you hold dear in your life. Proverbs 18:24 states, "One who has unreliable friends soon comes to ruin, but there is a friend who sticks closer than a brother." Consider the quality of your friendships and the depth of your connections. Are you surrounded by reliable, faithful friends who support you through thick and thin? More importantly, do you embody the qualities of a true friend to others? Seek to cultivate relationships that reflect the unwavering loyalty and love described in this passage, remembering always that the ultimate friend who sticks closer than a brother is Jesus Himself.</t>
+    <t>Reflect upon the relationships in your life, especially those marked by true friendship. Consider the loyalty and support that these friends provide and how they reflect the steadfast love of God. Think about how you can also be a source of unwavering friendship to others, offering a consistent presence in times of need. Recognize the depth of connection that comes from nurturing such bonds, and strive to cultivate these relationships with care and genuine affection. Aim to be a friend who mirrors God's faithful and enduring love.</t>
   </si>
   <si>
     <t>April 25, 2025</t>
   </si>
   <si>
-    <t>Reflect on Psalm 46:7, which declares, "The Lord of hosts is with us; the God of Jacob is our fortress." Take a moment to ponder the unwavering presence of God in your life. Consider how this assurance that God is always with us can provide you with strength and peace, especially in times of trouble. Ask yourself: Do I take refuge in this divine fortress during moments of fear and uncertainty? Let this Scripture encourage you to trust in God's constant protection and to find rest in His unwavering support.</t>
+    <t>Reflect today upon the abiding presence of God in the midst of all life's challenges. Recognize that no matter what storm you face, God's steadfast love is with you, providing refuge and strength. Consider how often you rely on your own power versus seeking solace in His ever-present help. Take this moment to commune with God, acknowledging His unshakable presence in your life, especially during trials and tribulations. Let this assurance bolster your faith and guide you through any adversity.</t>
   </si>
   <si>
     <t>April 26, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the words, "Be kind to one another, tenderhearted, forgiving one another, as God in Christ forgave you." Consider how you are living out this call to kindness, tenderness, and forgiveness in your daily life. Are you holding on to grudges or finding it difficult to forgive? Take a moment to bring these feelings to God and ask for the grace to forgive as Christ forgave you. Let this verse be a guiding principle, leading you to act with compassion and mercy in all your interactions.</t>
+    <t>Reflect today on the transformative power of kindness and forgiveness. Embrace a heart that is tender and compassionate, ready to extend grace to others just as you have received it. Consider the impact that a forgiving spirit can have on your relationships and your own inner peace. How can you cultivate a forgiving and kind attitude in your daily interactions? Take a moment to identify someone in your life who could benefit from your forgiveness and make a conscious effort to offer it freely, seeking to build bridges of love and understanding.</t>
   </si>
   <si>
     <t>April 27, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the profound love that God has for the world, as expressed in the gift of His only Son. Ask yourself how deeply you grasp this infinite love and how it affects your daily life. Take a moment to consider the magnitude of this divine sacrifice and how you respond to it. How are you living out your faith in response to the boundless love God has shown you? Let this reflection inspire you to deepen your relationship with Him and to share that love with others.</t>
+    <t>Reflect on the overwhelming and unconditional love that God has for you, a love so profound that it led to an unparalleled sacrifice for the sake of your redemption. Consider the depth of this divine love and how it calls you to give yourself fully in response. How can you embody this love in your daily life, extending it to those around you? Ponder the transformative power of love and grace and let it inspire you to live a life of gratitude, faith, and service.</t>
   </si>
   <si>
     <t>April 28, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the words, "I have hidden your word in my heart that I might not sin against you." Consider the depth of this commitment to internalize God's word. As you reflect, ask yourself: How deeply have I embedded God's teachings into my own heart? Is the Scripture a guidepost in my daily actions and decisions? Strive to plant God's word so firmly within you that it becomes a natural part of who you are and propels you towards righteousness in every facet of your life.</t>
+    <t>Reflect upon the importance of internalizing God's Word deep within your heart. Ask yourself if you spend time truly meditating on and absorbing the teachings of the Scriptures. When God's Word is firmly planted within you, it becomes a source of guidance, comfort, and correction. It helps guard you against sin and shapes your actions and decisions to align more closely with His will. Consider how you can make God's Word a more integral part of your daily life so that it transforms you from within.</t>
   </si>
   <si>
     <t>April 29, 2025</t>
   </si>
   <si>
-    <t>Reflect today upon the virtues of righteousness and kindness as depicted in Proverbs 21:21: "Whoever pursues righteousness and kindness will find life, righteousness, and honor." Contemplate how actively you are seeking to embody these virtues in your daily life. Ponder the ways in which righteousness and kindness can lead to a fuller, more honorable life through the grace of God. Pray for the strength and discernment to live out these virtues authentically, and trust that through diligent pursuit, God will grant you life and honor.</t>
+    <t>Reflect upon the pursuit of righteousness and love in your daily life. Consider how, through seeking these virtues wholeheartedly, you open the doors to a fulfilling and meaningful existence. Contemplate where these values may be lacking in your actions and relationships, and make a conscious effort to embrace them more fully. Through this devotion, recognize how the rewards of life, honor, and prosperity follow naturally. Make an everyday commitment to actively seek and embody righteousness and love, and trust in the profound transformation that will ensue.</t>
   </si>
   <si>
     <t>April 30, 2025</t>
   </si>
   <si>
-    <t>Reflect upon these words: "Accept one another, then, just as Christ accepted you, in order to bring praise to God." Consider the profound love and acceptance that Christ has shown you, despite your flaws and imperfections. Ponder if you extend the same unconditional acceptance to others, especially those who may differ from you or challenge your preferences. Strive to welcome others into your life and community with the same open heart that Jesus has for you. In doing so, you glorify God and foster a spirit of unity and love.</t>
+    <t>Reflect upon the profound importance of accepting one another, just as Christ has accepted you. Consider how this acceptance is an expression of God's love and glory. Are there people in your life whom you find difficult to accept? Challenge yourself to see them through the eyes of Christ, offering them the same grace and welcome that He extends to you. By doing so, you actively participate in the glorification of God and foster unity within the community of believers.</t>
   </si>
   <si>
     <t>May 1, 2025</t>
   </si>
   <si>
-    <t>Reflect today upon the words, "Be still before the Lord and wait patiently for him." In this fast-paced world, it is often difficult to practice patience and stillness. Consider the times you have been restless or anxious, striving to control things on your own. Invite the Lord into those moments of unrest and ask for the grace to truly be still in His presence, trusting that His timing is perfect. Make a commitment to spend more time in quiet prayer, listening and waiting for God's voice and direction in your life.</t>
+    <t>Reflect, today, on the importance of resting in the presence of God and trusting in His timing. When you face challenges and feel the urge to take control, pause and surrender your anxieties to Him. Cultivate patience and remind yourself that God’s plans are always greater than your own. Find peace in the assurance that everything unfolds according to His divine wisdom.</t>
   </si>
   <si>
     <t>May 2, 2025</t>
   </si>
   <si>
-    <t>Reflect today on the comforting assurance God provides us with in Isaiah 41:13: "For I am the Lord your God who takes hold of your right hand and says to you, Do not fear; I will help you." Consider how often you are overwhelmed by fear and uncertainty in your life. Ponder what it means to allow God to take hold of your hand and guide you through these moments of anxiety. Trust in His promise to help you and bring His peace into your heart. Reflect on how you can embrace this divine support and move forward with courage and faith.</t>
+    <t>Reflect today on the tender care of God, who reaches out to hold your hand in times of fear and uncertainty. Consider the many moments in life when you have felt alone or overwhelmed, and remember that God is always there, offering support and strength. Trust in this divine presence and allow it to guide you through any challenges you face. Embrace the comfort that comes from knowing you are never truly alone.</t>
   </si>
   <si>
     <t>May 3, 2025</t>
@@ -2587,37 +2583,37 @@
     <t>Jeremiah 17:5</t>
   </si>
   <si>
-    <t>Reflect upon the words, "Cursed is the one who trusts in man, who draws strength from mere flesh and whose heart turns away from the LORD." Consider the ways in which you might sometimes place your trust in human capabilities and earthly assurances rather than the divine providence of God. Reexamine your heart and its inclinations—are you relying on your own strength or on the grace and guidance of the Lord? Seek to redirect and reaffirm your trust in God, allowing His wisdom and power to lead you in all things.</t>
+    <t>Reflect today on the tendency to rely on human strength and wisdom rather than seeking trust and guidance from God. Consider the times you have placed more confidence in your own abilities or the abilities of others instead of trusting in God's providence. Ponder the limitations of human understanding and the boundless nature of divine wisdom. In your moments of uncertainty, may you always be reminded to turn towards God, who provides surer guidance and unwavering support.</t>
   </si>
   <si>
     <t>May 4, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the deep comfort and assurance offered in this verse: "When the righteous cry for help, the Lord hears, and rescues them from all their troubles." Ponder the moments in your life when you felt overwhelmed and in distress. Remember how, in those times, God’s presence provided consolation and relief. Reaffirm your faith in His unwavering support and love. Consider how you might become more attuned to seeking God’s help in times of need and how you can help others recognize and receive God’s rescue in their lives.</t>
+    <t>Reflect upon the times in your life when you felt overwhelmed by struggles and hardships. Think of those moments when you cried out for help, seeking solace and rescue. Often, God's deliverance comes in subtle, unexpected ways. Take a moment today to recognize and appreciate the ways in which God has brought you through difficult times. Have faith and trust that, even in your current trials, God's steadfast love and salvation are ever-present. How can you remain open to God's deliverance in your daily life? Reflect on this and find comfort in knowing that you are never alone in your struggles.</t>
   </si>
   <si>
     <t>May 5, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the words, "In their hearts humans plan their course, but the Lord establishes their steps." Consider how often in life you make plans only to see them unfold differently than you expected. Reflect on the trust and surrender required to allow the Lord to guide your steps, even when it diverges from your own plans. Ask yourself, do I truly trust that God’s guidance will lead me to the path He has prepared for me? In moments of doubt or uncertainty, seek the grace to surrender your plans to God, knowing that He ultimately establishes the steps which will bring you to fulfillment and peace.</t>
+    <t>Reflect on the profound relationship between our intentions and God's ultimate plan for us. We make plans and seek to control our destiny, but it's vital to recognize that our lives are ultimately in God's hands. How often do we pause to surrender our dreams and ambitions to His guidance? Contemplate the peace that comes from trusting in God's path for us, knowing that even when our plans falter, His purpose prevails. Seek to harmonize your desires with His will, and find solace in the divine orchestration of your life's journey.</t>
   </si>
   <si>
     <t>May 6, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the nature of faith as described in Hebrews 11:1, "Now faith is the assurance of things hoped for, the conviction of things not seen." Consider the depth of your own faith. Do you truly hold an unwavering assurance in God's promises, even when they are not immediately visible or tangible? Ponder the moments in your life where faith has led you through uncertainty and how it has strengthened you. Let this reflection inspire you to deepen your trust in God, knowing that faith bridges the gap between hope and realization.</t>
+    <t>Faith is the assurance of things hoped for and the conviction of things not seen. Reflect today on the essence of your faith. Consider how deeply you trust in the things that are not visible or tangible. Ponder the areas of your life where doubt may creep in, and bring those uncertainties to God. Reflect on how living by faith can transform your outlook and actions. Let your hope be anchored in God's promises, even when the path ahead seems unclear.</t>
   </si>
   <si>
     <t>May 7, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the assurance and comfort contained in this verse. "Surely goodness and mercy shall follow me all the days of my life, and I will dwell in the house of the Lord forever." Ponder the profound promise that God's goodness and mercy are not fleeting but are constant companions in your life. Consider how this promise shapes your daily experiences and outlook. Are you living in awareness of His continual presence and care? Take time to express gratitude for this divine assurance and reaffirm your trust in God's eternal provision and love.</t>
+    <t>Reflect on the steadfastness of God's goodness and love in your life. Consider how His mercy and grace have pursued you through different seasons, always providing comfort and security. Take a moment to meditate on His continued presence in both the highs and lows, and let it fill your heart with gratitude. As you reflect, ask yourself how you can become a more faithful follower, continually dwelling in His house and embracing the peace that comes from His unwavering love.</t>
   </si>
   <si>
     <t>May 8, 2025</t>
   </si>
   <si>
-    <t>Reflect today on the beautiful truth revealed in Romans 8:26: "In the same way, the Spirit helps us in our weakness. We do not know what we ought to pray for, but the Spirit himself intercedes for us through wordless groans." Take comfort in knowing that the Holy Spirit is your constant companion, advocating for you even when you are unsure of what to ask for in your prayers. Consider how often you rely on your own understanding and efforts, and allow yourself to surrender to the guidance and intercession of the Spirit. Know that in moments of struggle and silence, the Spirit speaks on your behalf to God, conveying the deepest desires and needs of your heart. Let this knowledge bring you peace and encourage you to trust more fully in the Spirit's work within you.</t>
+    <t>Reflect on the profound gift of the Holy Spirit as our divine helper in times of weakness and uncertainty. Consider how often in your life you face moments where words are inadequate and you are unable to articulate your deepest needs and desires. Know that in these moments, the Spirit intercedes for you with groanings too deep for words. Reflect on the comfort and strength that this divine assistance provides, and seek to remain open to the Spirit's guidance and intercession in your daily life. Let this awareness deepen your trust in God's loving presence and support.</t>
   </si>
   <si>
     <t>May 9, 2025</t>
@@ -2626,74 +2622,73 @@
     <t>Luke 12:34</t>
   </si>
   <si>
-    <t>Reflect on the words, "For where your treasure is, there your heart will be also." Take a moment to contemplate what you value most in life. Are your treasures material goods, status, or fleeting pleasures, or do you prioritize things that are eternal, such as love, faith, and compassion? Your heart will undeniably follow what you treasure most. Assess your priorities and ask God to help you align your heart with the lasting treasures of His Kingdom.</t>
+    <t>Reflect on where your heart truly lies by evaluating your priorities and treasures in life. Are they of this world, tied to material possessions and fleeting pleasures, or are they rooted in the eternal truths of God's Kingdom? Consider how your daily choices, actions, and thoughts reflect what you truly value. Invite God to guide you in aligning your heart with His will, ensuring that your treasures are stored up not on earth, but in heaven.</t>
   </si>
   <si>
     <t>May 10, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the act of committing your way to the Lord and trusting in Him, as Psalm 37:5 advises. Think about the areas in your life where you still struggle with trust and surrender to God's will. Ask yourself if you fully commit your plans, hopes, and dreams to Him, or if you hold back in fear or uncertainty. Trust that when you place your life in God's hands and relinquish control, He will act in ways far greater than you can imagine. Let this verse inspire you to deepen your faith and truly rely on God's wisdom and guidance in all that you do.</t>
+    <t>Reflect on the journey of life and the path that lies before you. Are there areas of your life where you are hesitant to fully trust in God? Consider what it means to commit every aspect of your life to His guidance and care. As you meditate on this, ask yourself how you can better surrender your plans, worries, and desires to His divine will. Seek the peace that comes from knowing He will guide you in the right direction and provide for your every need.</t>
   </si>
   <si>
     <t>May 11, 2025</t>
   </si>
   <si>
-    <t>Reflect, today, upon the profound message of courage and strength found in Joshua 1:9: "Have I not commanded you? Be strong and courageous. Do not be afraid; do not be discouraged, for the Lord your God will be with you wherever you go." Consider the areas in your life where fear and discouragement may be holding you back. How can you surrender these fears to the Lord and trust in His constant presence and guidance? Let this verse remind you that God commands you to step out in faith, knowing that He is ever beside you, empowering you to overcome every challenge.</t>
+    <t>Reflect on the strength and courage that God calls you to embody in your daily life. Contemplate on the moments when fear and doubt attempt to take hold of your heart. Remember that God is with you wherever you go and that His steadfast presence should fill you with the resolve to face any challenge. Trust in His guidance and let your faith dispel any uncertainty, knowing that you are never alone in your journey.</t>
   </si>
   <si>
     <t>May 12, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the source of your hope. St. Paul prays, "May the God of hope fill you with all joy and peace in believing, so that by the power of the Holy Spirit you may abound in hope." Take a moment to ponder whether you truly find joy and peace through your faith. Seek a deeper connection with the Holy Spirit, asking for the grace to be filled with a hope that overflows, no matter the circumstances you face. In this way, you become a beacon of God's hope to others.</t>
+    <t>Reflect upon the hope that God desires to fill within your heart. Consider the areas of your life where you feel despair or uncertainty, and invite God's Spirit to bring joy and peace into those spaces. Trust in the power of the Holy Spirit to overflow within you, filling you with an unshakeable confidence in God's promises. Let this confidence bolster your faith and guide your actions, allowing you to radiate this divine hope to others in your life.</t>
   </si>
   <si>
     <t>May 13, 2025</t>
   </si>
   <si>
-    <t>Reflect on Psalm 118:24, which says, "This is the day the LORD has made; let us rejoice and be glad in it." Consider what it means to embrace each day as a unique gift from God. Are there moments when you take the day for granted, or do you intentionally seek to find joy and gratitude in all circumstances? Today, challenge yourself to view everything through a lens of thanksgiving and joy, acknowledging that God's hand is in every moment, making each day worthy of rejoicing.</t>
+    <t>Reflect upon the grace and opportunity encapsulated in each new day that God grants us. Contemplate how you may embrace this gift with a spirit of gratitude and joy, regardless of the challenges that may come. Seek to find the blessings in the present moment and express thanks for the endless possibilities to grow in faith and love today. Let this be a day where you choose to rejoice and offer praise to God, acknowledging His divine presence in every aspect of your life.</t>
   </si>
   <si>
     <t>May 14, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the words from Proverbs 19:21: "Many are the plans in the mind of a man, but it is the purpose of the LORD that will stand." Ponder today the plans and aspirations you hold within your heart. Consider how often these align with or differ from God's ultimate purpose for you. Reflect on the humility and trust required to surrender your plans to God's will, knowing that His purpose is the one that will prevail. Pray for openness to divine guidance and the wisdom to discern God's purpose in your life amidst your own desires and ambitions.</t>
+    <t>Reflect upon the plans and ambitions you hold in your heart. Consider how many of these plans originate from your own desires and how many are truly guided by the Lord’s will. While it is natural to make plans and seek direction, true wisdom lies in an open heart that seeks and submits to God's ultimate purpose. Contemplate the humility required to surrender your plans to God’s greater plan. Ask yourself, am I able to embrace divine redirection when my personal plans do not align with God's? Seek to cultivate a spirit of trust and surrender, knowing that God's purpose will always prevail over any human plan.</t>
   </si>
   <si>
     <t>May 15, 2025</t>
   </si>
   <si>
-    <t>"Come to me, all you who are weary and burdened, and I will give you rest."
-Reflect today upon the weariness and burdens you carry within your heart. Jesus invites you to come to Him and find true rest and peace in Him alone. Ask yourself whether you truly trust Him with your struggles and are willing to surrender them to His care. Take time to rest in Him, laying down every burden and trusting that His love and grace are sufficient for you. Where you hesitate, let His gentle invitation draw you closer to His heart.</t>
+    <t>Reflect upon the deep sense of peace and rest that Jesus offers to you. Consider the burdens and worries you carry in life, both big and small. Jesus calls you to come to Him with all of these struggles and to let go of their weight. Open your heart to this invitation and allow His presence to envelop you, offering you true rest and tranquility amidst life's challenges. Take a moment today to breathe deeply, release your anxieties, and feel the gentle embrace of His love.</t>
   </si>
   <si>
     <t>May 16, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the profound simplicity and depth of the words, "We love because he first loved us." Consider the nature of God's love for you—unconditional, sacrificial, and eternal. How does this divine love call you to love others in return? Reflect on your daily interactions and relationships. Are there areas where you struggle to love as God loves? Seek to root yourself in God's love, allowing it to transform your heart and actions, enabling you to extend that same love to everyone you encounter. Let this reflection inspire you to fully embrace and manifest the boundless love of God in your life.</t>
+    <t>Reflect on the profound reality that our capacity to love, in its truest form, is a direct response to the love we have first received from God. Take a moment to contemplate how fully and unconditionally God loves you, and let that realization become the foundation from which you extend love to others. Ponder any barriers that prevent you from fully embracing and reflecting this divine love. Seek to deepen your awareness of God's love in your life and let it inspire you to love more selflessly and generously every day.</t>
   </si>
   <si>
     <t>May 17, 2025</t>
   </si>
   <si>
-    <t>Reflect upon this powerful verse, "The Lord is my light and my salvation—whom shall I fear? The Lord is the stronghold of my life—of whom shall I be afraid?" Consider the fears and anxieties that challenge you daily. Contemplate the immense strength and protection that God offers you. Ponder whether you allow His light to guide you through the darkness and whether you truly rely on His salvation to dispel all fear. Seek to deepen your trust in the Lord as the unwavering stronghold of your life, casting aside all doubts and fears in His divine presence.</t>
+    <t>Reflect on the profound truth that the Lord is the guiding light and steadfast salvation in your life. In moments of fear and uncertainty, trust deeply that God's presence dispels all darkness and drives away all fears. Consider what areas of your life are still gripped by fear and invite God's light to shine upon them. Embrace the assurance that with the Lord as your strength, there is nothing and no one to fear. Let this awareness embolden you to face life's challenges with unwavering faith and courage.</t>
   </si>
   <si>
     <t>May 18, 2025</t>
   </si>
   <si>
-    <t>Reflect today upon the call to release all anxieties and worries into the hands of the Lord through prayer and supplication. \"Do not be anxious about anything, but in every situation, by prayer and petition, with thanksgiving, present your requests to God.\" Consider how often you allow your heart to be troubled by various concerns. This passage invites you to trust deeply in God's providence and to continually bring your needs before Him with a grateful heart. Ponder the peace that comes from trusting God's faithful provision and take a moment to practice this trust by surrendering your current worries to Him.</t>
+    <t>Reflect upon the call to bring your worries and anxieties before God with a heart full of gratitude. Consider whether you truly trust that God listens and cares for every detail of your life. In moments of stress, seek to replace anxiety with prayer and thankfulness, knowing that God offers peace beyond understanding. Ponder on how you can cultivate a habit of turning to God first in every situation, allowing His peace to guard your heart and mind.</t>
   </si>
   <si>
     <t>May 19, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the words of Jesus: "In the world you will have tribulation. But take heart; I have overcome the world." As you ponder this verse, consider the trials and tribulations you face in your own life and the lives of those around you. Reflect on the assurance that, despite the challenges and hardships, Jesus has ultimately triumphed over the world. Let this victory of Christ instill in you a sense of peace and unwavering hope. Seek to deepen your trust in Him and find joy in the knowledge that His victory is also your victory. What steps can you take today to embrace this promise more fully and to share this message of hope with others facing their own struggles?</t>
+    <t>Reflect on the words of encouragement and the promise of peace that come from Jesus. In your moments of tribulation and uncertainty, remember that He has overcome the world. Let this divine assurance embolden you to face life's challenges with a heart full of hope and trust. Lean on this victory and find solace in the truth that no matter how daunting the trials, the presence and promise of Christ are always greater.</t>
   </si>
   <si>
     <t>May 20, 2025</t>
   </si>
   <si>
-    <t>Reflect, today, on the profound and unwavering truth contained within Romans 8:31: "If God is for us, who can be against us?" Contemplate the immense love and protection that comes from being embraced by God Himself. In moments of doubt or fear, recall this divine assurance. Examine areas in your life where you may feel threatened or unsupported, and invite God's presence into those spaces. Let this promise embolden you to move forward with faith and confidence, knowing that with God by your side, no obstacle is insurmountable.</t>
+    <t>Reflect upon the question, "If God is for us, who can be against us?" Take a moment to internalize the profound truth that the Creator of the universe is on your side. Contemplate the trials and difficulties you face and recognize that with God by your side, there is no challenge too great and no obstacle insurmountable. Let this truth instill in you a profound sense of courage and unwavering faith. Live each day with the assurance that you are not alone, for the Almighty stands with you in every moment.</t>
   </si>
   <si>
     <t>May 21, 2025</t>
@@ -2702,67 +2697,67 @@
     <t>John 3:5</t>
   </si>
   <si>
-    <t>Reflect today upon Jesus’ words, “Very truly I tell you, no one can enter the kingdom of God unless they are born of water and the Spirit.” Consider the significance of being born again through water and the Spirit. This rebirth in Christ signifies a profound transformation and a complete renewal of life. Ask yourself if you are living as one who has been made new in Christ. Are you open to the sanctifying grace of the Holy Spirit, allowing it to guide you each day? Pray for the grace to fully embrace this rebirth and walk steadfastly on the path of holiness toward the Kingdom of God.</t>
+    <t>Reflect upon the spiritual rebirth that Jesus speaks of. Contemplate the profound transformation that comes through the waters of baptism and the outpouring of the Holy Spirit. How have you experienced this new birth in your own life? Consider the areas in which you still need to allow the Spirit to work within you, purifying and renewing your heart. Embrace the gift of this new life, and live each day with the awareness that you are a child of God, born from above.</t>
   </si>
   <si>
     <t>May 22, 2025</t>
   </si>
   <si>
-    <t>Reflect today on the profound responsibility we bear in guiding the younger generation. "Train up a child in the way he should go: and when he is old, he will not depart from it." Contemplate the ways in which you are nurturing and mentoring those who come after you. Are you instilling values and principles that reflect God's love and wisdom? Consider the importance of your influence and the lasting impact it can have on a child's life. Pray for the grace to be a positive and guiding light, leading them on the path that God has laid out for them.</t>
+    <t>Reflect on the incredible responsibility and privilege that comes with guiding and nurturing the young. Consider how your actions, words, and examples shape their paths and impact their futures. Take a moment to examine whether you are leading with wisdom, love, and integrity. Pray for the strength and insight to be a positive influence in their formative years, understanding that the seeds you plant now can bear fruit for a lifetime.</t>
   </si>
   <si>
     <t>May 23, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the call to be a light in the world, shining brightly for others to see. Consider how your actions and words reflect the love and truth of God. Are you allowing your light to shine before others, so they may see your good deeds and glorify your Father in heaven? Take time today to identify specific ways you can let your light shine more clearly, drawing others closer to God through your example. Seek the grace to be a beacon of hope and love in a world that is in need of Christ's light.</t>
+    <t>Reflect upon the light that Christ has kindled within you through the Spirit. Consider how your actions, words, and demeanor can reflect this light to the world around you. Are you allowing this light to shine brightly and unrestrained, or are you hiding it away due to fear, embarrassment, or apathy? Commit to living in such a way that others may see God's love and grace through your deeds, thereby honoring and glorifying your Father in heaven. Seek to be a beacon of hope and truth in a world that is often overshadowed by darkness.</t>
   </si>
   <si>
     <t>May 24, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the call to enter into God's presence with thanksgiving and praise. Consider how often you come before the Lord with a heart full of gratitude and worship. Do you take the time to acknowledge His many blessings and express genuine thankfulness? Reflect on your prayers and praises, and seek to cultivate a heart that consistently overflows with gratitude to the Lord. "Enter his gates with thanksgiving and his courts with praise; give thanks to him and praise his name." Let this verse be a guiding principle in your daily walk with God.</t>
+    <t>Reflect upon entering into the presence of the Lord with a heart full of gratitude and joy. Consider how often you approach God with a sense of thanksgiving and praise. Contemplate the attitude with which you step into prayer or worship, and strive to cultivate a spirit that consistently acknowledges God's goodness and faithfulness. Let your heart be uplifted by the understanding that every moment in His presence is an opportunity to offer thanks and rejoice.</t>
   </si>
   <si>
     <t>May 25, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the profound promise contained within Isaiah 40:31: "But those who hope in the Lord will renew their strength. They will soar on wings like eagles; they will run and not grow weary, they will walk and not be faint." Consider what it means to place your hope and trust fully in the Lord. In moments of fatigue and discouragement, bring to mind the assurance that God provides the strength necessary to persevere. Just as the eagle soars upon the wind, let your spirit be lifted by the grace and love of God. Contemplate how you can renew your strength through faith and patience, leaning on the eternal promises of our compassionate Creator.</t>
+    <t>Reflect upon the promise of renewed strength and renewed hope that comes from relying on God. Consider the areas of your life where you feel weary or burdened and meditate on how you can surrender those to God. Trust that in waiting upon the Lord, you will find the strength to rise above challenges, gain new perspective, and continue forward with a renewed spirit. Embrace this period of waiting as a time of growth and transformation, knowing that God is faithful and will lift you up.</t>
   </si>
   <si>
     <t>May 26, 2025</t>
   </si>
   <si>
-    <t>Reflect, today, upon how diligently you guard your heart, for it is the wellspring of life. Examine the thoughts, desires, and emotions that flow from within you. Contemplate whether they reflect the purity and love of God, or if they are tainted by negativity and worldly influences. Resolve to protect your heart by immersing it in prayer, Scripture, and virtuous living, so that from it may flow rivers of life and grace.</t>
+    <t>Reflect upon the importance of closely guarding your heart, recognizing it as the wellspring of your thoughts, words, and actions. Consider how the state of your heart reflects your spiritual well-being and influences every aspect of your life. Ponder areas where your heart may need more of God’s love, truth, and wisdom, and commit to nurturing a heart that is aligned with His will and purpose.</t>
   </si>
   <si>
     <t>May 27, 2025</t>
   </si>
   <si>
-    <t>Reflect, today, upon the steadfastness that Paul speaks of in this verse. Are you standing firm in your faith and work in the Lord? Consider whether you give yourself fully to the work of the Lord, knowing that your labor in the Lord is not in vain. Ask yourself if you truly believe that everything done in faith and for God's glory has eternal value. Let this reflection encourage you to remain immovable, always abounding in God's work, fully trusting that He sees and values your efforts.</t>
+    <t>Reflect upon your own sense of steadfastness and dedication to the work and calling that you believe God has placed in your life. Consider if you are truly unmovable in the face of challenges and if you are abounding in your labor for the Lord. Are there areas where you find it difficult to remain consistent and committed? Seek the strength and support you need to stand firm and excel in your devotion, knowing that your efforts are never in vain when grounded in faith and love.</t>
   </si>
   <si>
     <t>May 28, 2025</t>
   </si>
   <si>
-    <t>Reflect, today, upon the profound truth that "God is our refuge and strength, an ever-present help in trouble." Consider the areas of your life where you may feel vulnerable, shaken, or challenged. In these moments, allow yourself to lean on God's unwavering support and draw strength from His presence. Trust that God is not just a distant protector but an ever-present help, intimately involved in your struggles and triumphs. Let this awareness transform how you face difficulties, anchoring your heart in His steadfast love and reliable refuge.</t>
+    <t>Reflect upon the profound comfort and assurance found in God's ever-present help, especially in times of trouble. Consider the moments in your life when you have felt overwhelmed or fearful. In those moments, did you turn to God as your source of strength and refuge? Allow yourself to rest in the knowledge that, regardless of the challenges you face, God's unwavering support is always available. Ponder how you can cultivate a deeper trust in His presence and lean on Him more fully in your daily life.</t>
   </si>
   <si>
     <t>May 29, 2025</t>
   </si>
   <si>
-    <t>Reflect, today, upon the profound hope offered in this passage: “I consider that our present sufferings are not worth comparing with the glory that will be revealed in us.” Contemplate your own struggles and suffering, and hold them up against the promise of the glory that God has prepared for you. Allow this divine promise to provide you with strength and perspective, understanding that whatever trials you face now are temporary and will be eclipsed by the eternal joy and glory that await you in God's presence.</t>
+    <t>Reflect today on the trials and sufferings you encounter. They may seem overwhelming at times, but always remember there is a greater purpose and glory that will come from enduring these hardships with faith and trust in God. Visualize the future glory that God promises, and let that vision fill you with hope and perseverance. Trust that every challenge you face today is a stepping stone toward a greater, eternal joy that awaits you.</t>
   </si>
   <si>
     <t>May 30, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the powerful statement made by Jesus: "You are the light of the world." Consider the ways in which your life illuminates the path for others. Do you shine with love, kindness, and mercy, bringing hope and guidance to those around you? Reflect on any areas of your life that may be dim or shadowed by negativity or sin, and seek God's grace to remove these obstacles. Allow the light of Christ to radiate through you, so that others may see His presence and be drawn closer to Him through your example.</t>
+    <t>Reflect on the profound truth that, as followers of Christ, you are called to be a light in this world. Consider the ways in which your actions, words, and presence can illuminate the lives of others. Think about the dark places in your community, your family, or even within your own heart that need the gentle but persistent glow of Christ's love and truth. How can you shine more brightly? How can you encourage others to let their light shine as well? Seek to become more aware of your role in dispelling darkness and bringing the hope and joy of Christ to those around you.</t>
   </si>
   <si>
     <t>May 31, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the profound assurance that “God is within her, she will not fall; God will help her at break of day.” This verse speaks to the unshakable presence of God within His people and His unwavering support in times of need. As you ponder this, consider the areas of your life where you feel vulnerable or uncertain. Trust that God’s presence is with you, making you resilient and steadfast. Embrace this divine promise, and let it strengthen your faith, knowing that God’s help is ever-present and that He will uplift you at the dawn of each new day.</t>
+    <t>Reflect upon the security and strength that comes from knowing that God is always within you, providing support during times of trouble. Consider the confidence you can have when faced with life's challenges, knowing that God will not abandon you or let you fall. Allow this assurance to deepen your faith and trust in His ever-present help and protection. In moments of doubt or fear, remind yourself of this steadfast presence, and let it inspire courage and resilience within you.</t>
   </si>
   <si>
     <t>June 1, 2025</t>
@@ -2771,31 +2766,31 @@
     <t>Revelation 3:5</t>
   </si>
   <si>
-    <t>Reflect upon this promise from Revelation 3:5: “The one who is victorious will, like them, be dressed in white. I will never blot out the name of that person from the book of life, but will acknowledge that name before my Father and his angels.” Consider what it means to be victorious in faith and to live a life worthy of being acknowledged before God. Reflect on the areas of your life where you struggle and seek God's strength to overcome those challenges. Rejoice in the promise that through Christ, your name is secure in the book of life and that you are destined for eternal communion with God.</t>
+    <t>Reflect on the promises given to those who remain faithful and overcome the trials of life. Consider how perseverance in faith, amidst the challenges you encounter, leads to a profound sense of spiritual victory and eternal security. Ask yourself, in what areas of your life is God calling you to remain steadfast and patient? Let the promise of spiritual reward motivate you to continue the journey with unwavering faith.</t>
   </si>
   <si>
     <t>June 2, 2025</t>
   </si>
   <si>
-    <t>Reflect today on the call to always be prepared to give a reason for the hope that is within you. Consider how well you live out this command in your daily life. Are you ready to genuinely and respectfully share your faith when the opportunity arises? Do you seek to understand your beliefs more deeply so you can explain them to others with gentleness and respect? Let this verse inspire you to deepen your understanding of your faith and to be a witness of hope to those around you.</t>
+    <t>Reflect upon the importance of being prepared to share your faith with gentleness and respect. Consider how you can cultivate an inner peace and confidence that stems from your relationship with God, enabling you to respond gracefully and thoughtfully when asked about your beliefs. Contemplate how your daily actions and words bear witness to the hope that you have, and strive to live in such a way that others are inspired to seek the Source of your hope.</t>
   </si>
   <si>
     <t>June 3, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the amazing truth that you are fearfully and wonderfully made. Recognize the incredible handiwork of God in your creation. Take a moment to appreciate the unique and intricate design of your being, acknowledging that God has crafted you with purpose and care. Allow this knowledge to deepen your sense of self-worth and to inspire gratitude and awe for the Creator. Embrace your individuality, understanding that each detail of who you are is a masterpiece of divine love and wisdom.</t>
+    <t>Reflect upon the incredible truth that you are fearfully and wonderfully made. Take a moment to consider the unique gifts and talents that reside within you—gifts that were intricately woven by the Creator. In times of self-doubt or struggle, remember this divine craftsmanship. Let it bolster your confidence and guide you toward a deeper appreciation of your worth and purpose. Embrace the identity bestowed upon you as a magnificent creation, and reflect that understanding in how you live and interact with others.</t>
   </si>
   <si>
     <t>June 4, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the profound promise found in Isaiah 43:2: “When you pass through the waters, I will be with you; and through the rivers, they shall not overwhelm you; when you walk through fire you shall not be burned, and the flame shall not consume you.” Consider the trials and challenges you face in your life and remind yourself of God's unwavering presence and protection. No matter how overwhelming or dire the circumstances may seem, God's assurance provides a sanctuary of peace and hope. Ponder on His steadfast companionship and let it bring you comfort and strength to navigate through life's adversities.</t>
+    <t>Reflect upon the times in your life when you have felt overwhelmed by challenges or fears. Isaiah assures us that God walks with us through the trials and tribulations, protecting and guiding us. Contemplate God's unwavering presence in your life, especially during the stormy moments. Where do you need to trust in His protection and Providence more fully? Let His promise of companionship and safety fill you with peace and courage, knowing you are never alone.</t>
   </si>
   <si>
     <t>June 5, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the words of Jesus in Matthew 6:34, "Therefore do not worry about tomorrow, for tomorrow will worry about itself. Each day has enough trouble of its own.” Consider the moments in your life when anxiety about the future has stolen your peace and joy in the present. Reflect on how often you trust God to provide for your needs today and release your future into His loving hands. Allow this passage to remind you that God’s grace is sufficient for each day, and that living in the present moment is a gift. Commit to trusting in God more fully, and to placing your worries in His hands so you can embrace the peace He offers right now.</t>
+    <t>Reflect upon the concept of living in the present moment and trusting in God's providence for your future. Are you often caught up in worries and anxieties about what tomorrow may bring? Consider how much peace you could find if you placed your trust entirely in God's plan for your life. Take time today to let go of your future concerns and entrust them to God, embracing the grace He offers for today.</t>
   </si>
   <si>
     <t>June 6, 2025</t>
@@ -2807,37 +2802,37 @@
     <t>Job</t>
   </si>
   <si>
-    <t>Reflect upon Job 19:25 where Job declares, "I know that my Redeemer lives, and that in the end he will stand on the earth." Consider the deep faith and hope that Job holds onto despite his immense suffering and trials. Ask yourself if you possess such unwavering trust in God during your own times of hardship. Reflect on how the belief in a living Redeemer can transform your outlook on life's most challenging moments. Allow this conviction to reinvigorate your spirit and strengthen your faith, knowing that ultimately, God will stand victorious over all life's struggles.</t>
+    <t>Reflect on the certainty and hope that comes from knowing that God is alive and sovereign. Despite the adversities and trials in your life, firmly anchor your trust in the Lord’s ultimate justice and power. Let this awareness strengthen your faith, knowing that your Redeemer will stand with you and for you, bringing redemption and peace. Consider the depth of your belief in His presence, and allow this truth to offer you comfort and strength in times of trouble and despair.</t>
   </si>
   <si>
     <t>June 7, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the desire expressed in this verse: "One thing I ask from the Lord, this only do I seek: that I may dwell in the house of the Lord all the days of my life, to gaze on the beauty of the Lord and to seek him in his temple." Ponder the depth of this longing to be in continuous communion with God. How strong is your desire to dwell in God's presence and seek His beauty daily? Take time to contemplate how you can cultivate a more profound and steadfast connection with the Lord amidst the busyness of life. Let this verse inspire you to strive for a deeper spiritual intimacy and an unwavering focus on the Divine.</t>
+    <t>Reflect today upon the singularity of your life's focus. Consider what you truly seek above all else. Is your ultimate desire to know, love, and be with God in all things? Examine the extent to which this desire shapes your daily actions, decisions, and relationships. Let your soul yearn for a deeper communion with God, allowing this hunger to guide your heart and infuse every aspect of your existence with divine purpose and peace.</t>
   </si>
   <si>
     <t>June 8, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the virtue of patience and the wisdom it brings to our lives. Consider how often we react impulsively rather than calmly when faced with challenges or provocations. "Whoever is patient has great understanding, but one who is quick-tempered displays folly." Reflect on the times when you have allowed impatience or anger to control your actions. Ask God for the grace to cultivate patience in your heart, understanding that true wisdom often requires us to be slow to anger and rich in compassion.</t>
+    <t>Reflect upon the value of patience and the strength required to maintain composure in moments of anger. Consider how practicing restraint and seeking understanding in such times can lead to wisdom and peace. Ponder the impact that a calm and steady heart can have on your relationships and spiritual journey, and seek the grace to cultivate such patience in your daily life.</t>
   </si>
   <si>
     <t>June 9, 2025</t>
   </si>
   <si>
-    <t>Reflect on the profound assurance given in Philippians 4:19: "And my God will meet all your needs according to the riches of his glory in Christ Jesus." Pause to consider the depth of trust and faith this verse invites you to embrace. Do you fully trust that God will provide for all your needs, both spiritual and material, out of His abundant riches? Reflect on the areas in your life where you might struggle with doubt or worry about provision. Let this verse remind you of God's unwavering faithfulness and allow your heart to rest in His promises, knowing that He truly is your provider in every circumstance.</t>
+    <t>Reflect upon the confident assurance that God will provide for all your needs. Consider where trust in God's provision might be lacking in your life. Are there areas where you are trying to rely solely on your own strength or resources? Ponder the depth of God's love and His desire to care for you. Allow this trust to grow within you, and let it transform the way you face challenges and uncertainties. Step forward with renewed faith that God is always with you, fulfilling all that you truly need.</t>
   </si>
   <si>
     <t>June 10, 2025</t>
   </si>
   <si>
-    <t>Reflect today upon the profound truth that "The LORD Almighty is with us; the God of Jacob is our fortress." In moments of uncertainty or fear, recite these words and let them resonate deeply within your heart. Remind yourself that no matter what challenges you face, God’s presence is steadfast and unwavering. Take comfort in His ability to be your stronghold, providing you with the strength and protection you need. Let this verse inspire a deeper trust and reliance on God's everlasting support.</t>
+    <t>Reflect on the profound reassurance that comes from knowing the Lord is always with us. In times of turmoil and uncertainty, recognize His presence as a fortress and source of strength. Consider how often you turn to God in both your moments of weakness and in your moments of triumph. Allow His unwavering support to embolden you, fortifying your heart and mind with peace and confidence. In your daily life, meditate on His constant companionship and seek to remain grounded in the solace and courage that His presence provides.</t>
   </si>
   <si>
     <t>June 11, 2025</t>
   </si>
   <si>
-    <t>Reflect on the guidance St. Paul provides in Romans 12:12: "Be joyful in hope, patient in affliction, faithful in prayer." Consider the current state of your life and how these virtues can be applied to your daily existence. Do you hold onto hope with joy, even in challenging times? Are you patient through life's trials and sufferings, trusting in God's plan? How consistent and fervent is your prayer life? Embrace the call to cultivate joy, patience, and faith as pillars that will support and sustain you in your spiritual journey.</t>
+    <t>Consider the trials and challenges you face in your daily life. Reflect upon how you approach these moments—are you able to remain joyful, patient, and faithful in the face of adversity? True joy doesn't depend on our circumstances but on our relationship with God. Patience is cultivated through trust in His perfect timing. Faithfulness in prayer keeps us connected to His grace and strength. Evaluate how you can deepen these virtues, and allow His Spirit to guide you through every trial with an unwavering heart.</t>
   </si>
   <si>
     <t>June 12, 2025</t>
@@ -2846,13 +2841,13 @@
     <t>Isaiah 46:9</t>
   </si>
   <si>
-    <t>Reflect today on the powerful declaration of God in Isaiah 46:9: "Remember the former things of old; for I am God, and there is no other; I am God, and there is none like me." Consider the uniqueness and sovereignty of God in your life. Contemplate His faithfulness throughout history and His unchanging nature. Let this reflection deepen your trust in His divine plan and inspire you to surrender more fully to His will, knowing that He alone is God, incomparable and steadfast.</t>
+    <t>Reflect upon the significance of remembering the mighty works and infinite wisdom of God throughout history. Consider how often you recall the countless times God has shown His power and deliverance in your life and the lives of others. Let this remembrance strengthen your faith and trust in His eternal plan and sovereignty. Allow it to bring you peace, knowing that the same God who has guided you thus far will continue to lead and support you in all things.</t>
   </si>
   <si>
     <t>June 13, 2025</t>
   </si>
   <si>
-    <t>Reflect on the verse: "Commit your way to the Lord; trust in him and he will do this." Consider the areas of your life where you have been holding back, unsure if you can fully commit or trust in God's plan. Ponder any anxieties or fears that prevent you from surrendering completely to His will. Ask yourself if you truly believe in His power to guide and provide for you. Spend time in prayer, asking for the grace to let go and place everything in God’s hands, trusting that He will lead you toward what is best for you.</t>
+    <t>Reflect upon the act of committing your way to the Lord, trusting in Him, and allowing Him to act in your life. How often do you truly surrender your plans and desires to God's will, finding peace in the knowledge that He will bring about what is best for you? Consider the depth of your trust in God and resolve to deepen it, knowing that His understanding and love for you surpass all else.</t>
   </si>
   <si>
     <t>June 14, 2025</t>
@@ -2861,7 +2856,7 @@
     <t>1 Peter 4:14</t>
   </si>
   <si>
-    <t>Reflect, today, on the words of 1 Peter 4:14: "If you are insulted for the name of Christ, you are blessed, because the Spirit of glory and of God rests upon you." It is a profound reminder that suffering or persecution for the sake of Christ is not a burden, but a blessing. When we face trials and insults because of our faith, we should see it as a confirmation that God's Spirit is within us. Consider how you respond to these challenges in your own life. Do you allow them to strengthen your bond with Christ, embracing the blessing that comes with being identified with Him? Let this verse encourage you to find joy and strength in the midst of any opposition you encounter for your faith.</t>
+    <t>Reflect upon the moments when you have faced opposition, ridicule, or suffering for your faith. Peter reminds us that such trials are a blessing because they signify that the Spirit of glory and of God rests upon us. Are there times when you have hidden your faith to avoid conflict or discomfort? Consider, instead, embracing these moments as an opportunity to align more closely with Christ. Allow the presence of God's Spirit to fill you with strength, and let it be evident to others, even in the face of adversity. Recognize that your trials for the sake of righteousness are a testament to your deep connection with God.</t>
   </si>
   <si>
     <t>June 15, 2025</t>
@@ -2873,115 +2868,115 @@
     <t>103</t>
   </si>
   <si>
-    <t>Reflect upon the tender compassion a parent has for their child. Psalms 103:13 serves as a reminder of the boundless mercy God extends toward us, His children. Meditate on areas in your life where you are in need of compassion and forgiveness. Are there places in your heart that you have kept hidden from God's healing touch? Allow yourself to be enveloped by His loving embrace, knowing that His mercy is as deep and enduring as the love of a parent for their child. Let this reflection guide you to extend mercy and compassion to others, just as you have received from the Lord.</t>
+    <t>Reflect upon the gentleness and compassion that a loving father extends to his children. Consider how this paternal love mirrors the deep and abiding compassion that God has for each one of us. Take a moment to truly embrace the reality of this unconditional love in your life. Are you able to receive it fully, allowing it to heal and transform your heart? Reflect on how you can embody this same compassion in your interactions with others, sharing the love that you have received.</t>
   </si>
   <si>
     <t>June 16, 2025</t>
   </si>
   <si>
-    <t>Reflect upon Psalm 55:22, which invites us to "Cast your burden on the Lord, and He will sustain you; He will never permit the righteous to be moved." Consider the cares and worries that weigh you down in your daily life. Are you holding onto them, trying to solve everything on your own, or are you truly placing them at the feet of the Lord? This passage reminds us that God is our constant support and that His love will never falter. Take some time today to identify your burdens, offer them to God in prayer, and trust that He will provide the strength and stability you need.</t>
+    <t>Reflect upon the burdens and anxieties that weigh heavily on your heart. Consider how often you attempt to carry these loads alone and the toll it takes on your spirit. Today, seek to surrender these worries to God, placing your trust in His mighty strength and unwavering support. Remember that He cares deeply for you and desires to sustain you through every trial. As you release your burdens to Him, find solace in the divine assurance that you are never alone.</t>
   </si>
   <si>
     <t>June 17, 2025</t>
   </si>
   <si>
-    <t>Reflect, today, upon the profound message contained in Romans 8:1: "Therefore, there is now no condemnation for those who are in Christ Jesus." Consider the weight of this truth in your life. Are there areas where you struggle with guilt or self-condemnation? Bring these before the Lord and embrace the freedom that comes from being in Christ Jesus. Let His grace wash over you and transform your understanding of your true identity in Him. Rejoice in the gift of no condemnation, and allow it to lead you to live a life of gratitude and holiness.</t>
+    <t>Reflect on the gift of freedom that comes through Christ Jesus. Ponder the weight that is lifted from your shoulders because of His unwavering love and sacrifice. Consider how this newfound freedom calls you to live a life of gratitude, transformation, and deeper intimacy with God. Contemplate the areas in your life where you still feel bound by guilt or fear, and invite Christ's liberating power into those spaces, reminding yourself that you are no longer condemned, but cherished and embraced by God's grace.</t>
   </si>
   <si>
     <t>June 18, 2025</t>
   </si>
   <si>
-    <t>Reflect on the profound significance of Jesus' words: "All authority in heaven and on earth has been given to me." Consider what it means that He holds ultimate authority and how this impacts your life. Ask yourself if you truly trust in His power and wisdom to guide you. Ponder whether you submit to His authority in all areas of your life, allowing His teachings and will to shape your decisions, actions, and character. Embrace this divine truth and let it deepen your faith and reliance on Christ's sovereign authority.</t>
+    <t>Reflect upon the authority of Christ in your life. Consider what it means for Jesus to have "all authority" and how that should impact your daily decisions, attitudes, and actions. Do you fully embrace His authority, trusting that His guidance and command lead you towards true freedom and fulfillment? Spend time in prayer, asking for the grace to deepen your surrender to His will and to embody His teachings in all that you do.</t>
   </si>
   <si>
     <t>June 19, 2025</t>
   </si>
   <si>
-    <t>Reflect, today, on the qualities that define true friendship. Proverbs 18:24 reminds us, "A man of many companions may come to ruin, but there is a friend who sticks closer than a brother." Ponder the depth of your relationships and consider whether you are nurturing connections that reflect genuine love and loyalty. Are you surrounded by superficial acquaintances, or do you invest in friendships that endure through trials and tribulations? Seek to be that steadfast friend to others, emulating Christ's unwavering love and presence in all relationships.</t>
+    <t>Reflect upon the depth of your friendships. Are they built on superficial interests and convenience, or do they cultivate genuine understanding and support? True friends stick closer than a brother, offering steadfast loyalty and love. Examine whether you are that kind of friend to others and look for ways to deepen your connections with sincerity and trust. Seek to embody the traits of true friendship in your daily interactions, fostering a circle of relationships that reflect divine love and commitment.</t>
   </si>
   <si>
     <t>June 20, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the comforting and powerful message that God is our refuge and strength, an ever-present help in times of trouble. Psalm 46:7 reminds us, "The Lord Almighty is with us; the God of Jacob is our fortress." Take a moment to remember that no matter the chaos or turmoil in your life, God stands as a mighty fortress, steadfast and impenetrable. When faced with challenges, let this verse renew your trust and confidence in God's unwavering presence and protection. In moments of fear or uncertainty, turn to Him, knowing that He is your eternal refuge.</t>
+    <t>Reflect upon the idea of God's steadfast presence in your life. Consider the situations where you felt overwhelmed or anxious and ponder how the knowledge of God's constant companionship offers you strength and reassurance. Trust in His enduring support and let it bring you peace amidst life's tumultuous moments. Seek to recognize His presence in every circumstance, allowing it to fortify your faith and bring solace to your heart.</t>
   </si>
   <si>
     <t>June 21, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the profound and transformative power of kindness, compassion, and forgiveness as expressed in this verse: "Be kind and compassionate to one another, forgiving each other, just as in Christ, God forgave you." Consider how the forgiveness we receive from Christ should motivate us to forgive others. Examine your heart for any lingering resentment or unforgiveness. Pray for the grace to extend the same mercy and compassion to others that God has shown you. Let this reflection be a reminder that through our acts of kindness and forgiveness, we mirror the love and grace of God to the world.</t>
+    <t>Reflect upon the call to be kind, tenderhearted, and forgiving towards one another. Consider how well you embody these qualities in your daily interactions. Are there individuals whom you struggle to show kindness and forgiveness? Bring to mind those relationships and ask for God's grace to cultivate a compassionate and forgiving heart. Reflect on how embodying these virtues can transform your relationships and create a more loving and forgiving community.</t>
   </si>
   <si>
     <t>June 22, 2025</t>
   </si>
   <si>
-    <t>Reflect on the profound depth of God's love for each of us, encapsulated in this verse. “For God so loved the world that He gave His only Son, that whoever believes in Him should not perish but have eternal life.” Consider the magnitude of this sacrificial love and what it means for your personal relationship with God. Are you able to fully embrace this love and let it transform your life? Ponder the immense gift of eternal life and how this promise shapes your faith, your actions, and your view of the world. Seek to deepen your trust in God's love and let it be the cornerstone of your spiritual journey.</t>
+    <t>Reflect upon the immense love that God has for you, a love so profound that He gave His only Son for your salvation. Consider the depth and magnitude of this divine sacrifice and how it calls you to live a life of gratitude, faith, and love. Contemplate how you can embody this love in your daily life and share it with others. Are there areas in your life where you need to surrender more fully to this love? Let this reflection inspire a deeper trust and commitment to walking in God's light and grace.</t>
   </si>
   <si>
     <t>June 23, 2025</t>
   </si>
   <si>
-    <t>Reflect, today, upon the verse: “I have hidden Your word in my heart that I might not sin against You.” Consider the depth of this commitment to God's Word and the active choice to internalize and cherish it. Ponder whether you have made room in your heart for His teachings and if they are guiding your thoughts, decisions, and actions daily. Moreover, let this verse inspire you to seek out God's Word with fervor and hide it in your heart, allowing it to transform your life and shield you from sin.</t>
+    <t>Reflect upon the importance of internalizing and cherishing God's word deep within your heart. Consider how holding onto divine truth can guide your thoughts, decisions, and actions, protecting you from straying into sin. Ask yourself: How diligently do I commit God's teachings to memory and apply them in my daily life? Let this reflection inspire you to cultivate a deeper connection with God's wisdom, embedding it firmly within your soul.</t>
   </si>
   <si>
     <t>June 24, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the profound truth that those who pursue righteousness and love will find life, prosperity, and honor. Consider how your daily actions align with this pursuit. Are you actively seeking to uphold righteousness in all aspects of your life? Are your interactions with others characterized by genuine love and concern? Ponder the areas where you may need to grow in righteousness and deepen your love for others, and ask God to guide you in this journey, leading you to a life filled with His blessings and grace.</t>
+    <t>Reflect upon the pursuit of righteousness and kindness in your daily life. Consider how actively seeking these virtues can lead you to a more profound sense of fulfillment and the discovery of God's love and life within you. Think about specific actions you can take today to embody righteousness and kindness, and make a conscious effort to integrate them into your interactions with others. Ask yourself who in your life might need an extra measure of kindness from you and how you can demonstrate righteousness through your decisions and demeanor.</t>
   </si>
   <si>
     <t>June 25, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the profound call to "accept one another, then, just as Christ accepted you, in order to bring praise to God." This simple but powerful instruction invites us to embrace the diversity around us with open hearts. Consider how you welcome others into your life, whether they are similar to you or vastly different. Are there barriers or prejudices that prevent you from fully accepting others? Ponder the unconditional acceptance Christ has shown you and seek to extend that same grace and love to everyone you encounter, thus bringing glory to God in your actions and relationships.</t>
+    <t>Reflect upon the importance of acceptance and unity within the community. Consider how you treat others, especially those who may be different from you. Are you welcoming and inclusive in your actions and attitudes? Embrace the spirit of unity and harmony, remembering that we are all part of one body. Let each encounter with others be an opportunity to extend grace and love, fostering a community that mirrors the unconditional acceptance God has shown us.</t>
   </si>
   <si>
     <t>June 26, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the words, "Be still before the Lord and wait patiently for him." In our fast-paced world, it is easy to become restless and anxious, seeking immediate results and gratification. Use this verse to remind yourself of the importance of patience and trust in God's timing. Consider the areas of your life where you feel hurried or stressed, and offer these moments to God, asking for His peace and guidance. Embrace the stillness and find comfort in knowing that God is working in your life, even when you cannot see it.</t>
+    <t>Reflect upon the call to patience and trust in God's timing. Are there moments in your life where you find it difficult to wait or to refrain from acting hastily out of frustration or anxiety? Consider the peace that comes from surrendering your own timeline and trusting fully in God's perfect plan. Use this as an opportunity to deepen your faith and reliance on Him, resting in the assurance that His wisdom and timing are always for your ultimate good.</t>
   </si>
   <si>
     <t>June 27, 2025</t>
   </si>
   <si>
-    <t>Reflect upon this verse, "For I am the LORD your God who takes hold of your right hand and says to you, Do not fear; I will help you." Take a moment to place yourself in God's hands and feel His comforting grasp. Consider the areas of your life where fear and uncertainty dwell, and imagine God holding your hand as He guides you through them. Ask yourself, how often do I let go of God's hand and attempt to navigate life's trials alone? Today, renew your trust in His unwavering promise to help and support you in all circumstances.</t>
+    <t>Reflect on the comforting presence of God as He offers His hand to guide and reassure you. Consider those moments in your life when you have felt uncertain or afraid and recognize how divine assurance plays a crucial role in overcoming these trials. Contemplate how you might more fully place your trust in God’s guidance, allowing Him to lead you through challenges with faith and peace. Seek to let go of your fears and embrace the strength that comes from knowing God is always with you, holding your hand through every difficulty.</t>
   </si>
   <si>
     <t>June 28, 2025</t>
   </si>
   <si>
-    <t>Reflect, today, upon the profound freedom that Jesus offers you. "So if the Son sets you free, you will be free indeed." Contemplate the areas in your life where you feel bound by sin, fear, or doubt. Recognize that true freedom comes not from worldly achievements or personal efforts, but from the grace and truth of Christ. Ask yourself if you are living fully in this freedom or if there are areas where you still need to surrender to God's liberating love. Embrace the freedom that Jesus offers and let it transform every aspect of your life.</t>
+    <t>Reflect on the freedom that Christ offers to each one of us. Consider the areas of your life where you feel bound or enslaved—by sin, fear, addiction, or other burdens. Christ's promise of freedom is not just a distant hope but a reality we can embrace today. Contemplate the depth of this freedom and how it can transform your heart, mind, and actions. Seek out what might be holding you back from fully living in this freedom, and ask Christ to release you from these chains. As you reflect, allow yourself to experience the peace and liberation that come from truly being set free by Him.</t>
   </si>
   <si>
     <t>June 29, 2025</t>
   </si>
   <si>
-    <t>Reflect upon Psalm 34:17, "The righteous cry out, and the LORD hears them; he delivers them from all their troubles." Contemplate the immense love and attentiveness that God has for His children. In moments of distress and uncertainty, do you turn to God with the full confidence that He hears you and will deliver you from your troubles? Trust in God's promise and allow this assurance to strengthen your faith and reliance on Him in every aspect of your life.</t>
+    <t>Reflect upon the moments in your life when you have felt overwhelmed by difficulties and distress. Be mindful of those times when you turned to God in desperation, seeking relief and solace. Today, consider how God has responded to your cries and delivered you from your troubles. Let this reflection fill you with gratitude and hope, knowing that in your moments of need, God hears you and stands ready to rescue you. Trust in His divine intervention and allow it to cultivate a deep sense of peace and confidence in your heart.</t>
   </si>
   <si>
     <t>June 30, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the ways in which you have made plans and set goals in your daily life. Proverbs 16:9 tells us, "The heart of man plans his way, but the Lord establishes his steps." Consider the times when your plans did not unfold as expected, and reflect on how God might have been guiding your steps in a different direction. Trust in the Lord's wisdom and guidance, even when it feels like your plans are not aligning with your expectations. Seek to discern His will and be open to the paths He establishes for you, knowing that His ways are higher and His love for you is steadfast.</t>
+    <t>Reflect upon the many plans you have made in your life and the paths you have chosen. Consider how often these plans aligned or diverged from what ultimately unfolded. Recognize the subtle and powerful ways in which God's guidance has steered your journey. Acknowledge that while our hearts and minds may set a course, it is through God's wisdom and will that we are truly directed. Embrace a spirit of trust and surrender, knowing that God's divine plan leads us to where we are meant to be. Contemplate how you can better align your intentions with divine guidance in each step you take.</t>
   </si>
   <si>
     <t>July 1, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the profound nature of faith as described in this verse: "Now faith is the assurance of things hoped for, the conviction of things not seen." Consider how this definition of faith applies to your own life. Are you able to place your hope in what you cannot yet see or fully understand? Think about the areas in your life where you are called to trust in God's promises, even when there is no visible evidence. Allow this reflection to deepen your trust and reliance on God, knowing that true faith often requires stepping into the unknown with confidence in His divine plan.</t>
+    <t>Reflect upon the nature of faith as a profound and unwavering trust in the promises of God, even when they are not visible to the human eye. Consider how faith acts as your guiding light through uncertainties and challenges. Ask yourself, how strong is your faith when faced with the unknown, and how can you nurture a deeper trust in the unseen realities that God has assured will come to pass? Embrace faith as the foundation of your hopes and convictions, and let it anchor your soul in every aspect of your life.</t>
   </si>
   <si>
     <t>July 2, 2025</t>
   </si>
   <si>
-    <t>Reflect on the beautiful assurance in Psalm 23:6, “Surely goodness and mercy shall follow me all the days of my life: and I will dwell in the house of the Lord forever.” As you meditate on this verse, consider the unending presence of God’s goodness and mercy in your life. How often do you recognize these blessings in both joyous times and difficult moments? Moreover, reflect on what it means to dwell in the house of the Lord forever. How can you cultivate a heart that longs to live in continual communion with God, finding your true home and fulfillment in His eternal presence? Let this verse be a reminder of God’s unwavering commitment to you and the eternal hope you have in Him.</t>
+    <t>Reflect upon the enduring promise of God's presence and kindness in your life. Consider the ways in which you have experienced His goodness and mercy chasing after you, even in moments of doubt or hardship. Let this awareness deepen your trust in Him, knowing that His love will guide you through every valley and lead you to everlasting peace. How can you cultivate a heart that is always receptive to His blessings and willing to dwell in His presence continually?</t>
   </si>
   <si>
     <t>July 3, 2025</t>
   </si>
   <si>
-    <t>Reflect, today, upon the profound truth that the Holy Spirit is present with you in your moments of weakness. When you feel uncertain, helpless, or confused, trust that the Spirit intercedes for you with groanings too deep for words. Consider how often you try to rely solely on your strength and understanding. Pause and allow the Holy Spirit to work within you, guiding and praying for you in ways beyond your comprehension. Embrace the comfort and support that comes from knowing you are never abandoned in your struggles.</t>
+    <t>Reflect upon those moments of weakness and uncertainty in your life. Understand that the Spirit is there to lift you up and intercede on your behalf, even when you do not have the words or strength to articulate your needs. Embrace the comfort of knowing that you are never alone, and allow the Spirit to guide and support you through your trials. Trust in this divine assistance and let it be a source of peace and strength in your daily journey.</t>
   </si>
   <si>
     <t>July 4, 2025</t>
@@ -2990,26 +2985,25 @@
     <t>2 Corinthians 3:17</t>
   </si>
   <si>
-    <t>"Now the Lord is the Spirit, and where the Spirit of the Lord is, there is freedom."
-Reflect upon the profound sense of freedom that is found in the presence of the Holy Spirit. This verse reminds us that true freedom comes from living in accordance with God's Spirit. Consider whether you are experiencing this freedom in your own life. Are there areas where you feel bound or restricted? Invite the Holy Spirit into those areas and pray for the liberation that comes from His presence. Embrace the freedom that sets you free to love, to forgive, and to live fully in Christ.</t>
+    <t>Reflect upon the freedom that the Spirit brings into your life. Consider areas where you may feel bound by fear, doubt, or societal pressures. Invite the Holy Spirit into those spaces, recognizing that true freedom comes only from God. Ponder how you can live more fully in this freedom, allowing the Spirit to guide and liberate you each day. Let this be a source of peace and inspiration, knowing that where the Spirit of the Lord is, there is true freedom.</t>
   </si>
   <si>
     <t>July 5, 2025</t>
   </si>
   <si>
-    <t>Reflect upon the simple yet profound directive to "Commit your way to the Lord; trust in him, and he will act." Consider what it truly means to commit your way to the Lord. Are there areas in your life where you struggle to fully surrender to God's providence? Reflect on your level of trust in God's plan, especially during times of uncertainty or difficulty. By placing your trust in Him wholeheartedly, you can find peace, knowing that God will guide your path and work in your life in ways beyond your comprehension. Commit each step to Him today and watch as He unfolds His divine will.</t>
+    <t>Reflect upon the act of truly committing your path to the Lord, trusting Him with every step you take. Consider how much you rely on your own understanding and plans, and then contemplate the freedom and peace that come from fully relinquishing control to God. In every decision and challenge, ask yourself if you are genuinely placing your trust in the Lord or if you are holding back out of fear or doubt. Strive to deepen your faith, knowing that He will faithfully guide you and bring to fulfillment all that He has promised. Trust and commit—these are the keys to a life aligned with God's divine purpose.</t>
   </si>
   <si>
     <t>July 6, 2025</t>
   </si>
   <si>
-    <t>Reflect upon God’s words, "Be strong and courageous. Do not be afraid; do not be discouraged, for the Lord your God will be with you wherever you go." Consider the areas in your life where you feel fear or discouragement. Reflect on the unwavering presence of God in those moments. Ask yourself, how can embracing God's constant presence and strength help you to overcome these fears and discouragements? Spend time in prayer, seeking God’s courage to face the challenges before you, knowing that you are never alone.</t>
+    <t>Reflect on the courage and strength that comes from trusting in a higher power. Consider moments in your life where fear and uncertainty have taken hold, and recognize the undying call to be strong and courageous. Contemplate the enduring promise of divine presence in your life, guiding you and providing resilience. Let this reflection encourage you to face challenges with a steadfast heart, knowing you are never truly alone.</t>
   </si>
   <si>
     <t>July 7, 2025</t>
   </si>
   <si>
-    <t>Reflect on these words of hope and joy: “May the God of hope fill you with all joy and peace in believing, so that by the power of the Holy Spirit you may abound in hope.” Consider how faith in God can transform your outlook on life. Do you allow the Holy Spirit to fill you with hope, joy, and peace? Take a moment to invite the Holy Spirit into your heart fully and let God's incredible hope overflow in every aspect of your life.</t>
+    <t>Reflect upon the hope that fills your heart each day. Is it a hope that springs from the depths of faith, or is it easily shaken by the circumstances of life? Contemplate the source of true joy and peace, acknowledging that it comes from a steadfast trust in God. As you meditate on these truths, pray that the Holy Spirit may continually fill you with the abundance of hope, guiding you to live a life glowing with His presence and power.</t>
   </si>
 </sst>
 </file>
